--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -25,13 +25,13 @@
     <definedName name="heatingandcoolingsystemtype">'cv_sample'!$AU$1:$AU$5</definedName>
     <definedName name="indoorspace">'cv_sample'!$AS$1:$AS$8</definedName>
     <definedName name="indoorsurface">'cv_sample'!$AR$1:$AR$8</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="lighttype">'cv_sample'!$AW$1:$AW$3</definedName>
     <definedName name="observedbioticrelationship">'cv_sample'!$CD$1:$CD$5</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="relationshiptooxygen">'cv_sample'!$CA$1:$CA$7</definedName>
     <definedName name="sequencequalitycheck">'cv_sample'!$AB$1:$AB$3</definedName>
     <definedName name="spacetypicalstate">'cv_sample'!$AZ$1:$AZ$2</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="841">
   <si>
     <t>alias</t>
   </si>
@@ -466,6 +466,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -565,6 +577,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -682,6 +712,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -689,6 +722,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -3081,10 +3117,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3125,10 +3161,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3155,7 +3191,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3175,7 +3211,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -3192,7 +3228,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -3209,7 +3245,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -3226,7 +3262,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -3243,7 +3279,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -3260,7 +3296,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -3277,7 +3313,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -3294,7 +3330,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -3311,7 +3347,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -3325,7 +3361,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -3339,7 +3375,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -3353,7 +3389,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -3367,7 +3403,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -3377,8 +3413,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -3388,8 +3427,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -3399,8 +3441,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -3410,8 +3455,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -3422,7 +3470,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -3433,7 +3481,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -3444,7 +3492,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -3455,7 +3503,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -3466,7 +3514,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -3477,7 +3525,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3488,7 +3536,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3499,7 +3547,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3510,7 +3558,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3521,7 +3569,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3532,7 +3580,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3543,7 +3591,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3554,7 +3602,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3565,7 +3613,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3573,7 +3621,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3581,7 +3629,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3589,7 +3637,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3597,7 +3645,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3605,7 +3653,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3613,7 +3661,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3621,7 +3669,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3629,7 +3677,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3637,7 +3685,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3645,176 +3693,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3839,27 +3927,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3882,122 +3970,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4024,498 +4112,498 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:83" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -4586,1833 +4674,1833 @@
   <sheetData>
     <row r="1" spans="28:82">
       <c r="AB1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AI1" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AP1" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AQ1" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AR1" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="AS1" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="AT1" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="AU1" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="AV1" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="AW1" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="AX1" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="AY1" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="AZ1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="BD1" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="BZ1" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="CA1" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="CD1" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" spans="28:82">
       <c r="AB2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AI2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AP2" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AQ2" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AR2" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="AS2" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="AT2" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="AU2" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="AV2" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="AW2" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="AX2" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="AY2" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="AZ2" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="BD2" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="BZ2" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="CA2" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="CD2" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
     </row>
     <row r="3" spans="28:82">
       <c r="AB3" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AI3" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AP3" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AQ3" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="AR3" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="AS3" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="AT3" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="AU3" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="AV3" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="AW3" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="AX3" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="AY3" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="BD3" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="BZ3" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="CA3" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="CD3" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="28:82">
       <c r="AI4" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AP4" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AQ4" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="AR4" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="AS4" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="AT4" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="AU4" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="AX4" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="AY4" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="BZ4" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="CA4" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="CD4" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
     </row>
     <row r="5" spans="28:82">
       <c r="AI5" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AP5" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AQ5" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AR5" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="AS5" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="AT5" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="AU5" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="AY5" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="BZ5" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="CA5" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="CD5" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6" spans="28:82">
       <c r="AI6" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AP6" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="AQ6" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="AR6" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="AS6" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="AT6" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="AY6" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="BZ6" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="CA6" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="28:82">
       <c r="AI7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="AP7" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AQ7" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="AR7" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="AS7" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="AT7" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="AY7" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="BZ7" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="CA7" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8" spans="28:82">
       <c r="AI8" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="AP8" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AQ8" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="AR8" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="AS8" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="AY8" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="BZ8" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9" spans="28:82">
       <c r="AI9" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="AP9" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="AY9" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="BZ9" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="28:82">
       <c r="AI10" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="AP10" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="AY10" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="BZ10" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
     </row>
     <row r="11" spans="28:82">
       <c r="AI11" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AP11" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AY11" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="BZ11" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
     </row>
     <row r="12" spans="28:82">
       <c r="AI12" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="AP12" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AY12" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="BZ12" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
     </row>
     <row r="13" spans="28:82">
       <c r="AI13" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="AP13" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="AY13" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="BZ13" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
     </row>
     <row r="14" spans="28:82">
       <c r="AI14" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="AP14" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="AY14" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="BZ14" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="28:82">
       <c r="AI15" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="AP15" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AY15" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="BZ15" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
     </row>
     <row r="16" spans="28:82">
       <c r="AI16" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="AY16" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="BZ16" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
     </row>
     <row r="17" spans="35:78">
       <c r="AI17" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="AY17" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="BZ17" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
     </row>
     <row r="18" spans="35:78">
       <c r="AI18" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="AY18" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="BZ18" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
     </row>
     <row r="19" spans="35:78">
       <c r="AI19" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="AY19" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="BZ19" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
     </row>
     <row r="20" spans="35:78">
       <c r="AI20" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="AY20" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="BZ20" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
     </row>
     <row r="21" spans="35:78">
       <c r="AI21" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="AY21" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="BZ21" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
     </row>
     <row r="22" spans="35:78">
       <c r="AI22" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="BZ22" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="35:78">
       <c r="AI23" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="BZ23" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
     </row>
     <row r="24" spans="35:78">
       <c r="AI24" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="BZ24" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
     </row>
     <row r="25" spans="35:78">
       <c r="AI25" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="BZ25" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
     </row>
     <row r="26" spans="35:78">
       <c r="AI26" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="BZ26" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
     </row>
     <row r="27" spans="35:78">
       <c r="AI27" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="BZ27" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
     </row>
     <row r="28" spans="35:78">
       <c r="AI28" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="BZ28" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
     </row>
     <row r="29" spans="35:78">
       <c r="AI29" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="BZ29" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
     </row>
     <row r="30" spans="35:78">
       <c r="AI30" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="BZ30" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
     </row>
     <row r="31" spans="35:78">
       <c r="AI31" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="35:78">
       <c r="AI32" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="35:35">
       <c r="AI33" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="35:35">
       <c r="AI34" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="35:35">
       <c r="AI35" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="35:35">
       <c r="AI36" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="35:35">
       <c r="AI37" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="35:35">
       <c r="AI38" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="35:35">
       <c r="AI39" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="35:35">
       <c r="AI40" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="35:35">
       <c r="AI41" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="35:35">
       <c r="AI42" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="35:35">
       <c r="AI43" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="35:35">
       <c r="AI44" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="35:35">
       <c r="AI45" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="35:35">
       <c r="AI46" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="35:35">
       <c r="AI47" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="35:35">
       <c r="AI48" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="35:35">
       <c r="AI49" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="35:35">
       <c r="AI50" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="35:35">
       <c r="AI51" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="35:35">
       <c r="AI52" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="35:35">
       <c r="AI53" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="35:35">
       <c r="AI54" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="35:35">
       <c r="AI55" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="35:35">
       <c r="AI56" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="35:35">
       <c r="AI57" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="35:35">
       <c r="AI58" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="35:35">
       <c r="AI59" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="35:35">
       <c r="AI60" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="35:35">
       <c r="AI61" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="35:35">
       <c r="AI62" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="35:35">
       <c r="AI63" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" spans="35:35">
       <c r="AI64" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="35:35">
       <c r="AI65" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="35:35">
       <c r="AI66" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="35:35">
       <c r="AI67" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="35:35">
       <c r="AI68" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="35:35">
       <c r="AI69" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="35:35">
       <c r="AI70" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="35:35">
       <c r="AI71" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="35:35">
       <c r="AI72" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="35:35">
       <c r="AI73" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="35:35">
       <c r="AI74" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="35:35">
       <c r="AI75" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="35:35">
       <c r="AI76" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="35:35">
       <c r="AI77" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="78" spans="35:35">
       <c r="AI78" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="35:35">
       <c r="AI79" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" spans="35:35">
       <c r="AI80" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="81" spans="35:35">
       <c r="AI81" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="35:35">
       <c r="AI82" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" spans="35:35">
       <c r="AI83" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="35:35">
       <c r="AI84" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="35:35">
       <c r="AI85" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="35:35">
       <c r="AI86" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="35:35">
       <c r="AI87" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="35:35">
       <c r="AI88" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="35:35">
       <c r="AI89" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="35:35">
       <c r="AI90" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" spans="35:35">
       <c r="AI91" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="35:35">
       <c r="AI92" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="35:35">
       <c r="AI93" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="35:35">
       <c r="AI94" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="35:35">
       <c r="AI95" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="35:35">
       <c r="AI96" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" spans="35:35">
       <c r="AI97" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98" spans="35:35">
       <c r="AI98" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" spans="35:35">
       <c r="AI99" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="35:35">
       <c r="AI100" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="35:35">
       <c r="AI101" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="102" spans="35:35">
       <c r="AI102" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="103" spans="35:35">
       <c r="AI103" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="35:35">
       <c r="AI104" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="105" spans="35:35">
       <c r="AI105" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="106" spans="35:35">
       <c r="AI106" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" spans="35:35">
       <c r="AI107" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="35:35">
       <c r="AI108" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="35:35">
       <c r="AI109" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="35:35">
       <c r="AI110" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="111" spans="35:35">
       <c r="AI111" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="35:35">
       <c r="AI112" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="35:35">
       <c r="AI113" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="35:35">
       <c r="AI114" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115" spans="35:35">
       <c r="AI115" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="35:35">
       <c r="AI116" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117" spans="35:35">
       <c r="AI117" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="35:35">
       <c r="AI118" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="35:35">
       <c r="AI119" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="35:35">
       <c r="AI120" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="35:35">
       <c r="AI121" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="35:35">
       <c r="AI122" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="123" spans="35:35">
       <c r="AI123" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="124" spans="35:35">
       <c r="AI124" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="35:35">
       <c r="AI125" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="126" spans="35:35">
       <c r="AI126" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="127" spans="35:35">
       <c r="AI127" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="128" spans="35:35">
       <c r="AI128" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="129" spans="35:35">
       <c r="AI129" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="130" spans="35:35">
       <c r="AI130" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="131" spans="35:35">
       <c r="AI131" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="132" spans="35:35">
       <c r="AI132" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" spans="35:35">
       <c r="AI133" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134" spans="35:35">
       <c r="AI134" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="35:35">
       <c r="AI135" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="136" spans="35:35">
       <c r="AI136" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="137" spans="35:35">
       <c r="AI137" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="138" spans="35:35">
       <c r="AI138" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="139" spans="35:35">
       <c r="AI139" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="140" spans="35:35">
       <c r="AI140" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" spans="35:35">
       <c r="AI141" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="142" spans="35:35">
       <c r="AI142" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="143" spans="35:35">
       <c r="AI143" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="144" spans="35:35">
       <c r="AI144" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="35:35">
       <c r="AI145" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="146" spans="35:35">
       <c r="AI146" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="147" spans="35:35">
       <c r="AI147" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="148" spans="35:35">
       <c r="AI148" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="35:35">
       <c r="AI149" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="35:35">
       <c r="AI150" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" spans="35:35">
       <c r="AI151" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="152" spans="35:35">
       <c r="AI152" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="153" spans="35:35">
       <c r="AI153" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="154" spans="35:35">
       <c r="AI154" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="155" spans="35:35">
       <c r="AI155" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="156" spans="35:35">
       <c r="AI156" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="157" spans="35:35">
       <c r="AI157" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="158" spans="35:35">
       <c r="AI158" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="159" spans="35:35">
       <c r="AI159" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="160" spans="35:35">
       <c r="AI160" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="161" spans="35:35">
       <c r="AI161" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="162" spans="35:35">
       <c r="AI162" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="163" spans="35:35">
       <c r="AI163" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="164" spans="35:35">
       <c r="AI164" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="165" spans="35:35">
       <c r="AI165" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="166" spans="35:35">
       <c r="AI166" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="167" spans="35:35">
       <c r="AI167" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="168" spans="35:35">
       <c r="AI168" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="169" spans="35:35">
       <c r="AI169" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="170" spans="35:35">
       <c r="AI170" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="171" spans="35:35">
       <c r="AI171" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="172" spans="35:35">
       <c r="AI172" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="173" spans="35:35">
       <c r="AI173" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="174" spans="35:35">
       <c r="AI174" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="175" spans="35:35">
       <c r="AI175" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="176" spans="35:35">
       <c r="AI176" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="177" spans="35:35">
       <c r="AI177" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="178" spans="35:35">
       <c r="AI178" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="179" spans="35:35">
       <c r="AI179" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="180" spans="35:35">
       <c r="AI180" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="181" spans="35:35">
       <c r="AI181" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="182" spans="35:35">
       <c r="AI182" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="183" spans="35:35">
       <c r="AI183" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="184" spans="35:35">
       <c r="AI184" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="185" spans="35:35">
       <c r="AI185" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="186" spans="35:35">
       <c r="AI186" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="187" spans="35:35">
       <c r="AI187" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="188" spans="35:35">
       <c r="AI188" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="189" spans="35:35">
       <c r="AI189" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="190" spans="35:35">
       <c r="AI190" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="191" spans="35:35">
       <c r="AI191" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="192" spans="35:35">
       <c r="AI192" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="193" spans="35:35">
       <c r="AI193" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="194" spans="35:35">
       <c r="AI194" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="195" spans="35:35">
       <c r="AI195" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="196" spans="35:35">
       <c r="AI196" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="197" spans="35:35">
       <c r="AI197" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="198" spans="35:35">
       <c r="AI198" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="199" spans="35:35">
       <c r="AI199" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="200" spans="35:35">
       <c r="AI200" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="201" spans="35:35">
       <c r="AI201" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="202" spans="35:35">
       <c r="AI202" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="203" spans="35:35">
       <c r="AI203" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="204" spans="35:35">
       <c r="AI204" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="205" spans="35:35">
       <c r="AI205" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="206" spans="35:35">
       <c r="AI206" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="207" spans="35:35">
       <c r="AI207" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="208" spans="35:35">
       <c r="AI208" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="209" spans="35:35">
       <c r="AI209" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="210" spans="35:35">
       <c r="AI210" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="211" spans="35:35">
       <c r="AI211" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="212" spans="35:35">
       <c r="AI212" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="213" spans="35:35">
       <c r="AI213" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="214" spans="35:35">
       <c r="AI214" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="215" spans="35:35">
       <c r="AI215" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="216" spans="35:35">
       <c r="AI216" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="217" spans="35:35">
       <c r="AI217" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="218" spans="35:35">
       <c r="AI218" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="219" spans="35:35">
       <c r="AI219" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="220" spans="35:35">
       <c r="AI220" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="221" spans="35:35">
       <c r="AI221" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="222" spans="35:35">
       <c r="AI222" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="223" spans="35:35">
       <c r="AI223" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="224" spans="35:35">
       <c r="AI224" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="225" spans="35:35">
       <c r="AI225" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="226" spans="35:35">
       <c r="AI226" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="227" spans="35:35">
       <c r="AI227" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="228" spans="35:35">
       <c r="AI228" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="229" spans="35:35">
       <c r="AI229" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="230" spans="35:35">
       <c r="AI230" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="231" spans="35:35">
       <c r="AI231" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="232" spans="35:35">
       <c r="AI232" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="233" spans="35:35">
       <c r="AI233" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="234" spans="35:35">
       <c r="AI234" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="235" spans="35:35">
       <c r="AI235" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="236" spans="35:35">
       <c r="AI236" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="237" spans="35:35">
       <c r="AI237" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="238" spans="35:35">
       <c r="AI238" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="239" spans="35:35">
       <c r="AI239" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="240" spans="35:35">
       <c r="AI240" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="241" spans="35:35">
       <c r="AI241" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="242" spans="35:35">
       <c r="AI242" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="243" spans="35:35">
       <c r="AI243" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="244" spans="35:35">
       <c r="AI244" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="245" spans="35:35">
       <c r="AI245" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="246" spans="35:35">
       <c r="AI246" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="247" spans="35:35">
       <c r="AI247" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="248" spans="35:35">
       <c r="AI248" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="249" spans="35:35">
       <c r="AI249" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="250" spans="35:35">
       <c r="AI250" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="251" spans="35:35">
       <c r="AI251" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="252" spans="35:35">
       <c r="AI252" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="253" spans="35:35">
       <c r="AI253" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="254" spans="35:35">
       <c r="AI254" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="255" spans="35:35">
       <c r="AI255" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="256" spans="35:35">
       <c r="AI256" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="257" spans="35:35">
       <c r="AI257" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="258" spans="35:35">
       <c r="AI258" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="259" spans="35:35">
       <c r="AI259" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="260" spans="35:35">
       <c r="AI260" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="261" spans="35:35">
       <c r="AI261" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="262" spans="35:35">
       <c r="AI262" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="263" spans="35:35">
       <c r="AI263" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="264" spans="35:35">
       <c r="AI264" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="265" spans="35:35">
       <c r="AI265" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="266" spans="35:35">
       <c r="AI266" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="267" spans="35:35">
       <c r="AI267" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="268" spans="35:35">
       <c r="AI268" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="269" spans="35:35">
       <c r="AI269" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="270" spans="35:35">
       <c r="AI270" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="271" spans="35:35">
       <c r="AI271" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="272" spans="35:35">
       <c r="AI272" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="273" spans="35:35">
       <c r="AI273" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="274" spans="35:35">
       <c r="AI274" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="275" spans="35:35">
       <c r="AI275" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="276" spans="35:35">
       <c r="AI276" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="277" spans="35:35">
       <c r="AI277" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="278" spans="35:35">
       <c r="AI278" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="279" spans="35:35">
       <c r="AI279" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="280" spans="35:35">
       <c r="AI280" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="281" spans="35:35">
       <c r="AI281" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="282" spans="35:35">
       <c r="AI282" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="283" spans="35:35">
       <c r="AI283" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="284" spans="35:35">
       <c r="AI284" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="285" spans="35:35">
       <c r="AI285" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="286" spans="35:35">
       <c r="AI286" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="287" spans="35:35">
       <c r="AI287" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -895,8 +895,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. Units: 
-                    </t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -1904,15 +1903,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -2314,8 +2311,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>sample size sorting method</t>
@@ -2357,43 +2353,37 @@
     <t>relative air humidity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Partial vapor and air pressure, density of the vapor and air, or by the actual mass of the vapor and air Units: 
-                    </t>
+    <t>(Mandatory) Partial vapor and air pressure, density of the vapor and air, or by the actual mass of the vapor and air (Units: %)</t>
   </si>
   <si>
     <t>absolute air humidity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Actual mass of water vapor - mh20 - present in the air water vapor mixture Units: 
-                    </t>
+    <t>(Mandatory) Actual mass of water vapor - mh20 - present in the air water vapor mixture (Units: kg)</t>
   </si>
   <si>
     <t>surface humidity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Surface water activity as a function of air and material moisture Units: 
-                    </t>
+    <t>(Optional) Surface water activity as a function of air and material moisture (Units: %)</t>
   </si>
   <si>
     <t>air temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Temperature of the air at time of sampling Units: 
-                    </t>
+    <t>(Mandatory) Temperature of the air at time of sampling (Units: ºC)</t>
   </si>
   <si>
     <t>surface temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature of the surface at time of sampling Units: 
-                    </t>
+    <t>(Optional) Temperature of the surface at time of sampling (Units: ºC)</t>
   </si>
   <si>
     <t>surface moisture</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Water held on the surface Units: 
-                    </t>
+    <t>(Optional) Water held on the surface (Units: parts/million)</t>
   </si>
   <si>
     <t>surface moisture pH</t>
@@ -2405,15 +2395,13 @@
     <t>dew point</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The temperature to which a given parcel of humid air must be cooled, at constant barometric pressure, for water vapor to condense into water Units: 
-                    </t>
+    <t>(Optional) The temperature to which a given parcel of humid air must be cooled, at constant barometric pressure, for water vapor to condense into water (Units: ºC)</t>
   </si>
   <si>
     <t>carbon dioxide</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) Carbon dioxide (gas) amount or concentration at the time of sampling Units: 
-                    </t>
+    <t>(Mandatory) Carbon dioxide (gas) amount or concentration at the time of sampling (Units: µmol/L)</t>
   </si>
   <si>
     <t>subspecific genetic lineage</t>

--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -115,7 +115,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="1117">
   <si>
     <t>alias</t>
   </si>
@@ -1310,12 +1310,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -3249,12 +3249,6 @@
   </si>
   <si>
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
-  </si>
-  <si>
-    <t>sequencing method</t>
-  </si>
-  <si>
-    <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
     <t>date last rain</t>
@@ -4918,7 +4912,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:HK2"/>
+  <dimension ref="A1:HJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4927,7 +4921,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:219">
+    <row r="1" spans="1:218">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5582,11 +5576,8 @@
       <c r="HJ1" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="HK1" s="1" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:219" ht="150" customHeight="1">
+    </row>
+    <row r="2" spans="1:218" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -6240,9 +6231,6 @@
       </c>
       <c r="HJ2" s="2" t="s">
         <v>1116</v>
-      </c>
-      <c r="HK2" s="2" t="s">
-        <v>1118</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="1118">
   <si>
     <t>alias</t>
   </si>
@@ -828,6 +828,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -4929,1308 +4932,1308 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="FX1" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="FY1" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="FZ1" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="GA1" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="GS1" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="GU1" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="GV1" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="GX1" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="GZ1" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="HA1" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="HD1" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="HE1" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="HF1" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="HH1" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="HI1" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="HJ1" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="2" spans="1:218" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="EX2" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="EY2" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="EZ2" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="FA2" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="FB2" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="FC2" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="FD2" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="FE2" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="FF2" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="FG2" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="FH2" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="FI2" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="FK2" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="FL2" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="FM2" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="FN2" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="FO2" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="FP2" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="FQ2" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="FR2" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="FS2" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="FT2" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="FU2" s="2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="FV2" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="FW2" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="FX2" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="FY2" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="FZ2" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="GA2" s="2" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="GB2" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="GC2" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="GD2" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="GE2" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="GF2" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="GG2" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="GH2" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="GI2" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="GJ2" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="GK2" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="GL2" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="GM2" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="GN2" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="GO2" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="GP2" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="GQ2" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="GR2" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="GS2" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="GT2" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="GU2" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="GV2" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="GW2" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="GX2" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="GY2" s="2" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="GZ2" s="2" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="HA2" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="HB2" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="HC2" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="HD2" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="HE2" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="HF2" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="HG2" s="2" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="HH2" s="2" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="HI2" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="HJ2" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
   </sheetData>
@@ -6304,1853 +6307,1853 @@
   <sheetData>
     <row r="1" spans="6:165">
       <c r="F1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="V1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AB1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AO1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AP1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AQ1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AR1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AS1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AT1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AU1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AV1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AW1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AX1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="BB1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="FI1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2" spans="6:165">
       <c r="F2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="V2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AB2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AO2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AP2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AQ2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AR2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AS2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AT2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AU2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AV2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AW2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AX2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="BB2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="FI2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="3" spans="6:165">
       <c r="F3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AO3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AP3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AQ3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AR3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AS3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AT3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AU3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AV3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AW3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BB3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="FI3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="4" spans="6:165">
       <c r="F4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AO4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AP4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AQ4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AR4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AS4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AV4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AW4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="FI4" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="5" spans="6:165">
       <c r="F5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AB5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AO5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AP5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AQ5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AR5" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AS5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AW5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="FI5" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="6" spans="6:165">
       <c r="F6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AB6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN6" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AO6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AP6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AQ6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AR6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AW6" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="7" spans="6:165">
       <c r="F7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AB7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AO7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AP7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AQ7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AR7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AW7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="8" spans="6:165">
       <c r="F8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AB8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AO8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AP8" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AQ8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AW8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="6:165">
       <c r="F9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AB9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN9" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AW9" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="6:165">
       <c r="F10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AB10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AW10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="6:165">
       <c r="F11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AB11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN11" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AW11" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="12" spans="6:165">
       <c r="F12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AB12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN12" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AW12" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="6:165">
       <c r="F13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AB13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN13" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AW13" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14" spans="6:165">
       <c r="F14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AB14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN14" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AW14" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="15" spans="6:165">
       <c r="F15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AB15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN15" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AW15" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" spans="6:165">
       <c r="F16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AB16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AW16" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="17" spans="6:49">
       <c r="F17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AB17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AW17" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="18" spans="6:49">
       <c r="F18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AW18" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="6:49">
       <c r="F19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AB19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AW19" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" spans="6:49">
       <c r="F20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AB20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AW20" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" spans="6:49">
       <c r="F21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AB21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AW21" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="22" spans="6:49">
       <c r="F22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AB22" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="6:49">
       <c r="F23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB23" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="6:49">
       <c r="F24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AB24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="6:49">
       <c r="F25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AB25" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="6:49">
       <c r="F26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AB26" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="6:49">
       <c r="F27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AB27" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="6:49">
       <c r="F28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AB28" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="6:49">
       <c r="F29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AB29" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="6:49">
       <c r="F30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB30" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="6:49">
       <c r="AB31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="6:49">
       <c r="AB32" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="28:28">
       <c r="AB33" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="28:28">
       <c r="AB34" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="28:28">
       <c r="AB35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="28:28">
       <c r="AB36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="28:28">
       <c r="AB37" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="28:28">
       <c r="AB38" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="28:28">
       <c r="AB39" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="28:28">
       <c r="AB40" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="28:28">
       <c r="AB41" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="28:28">
       <c r="AB42" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="28:28">
       <c r="AB43" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="28:28">
       <c r="AB44" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="28:28">
       <c r="AB45" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="28:28">
       <c r="AB46" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="28:28">
       <c r="AB47" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="28:28">
       <c r="AB48" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="28:28">
       <c r="AB49" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="28:28">
       <c r="AB50" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="28:28">
       <c r="AB51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" spans="28:28">
       <c r="AB52" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53" spans="28:28">
       <c r="AB53" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="28:28">
       <c r="AB54" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="28:28">
       <c r="AB55" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56" spans="28:28">
       <c r="AB56" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="28:28">
       <c r="AB57" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="28:28">
       <c r="AB58" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="28:28">
       <c r="AB59" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60" spans="28:28">
       <c r="AB60" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="28:28">
       <c r="AB61" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" spans="28:28">
       <c r="AB62" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="28:28">
       <c r="AB63" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="28:28">
       <c r="AB64" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="28:28">
       <c r="AB65" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="28:28">
       <c r="AB66" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="28:28">
       <c r="AB67" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68" spans="28:28">
       <c r="AB68" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="28:28">
       <c r="AB69" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="28:28">
       <c r="AB70" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="28:28">
       <c r="AB71" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="28:28">
       <c r="AB72" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73" spans="28:28">
       <c r="AB73" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74" spans="28:28">
       <c r="AB74" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="28:28">
       <c r="AB75" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="28:28">
       <c r="AB76" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="28:28">
       <c r="AB77" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="28:28">
       <c r="AB78" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="28:28">
       <c r="AB79" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="28:28">
       <c r="AB80" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="28:28">
       <c r="AB81" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="28:28">
       <c r="AB82" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="28:28">
       <c r="AB83" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="28:28">
       <c r="AB84" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="28:28">
       <c r="AB85" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="28:28">
       <c r="AB86" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="28:28">
       <c r="AB87" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" spans="28:28">
       <c r="AB88" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="28:28">
       <c r="AB89" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="28:28">
       <c r="AB90" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91" spans="28:28">
       <c r="AB91" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="28:28">
       <c r="AB92" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93" spans="28:28">
       <c r="AB93" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="28:28">
       <c r="AB94" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="95" spans="28:28">
       <c r="AB95" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96" spans="28:28">
       <c r="AB96" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="97" spans="28:28">
       <c r="AB97" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="98" spans="28:28">
       <c r="AB98" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="99" spans="28:28">
       <c r="AB99" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="100" spans="28:28">
       <c r="AB100" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="101" spans="28:28">
       <c r="AB101" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="102" spans="28:28">
       <c r="AB102" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="103" spans="28:28">
       <c r="AB103" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="104" spans="28:28">
       <c r="AB104" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105" spans="28:28">
       <c r="AB105" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="106" spans="28:28">
       <c r="AB106" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="107" spans="28:28">
       <c r="AB107" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="108" spans="28:28">
       <c r="AB108" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="28:28">
       <c r="AB109" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="28:28">
       <c r="AB110" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="111" spans="28:28">
       <c r="AB111" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="112" spans="28:28">
       <c r="AB112" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="113" spans="28:28">
       <c r="AB113" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="114" spans="28:28">
       <c r="AB114" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="115" spans="28:28">
       <c r="AB115" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="116" spans="28:28">
       <c r="AB116" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="117" spans="28:28">
       <c r="AB117" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="118" spans="28:28">
       <c r="AB118" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="28:28">
       <c r="AB119" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120" spans="28:28">
       <c r="AB120" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121" spans="28:28">
       <c r="AB121" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="122" spans="28:28">
       <c r="AB122" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="123" spans="28:28">
       <c r="AB123" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="124" spans="28:28">
       <c r="AB124" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="125" spans="28:28">
       <c r="AB125" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="126" spans="28:28">
       <c r="AB126" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="127" spans="28:28">
       <c r="AB127" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="128" spans="28:28">
       <c r="AB128" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="28:28">
       <c r="AB129" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="130" spans="28:28">
       <c r="AB130" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="131" spans="28:28">
       <c r="AB131" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="132" spans="28:28">
       <c r="AB132" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="133" spans="28:28">
       <c r="AB133" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="134" spans="28:28">
       <c r="AB134" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="135" spans="28:28">
       <c r="AB135" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="136" spans="28:28">
       <c r="AB136" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137" spans="28:28">
       <c r="AB137" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="138" spans="28:28">
       <c r="AB138" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="139" spans="28:28">
       <c r="AB139" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="140" spans="28:28">
       <c r="AB140" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="141" spans="28:28">
       <c r="AB141" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="142" spans="28:28">
       <c r="AB142" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="143" spans="28:28">
       <c r="AB143" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="144" spans="28:28">
       <c r="AB144" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="145" spans="28:28">
       <c r="AB145" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="146" spans="28:28">
       <c r="AB146" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="147" spans="28:28">
       <c r="AB147" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="148" spans="28:28">
       <c r="AB148" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="149" spans="28:28">
       <c r="AB149" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="150" spans="28:28">
       <c r="AB150" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="151" spans="28:28">
       <c r="AB151" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="152" spans="28:28">
       <c r="AB152" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="153" spans="28:28">
       <c r="AB153" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="154" spans="28:28">
       <c r="AB154" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="155" spans="28:28">
       <c r="AB155" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="156" spans="28:28">
       <c r="AB156" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="157" spans="28:28">
       <c r="AB157" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="158" spans="28:28">
       <c r="AB158" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="159" spans="28:28">
       <c r="AB159" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="160" spans="28:28">
       <c r="AB160" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="161" spans="28:28">
       <c r="AB161" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="162" spans="28:28">
       <c r="AB162" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="163" spans="28:28">
       <c r="AB163" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="164" spans="28:28">
       <c r="AB164" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="165" spans="28:28">
       <c r="AB165" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="166" spans="28:28">
       <c r="AB166" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="167" spans="28:28">
       <c r="AB167" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="168" spans="28:28">
       <c r="AB168" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="169" spans="28:28">
       <c r="AB169" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="170" spans="28:28">
       <c r="AB170" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="171" spans="28:28">
       <c r="AB171" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="172" spans="28:28">
       <c r="AB172" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="173" spans="28:28">
       <c r="AB173" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="174" spans="28:28">
       <c r="AB174" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="175" spans="28:28">
       <c r="AB175" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="176" spans="28:28">
       <c r="AB176" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="177" spans="28:28">
       <c r="AB177" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="178" spans="28:28">
       <c r="AB178" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="179" spans="28:28">
       <c r="AB179" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="180" spans="28:28">
       <c r="AB180" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="181" spans="28:28">
       <c r="AB181" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="182" spans="28:28">
       <c r="AB182" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="183" spans="28:28">
       <c r="AB183" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="184" spans="28:28">
       <c r="AB184" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="185" spans="28:28">
       <c r="AB185" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="186" spans="28:28">
       <c r="AB186" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="187" spans="28:28">
       <c r="AB187" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="188" spans="28:28">
       <c r="AB188" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="189" spans="28:28">
       <c r="AB189" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="190" spans="28:28">
       <c r="AB190" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="191" spans="28:28">
       <c r="AB191" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="192" spans="28:28">
       <c r="AB192" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="193" spans="28:28">
       <c r="AB193" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="194" spans="28:28">
       <c r="AB194" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="195" spans="28:28">
       <c r="AB195" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="196" spans="28:28">
       <c r="AB196" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="197" spans="28:28">
       <c r="AB197" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="28:28">
       <c r="AB198" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="199" spans="28:28">
       <c r="AB199" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="200" spans="28:28">
       <c r="AB200" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="201" spans="28:28">
       <c r="AB201" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="202" spans="28:28">
       <c r="AB202" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="203" spans="28:28">
       <c r="AB203" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="204" spans="28:28">
       <c r="AB204" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="205" spans="28:28">
       <c r="AB205" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="206" spans="28:28">
       <c r="AB206" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="207" spans="28:28">
       <c r="AB207" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="208" spans="28:28">
       <c r="AB208" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="209" spans="28:28">
       <c r="AB209" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="210" spans="28:28">
       <c r="AB210" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="211" spans="28:28">
       <c r="AB211" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="212" spans="28:28">
       <c r="AB212" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="213" spans="28:28">
       <c r="AB213" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="214" spans="28:28">
       <c r="AB214" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="215" spans="28:28">
       <c r="AB215" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="216" spans="28:28">
       <c r="AB216" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="217" spans="28:28">
       <c r="AB217" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="218" spans="28:28">
       <c r="AB218" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="219" spans="28:28">
       <c r="AB219" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="220" spans="28:28">
       <c r="AB220" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="221" spans="28:28">
       <c r="AB221" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="222" spans="28:28">
       <c r="AB222" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="223" spans="28:28">
       <c r="AB223" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="224" spans="28:28">
       <c r="AB224" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="225" spans="28:28">
       <c r="AB225" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="226" spans="28:28">
       <c r="AB226" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="227" spans="28:28">
       <c r="AB227" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="228" spans="28:28">
       <c r="AB228" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="229" spans="28:28">
       <c r="AB229" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="230" spans="28:28">
       <c r="AB230" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="231" spans="28:28">
       <c r="AB231" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="232" spans="28:28">
       <c r="AB232" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="233" spans="28:28">
       <c r="AB233" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="234" spans="28:28">
       <c r="AB234" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="235" spans="28:28">
       <c r="AB235" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="236" spans="28:28">
       <c r="AB236" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="237" spans="28:28">
       <c r="AB237" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="238" spans="28:28">
       <c r="AB238" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="239" spans="28:28">
       <c r="AB239" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="240" spans="28:28">
       <c r="AB240" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="241" spans="28:28">
       <c r="AB241" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="242" spans="28:28">
       <c r="AB242" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="243" spans="28:28">
       <c r="AB243" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="244" spans="28:28">
       <c r="AB244" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="245" spans="28:28">
       <c r="AB245" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="246" spans="28:28">
       <c r="AB246" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="247" spans="28:28">
       <c r="AB247" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="248" spans="28:28">
       <c r="AB248" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="249" spans="28:28">
       <c r="AB249" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="250" spans="28:28">
       <c r="AB250" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="251" spans="28:28">
       <c r="AB251" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="252" spans="28:28">
       <c r="AB252" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="253" spans="28:28">
       <c r="AB253" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="254" spans="28:28">
       <c r="AB254" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="255" spans="28:28">
       <c r="AB255" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="256" spans="28:28">
       <c r="AB256" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="257" spans="28:28">
       <c r="AB257" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="258" spans="28:28">
       <c r="AB258" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="259" spans="28:28">
       <c r="AB259" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="260" spans="28:28">
       <c r="AB260" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="261" spans="28:28">
       <c r="AB261" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="262" spans="28:28">
       <c r="AB262" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="263" spans="28:28">
       <c r="AB263" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="264" spans="28:28">
       <c r="AB264" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="265" spans="28:28">
       <c r="AB265" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="266" spans="28:28">
       <c r="AB266" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="267" spans="28:28">
       <c r="AB267" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="268" spans="28:28">
       <c r="AB268" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="269" spans="28:28">
       <c r="AB269" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="270" spans="28:28">
       <c r="AB270" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="271" spans="28:28">
       <c r="AB271" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="272" spans="28:28">
       <c r="AB272" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="273" spans="28:28">
       <c r="AB273" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="274" spans="28:28">
       <c r="AB274" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="275" spans="28:28">
       <c r="AB275" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="276" spans="28:28">
       <c r="AB276" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="277" spans="28:28">
       <c r="AB277" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="278" spans="28:28">
       <c r="AB278" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="279" spans="28:28">
       <c r="AB279" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="280" spans="28:28">
       <c r="AB280" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="281" spans="28:28">
       <c r="AB281" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="282" spans="28:28">
       <c r="AB282" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="283" spans="28:28">
       <c r="AB283" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="284" spans="28:28">
       <c r="AB284" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="285" spans="28:28">
       <c r="AB285" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="286" spans="28:28">
       <c r="AB286" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="287" spans="28:28">
       <c r="AB287" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="288" spans="28:28">
       <c r="AB288" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -128,7 +128,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -146,7 +146,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -17,38 +17,38 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="buildingoccupancytype">'cv_sample'!$AW$1:$AW$21</definedName>
-    <definedName name="buildingsetting">'cv_sample'!$AV$1:$AV$4</definedName>
+    <definedName name="buildingoccupancytype">'cv_sample'!$AV$1:$AV$21</definedName>
+    <definedName name="buildingsetting">'cv_sample'!$AU$1:$AU$4</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="filtertype">'cv_sample'!$AR$1:$AR$7</definedName>
+    <definedName name="filtertype">'cv_sample'!$AQ$1:$AQ$7</definedName>
     <definedName name="frequencyofcleaning">'cv_sample'!$FI$1:$FI$5</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AB$1:$AB$288</definedName>
-    <definedName name="heatingandcoolingsystemtype">'cv_sample'!$AS$1:$AS$5</definedName>
-    <definedName name="indoorspace">'cv_sample'!$AQ$1:$AQ$8</definedName>
-    <definedName name="indoorsurface">'cv_sample'!$AP$1:$AP$8</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$ET$1:$ET$289</definedName>
+    <definedName name="heatingandcoolingsystemtype">'cv_sample'!$AR$1:$AR$5</definedName>
+    <definedName name="indoorspace">'cv_sample'!$AP$1:$AP$8</definedName>
+    <definedName name="indoorsurface">'cv_sample'!$AO$1:$AO$8</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="lighttype">'cv_sample'!$AU$1:$AU$3</definedName>
+    <definedName name="lighttype">'cv_sample'!$AT$1:$AT$3</definedName>
     <definedName name="observedbioticrelationship">'cv_sample'!$G$1:$G$5</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="relationshiptooxygen">'cv_sample'!$I$1:$I$7</definedName>
     <definedName name="sequencequalitycheck">'cv_sample'!$V$1:$V$3</definedName>
-    <definedName name="spacetypicalstate">'cv_sample'!$AX$1:$AX$2</definedName>
+    <definedName name="spacetypicalstate">'cv_sample'!$AW$1:$AW$2</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="substructuretype">'cv_sample'!$AT$1:$AT$3</definedName>
-    <definedName name="surfaceaircontaminant">'cv_sample'!$AO$1:$AO$8</definedName>
-    <definedName name="surfacematerial">'cv_sample'!$AN$1:$AN$15</definedName>
+    <definedName name="substructuretype">'cv_sample'!$AS$1:$AS$3</definedName>
+    <definedName name="surfaceaircontaminant">'cv_sample'!$AN$1:$AN$8</definedName>
+    <definedName name="surfacematerial">'cv_sample'!$AM$1:$AM$15</definedName>
     <definedName name="trophiclevel">'cv_sample'!$F$1:$F$30</definedName>
-    <definedName name="ventilationtype">'cv_sample'!$BB$1:$BB$3</definedName>
+    <definedName name="ventilationtype">'cv_sample'!$BA$1:$BA$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1119">
   <si>
     <t>alias</t>
   </si>
@@ -1121,6 +1121,996 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>sampling time outside</t>
+  </si>
+  <si>
+    <t>(Optional) The recent and long term history of outside sampling</t>
+  </si>
+  <si>
+    <t>temperature outside house</t>
+  </si>
+  <si>
+    <t>(Optional) The recorded temperature value at sampling time outside (Units: °C)</t>
+  </si>
+  <si>
+    <t>train station collection location</t>
+  </si>
+  <si>
+    <t>(Optional) The train station collection location</t>
+  </si>
+  <si>
+    <t>train stop collection location</t>
+  </si>
+  <si>
+    <t>(Optional) The train stop collection location</t>
+  </si>
+  <si>
+    <t>adobe</t>
+  </si>
+  <si>
+    <t>carpet</t>
+  </si>
+  <si>
+    <t>cinder blocks</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>hay bales</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>stainless steel</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>stucco</t>
+  </si>
+  <si>
+    <t>tile</t>
+  </si>
+  <si>
+    <t>vinyl</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>surface material</t>
+  </si>
+  <si>
+    <t>(Optional) Surface materials at the point of sampling</t>
+  </si>
+  <si>
+    <t>biocides</t>
+  </si>
+  <si>
+    <t>biological contaminants</t>
+  </si>
+  <si>
+    <t>dust</t>
+  </si>
+  <si>
+    <t>nutrients</t>
+  </si>
+  <si>
+    <t>organic matter</t>
+  </si>
+  <si>
+    <t>particulate matter</t>
+  </si>
+  <si>
+    <t>radon</t>
+  </si>
+  <si>
+    <t>volatile organic compounds</t>
+  </si>
+  <si>
+    <t>surface-air contaminant</t>
+  </si>
+  <si>
+    <t>(Optional) Contaminant identified on surface</t>
+  </si>
+  <si>
+    <t>cabinet</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>counter top</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>shelving</t>
+  </si>
+  <si>
+    <t>vent cover</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>indoor surface</t>
+  </si>
+  <si>
+    <t>(Optional) Type of indoor surface</t>
+  </si>
+  <si>
+    <t>bathroom</t>
+  </si>
+  <si>
+    <t>bedroom</t>
+  </si>
+  <si>
+    <t>elevator</t>
+  </si>
+  <si>
+    <t>foyer</t>
+  </si>
+  <si>
+    <t>hallway</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>locker room</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>indoor space</t>
+  </si>
+  <si>
+    <t>(Mandatory) A distinguishable space within a structure, the purpose for which discrete areas of a building is used</t>
+  </si>
+  <si>
+    <t>HEPA filter</t>
+  </si>
+  <si>
+    <t>chemical air filter</t>
+  </si>
+  <si>
+    <t>electrostatic air treatment</t>
+  </si>
+  <si>
+    <t>gas-phase air treatment</t>
+  </si>
+  <si>
+    <t>low-MERV pleated media</t>
+  </si>
+  <si>
+    <t>particulate air filter</t>
+  </si>
+  <si>
+    <t>ultraviolet air treatment</t>
+  </si>
+  <si>
+    <t>filter type</t>
+  </si>
+  <si>
+    <t>(Mandatory) A device which removes solid particulates or airborne molecular contaminants</t>
+  </si>
+  <si>
+    <t>forced air system</t>
+  </si>
+  <si>
+    <t>heat pump</t>
+  </si>
+  <si>
+    <t>radiant system</t>
+  </si>
+  <si>
+    <t>steam forced heat</t>
+  </si>
+  <si>
+    <t>wood stove</t>
+  </si>
+  <si>
+    <t>heating and cooling system type</t>
+  </si>
+  <si>
+    <t>(Mandatory) Methods of conditioning or heating a room or building</t>
+  </si>
+  <si>
+    <t>basement</t>
+  </si>
+  <si>
+    <t>crawlspace</t>
+  </si>
+  <si>
+    <t>slab on grade</t>
+  </si>
+  <si>
+    <t>substructure type</t>
+  </si>
+  <si>
+    <t>(Optional) The substructure or under building is that largely hidden section of the building which is built off the foundations to the ground floor level</t>
+  </si>
+  <si>
+    <t>electric light</t>
+  </si>
+  <si>
+    <t>natural light</t>
+  </si>
+  <si>
+    <t>no light</t>
+  </si>
+  <si>
+    <t>light type</t>
+  </si>
+  <si>
+    <t>(Mandatory) Application of light to achieve some practical or aesthetic effect. lighting includes the use of both artificial light sources such as lamps and light fixtures, as well as natural illumination by capturing daylight. can also include absence of light</t>
+  </si>
+  <si>
+    <t>exurban</t>
+  </si>
+  <si>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>suburban</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>building setting</t>
+  </si>
+  <si>
+    <t>(Mandatory) A location (geography) where a building is set</t>
+  </si>
+  <si>
+    <t>agricultural</t>
+  </si>
+  <si>
+    <t>airport</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>educational</t>
+  </si>
+  <si>
+    <t>goverment</t>
+  </si>
+  <si>
+    <t>health care</t>
+  </si>
+  <si>
+    <t>high rise</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>low rise</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>religious</t>
+  </si>
+  <si>
+    <t>residential</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>sports complex</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>wood framed</t>
+  </si>
+  <si>
+    <t>building occupancy type</t>
+  </si>
+  <si>
+    <t>(Mandatory) The primary function for which a building or discrete part of a building is intended to be used</t>
+  </si>
+  <si>
+    <t>typically occupied</t>
+  </si>
+  <si>
+    <t>typically unoccupied</t>
+  </si>
+  <si>
+    <t>space typical state</t>
+  </si>
+  <si>
+    <t>(Mandatory) Customary or normal state of the space</t>
+  </si>
+  <si>
+    <t>typical occupant density</t>
+  </si>
+  <si>
+    <t>(Mandatory) Customary or normal density of occupants</t>
+  </si>
+  <si>
+    <t>occupancy at sampling</t>
+  </si>
+  <si>
+    <t>(Mandatory) Number of occupants present at time of sample within the given space</t>
+  </si>
+  <si>
+    <t>occupant density at sampling</t>
+  </si>
+  <si>
+    <t>(Mandatory) Average number of occupants at time of sampling per square footage</t>
+  </si>
+  <si>
+    <t>forced ventilation</t>
+  </si>
+  <si>
+    <t>mechanical ventilation</t>
+  </si>
+  <si>
+    <t>natural ventilation</t>
+  </si>
+  <si>
+    <t>ventilation type</t>
+  </si>
+  <si>
+    <t>(Mandatory) The intentional movement of air from outside a building to the inside through forced or natural movement of air</t>
+  </si>
+  <si>
+    <t>rooms that are on the same hallway</t>
+  </si>
+  <si>
+    <t>(Optional) List of room(s) (room number, room name) located in the same hallway as sampling room</t>
+  </si>
+  <si>
+    <t>wall surface treatment</t>
+  </si>
+  <si>
+    <t>(Optional) The surface treatment of interior wall</t>
+  </si>
+  <si>
+    <t>wall area</t>
+  </si>
+  <si>
+    <t>(Optional) The total area of the sampled room's walls</t>
+  </si>
+  <si>
+    <t>elevator count</t>
+  </si>
+  <si>
+    <t>(Optional) The number of elevators within the built structure</t>
+  </si>
+  <si>
+    <t>floor area</t>
+  </si>
+  <si>
+    <t>(Optional) The area of the floor space within the room</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>(Optional) The types of furniture present in the sampled room</t>
+  </si>
+  <si>
+    <t>water feature type</t>
+  </si>
+  <si>
+    <t>(Optional) The type of water feature present within the building being sampled</t>
+  </si>
+  <si>
+    <t>room door distance</t>
+  </si>
+  <si>
+    <t>(Optional) Distance between doors (meters) in the hallway between the sampling room and adjacent rooms</t>
+  </si>
+  <si>
+    <t>room type</t>
+  </si>
+  <si>
+    <t>(Optional) The main purpose or activity of the sampling room. a room is any distinguishable space within a structure</t>
+  </si>
+  <si>
+    <t>window location</t>
+  </si>
+  <si>
+    <t>(Optional) The relative location of the window within the room</t>
+  </si>
+  <si>
+    <t>ceiling type</t>
+  </si>
+  <si>
+    <t>(Optional) The type of ceiling according to the ceiling's appearance or construction</t>
+  </si>
+  <si>
+    <t>door direction of opening</t>
+  </si>
+  <si>
+    <t>(Optional) The direction the door opens</t>
+  </si>
+  <si>
+    <t>exposed pipes</t>
+  </si>
+  <si>
+    <t>(Optional) The number of exposed pipes in the room</t>
+  </si>
+  <si>
+    <t>wall height</t>
+  </si>
+  <si>
+    <t>(Optional) The average height of the walls in the sampled room</t>
+  </si>
+  <si>
+    <t>door type, metal</t>
+  </si>
+  <si>
+    <t>(Optional) The type of metal door</t>
+  </si>
+  <si>
+    <t>inside lux light</t>
+  </si>
+  <si>
+    <t>(Optional) The recorded value at sampling time (power density) (Units: kg s−3)</t>
+  </si>
+  <si>
+    <t>exposed ductwork</t>
+  </si>
+  <si>
+    <t>(Optional) The amount of exposed ductwork in the room (Units: kg s−3)</t>
+  </si>
+  <si>
+    <t>door material</t>
+  </si>
+  <si>
+    <t>(Optional) The material the door is composed of (Units: kg s−3)</t>
+  </si>
+  <si>
+    <t>adjacent rooms</t>
+  </si>
+  <si>
+    <t>(Optional) List of rooms (room number, room name) immediately adjacent to the sampling room</t>
+  </si>
+  <si>
+    <t>wall thermal mass</t>
+  </si>
+  <si>
+    <t>(Optional) The ability of the wall to provide inertia against temperature fluctuations. generally this means concrete or concrete block that is either exposed or covered only with paint (Units: J/°C)</t>
+  </si>
+  <si>
+    <t>ceiling signs of water/mold</t>
+  </si>
+  <si>
+    <t>(Optional) Signs of the presence of mold or mildew on the ceiling (Units: J/°C)</t>
+  </si>
+  <si>
+    <t>window status</t>
+  </si>
+  <si>
+    <t>(Optional) Defines whether the windows were open or closed during environmental testing (Units: %)</t>
+  </si>
+  <si>
+    <t>door location</t>
+  </si>
+  <si>
+    <t>(Optional) The relative location of the door in the room (Units: year)</t>
+  </si>
+  <si>
+    <t>window signs of water/mold</t>
+  </si>
+  <si>
+    <t>(Optional) Signs of the presence of mold or mildew on the window. (Units: year)</t>
+  </si>
+  <si>
+    <t>window type</t>
+  </si>
+  <si>
+    <t>(Optional) The type of windows (Units: ppm)</t>
+  </si>
+  <si>
+    <t>window material</t>
+  </si>
+  <si>
+    <t>(Optional) The type of material used to finish a window (Units: g/m3)</t>
+  </si>
+  <si>
+    <t>window horizontal position</t>
+  </si>
+  <si>
+    <t>(Optional) The horizontal position of the window on the wall</t>
+  </si>
+  <si>
+    <t>room condition</t>
+  </si>
+  <si>
+    <t>(Optional) The condition of the room at the time of sampling (Units: mm)</t>
+  </si>
+  <si>
+    <t>window area/size</t>
+  </si>
+  <si>
+    <t>(Optional) The window's length and width (Units: mm)</t>
+  </si>
+  <si>
+    <t>sampling floor</t>
+  </si>
+  <si>
+    <t>(Optional) The floor of the building, where the sampling room is located (Units: °C)</t>
+  </si>
+  <si>
+    <t>room count</t>
+  </si>
+  <si>
+    <t>(Optional) The total count of rooms in the built structure including all room types</t>
+  </si>
+  <si>
+    <t>average daily occupancy</t>
+  </si>
+  <si>
+    <t>(Optional) Daily average occupancy of room. indicate the number of person(s) daily occupying the sampling room. (Units: °C)</t>
+  </si>
+  <si>
+    <t>floor condition</t>
+  </si>
+  <si>
+    <t>(Optional) The physical condition of the floor at the time of sampling; photos or video preferred; use drawings to indicate location of damaged areas (Units: °C)</t>
+  </si>
+  <si>
+    <t>door type, wood</t>
+  </si>
+  <si>
+    <t>(Optional) The type of wood door (Units: °C)</t>
+  </si>
+  <si>
+    <t>door condition</t>
+  </si>
+  <si>
+    <t>(Optional) The physical condition of the door</t>
+  </si>
+  <si>
+    <t>door movement</t>
+  </si>
+  <si>
+    <t>(Optional) The type of movement of the door</t>
+  </si>
+  <si>
+    <t>interior wall condition</t>
+  </si>
+  <si>
+    <t>(Optional) The physical condition of the wall at the time of sampling; photos or video preferred; use drawings to indicate location of damaged areas</t>
+  </si>
+  <si>
+    <t>floor signs of water/mold</t>
+  </si>
+  <si>
+    <t>(Optional) Signs of the presence of mold or mildew in a room</t>
+  </si>
+  <si>
+    <t>ceiling structure</t>
+  </si>
+  <si>
+    <t>(Optional) The construction format of the ceiling (Units: m)</t>
+  </si>
+  <si>
+    <t>wall texture</t>
+  </si>
+  <si>
+    <t>(Optional) The feel, appearance, or consistency of a wall surface (Units: m)</t>
+  </si>
+  <si>
+    <t>floor thermal mass</t>
+  </si>
+  <si>
+    <t>(Optional) The ability of the floor to provide inertia against temperature fluctuations (Units: J/°C)</t>
+  </si>
+  <si>
+    <t>room air exchange rate</t>
+  </si>
+  <si>
+    <t>(Optional) The rate at which outside air replaces indoor air in a given space (Units: year)</t>
+  </si>
+  <si>
+    <t>bathroom count</t>
+  </si>
+  <si>
+    <t>(Optional) The number of bathrooms in the building (Units: year)</t>
+  </si>
+  <si>
+    <t>shading device signs of water/mold</t>
+  </si>
+  <si>
+    <t>(Optional) Signs of the presence of mold or mildew on the shading device (Units: year)</t>
+  </si>
+  <si>
+    <t>window covering</t>
+  </si>
+  <si>
+    <t>(Optional) The type of window covering (Units: year)</t>
+  </si>
+  <si>
+    <t>ceiling texture</t>
+  </si>
+  <si>
+    <t>(Optional) The feel, appearance, or consistency of a ceiling surface (Units: year)</t>
+  </si>
+  <si>
+    <t>maximum occupancy</t>
+  </si>
+  <si>
+    <t>(Optional) The maximum amount of people allowed in the indoor environment (Units: year)</t>
+  </si>
+  <si>
+    <t>gender of restroom</t>
+  </si>
+  <si>
+    <t>(Optional) The gender type of the restroom (Units: year)</t>
+  </si>
+  <si>
+    <t>ceiling condition</t>
+  </si>
+  <si>
+    <t>(Optional) The physical condition of the ceiling at the time of sampling; photos or video preferred; use drawings to indicate location of damaged areas (Units: year)</t>
+  </si>
+  <si>
+    <t>floor structure</t>
+  </si>
+  <si>
+    <t>(Optional) Refers to the structural elements and subfloor upon which the finish flooring is installed (Units: year)</t>
+  </si>
+  <si>
+    <t>rooms that share a wall with sampling room</t>
+  </si>
+  <si>
+    <t>(Optional) List of room(s) (room number, room name) sharing a wall with the sampling room (Units: year)</t>
+  </si>
+  <si>
+    <t>wall finish material</t>
+  </si>
+  <si>
+    <t>(Optional) The material utilized to finish the outer most layer of the wall (Units: year)</t>
+  </si>
+  <si>
+    <t>room occupancy</t>
+  </si>
+  <si>
+    <t>(Optional) Count of room occupancy at time of sampling (Units: year)</t>
+  </si>
+  <si>
+    <t>room location in building</t>
+  </si>
+  <si>
+    <t>(Optional) The position of the room within the building (Units: year)</t>
+  </si>
+  <si>
+    <t>floor finish material</t>
+  </si>
+  <si>
+    <t>(Optional) The floor covering type; the finished surface that is walked on (Units: year)</t>
+  </si>
+  <si>
+    <t>room window count</t>
+  </si>
+  <si>
+    <t>(Optional) Number of windows in the room (Units: year)</t>
+  </si>
+  <si>
+    <t>sampling room id or name</t>
+  </si>
+  <si>
+    <t>(Optional) Explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other). (Units: year)</t>
+  </si>
+  <si>
+    <t>height carpet fiber mat</t>
+  </si>
+  <si>
+    <t>(Optional) The average carpet fiber height in the indoor environment (Units: mm)</t>
+  </si>
+  <si>
+    <t>ceiling area</t>
+  </si>
+  <si>
+    <t>(Optional) The area of the ceiling space within the room (Units: m2)</t>
+  </si>
+  <si>
+    <t>heating system delivery method</t>
+  </si>
+  <si>
+    <t>(Optional) The method by which the heat is delivered through the system (Units: m2)</t>
+  </si>
+  <si>
+    <t>room sampling position</t>
+  </si>
+  <si>
+    <t>(Optional) The horizontal sampling position in the room relative to architectural elements (Units: m2)</t>
+  </si>
+  <si>
+    <t>room moisture damage or mold history</t>
+  </si>
+  <si>
+    <t>(Optional) The history of moisture damage or mold in the past 12 months. number of events of moisture damage or mold observed (Units: °C)</t>
+  </si>
+  <si>
+    <t>door signs of water/mold</t>
+  </si>
+  <si>
+    <t>(Optional) Signs of the presence of mold or mildew on a door (Units: minute)</t>
+  </si>
+  <si>
+    <t>room net area</t>
+  </si>
+  <si>
+    <t>(Optional) The net floor area of sampling room. net area excludes wall thicknesses (Units: m2)</t>
+  </si>
+  <si>
+    <t>ceiling thermal mass</t>
+  </si>
+  <si>
+    <t>(Optional) The ability of the ceiling to provide inertia against temperature fluctuations. generally this means concrete that is exposed. a metal deck that supports a concrete slab will act thermally as long as it is exposed to room air flow (Units: J/°C)</t>
+  </si>
+  <si>
+    <t>rooms that share a door with sampling room</t>
+  </si>
+  <si>
+    <t>(Optional) List of room(s) (room number, room name) sharing a door with the sampling room (Units: year)</t>
+  </si>
+  <si>
+    <t>orientations of exterior window</t>
+  </si>
+  <si>
+    <t>(Optional) The compass direction the exterior window of the room is facing (Units: year)</t>
+  </si>
+  <si>
+    <t>wall location</t>
+  </si>
+  <si>
+    <t>(Optional) The relative location of the wall within the room (Units: °C)</t>
+  </si>
+  <si>
+    <t>room volume</t>
+  </si>
+  <si>
+    <t>(Optional) Volume of sampling room (Units: m2)</t>
+  </si>
+  <si>
+    <t>door type, composite</t>
+  </si>
+  <si>
+    <t>(Optional) The composite type of the door (Units: m2)</t>
+  </si>
+  <si>
+    <t>bedroom count</t>
+  </si>
+  <si>
+    <t>(Optional) The number of bedrooms in the building (Units: m2)</t>
+  </si>
+  <si>
+    <t>wall construction type</t>
+  </si>
+  <si>
+    <t>(Optional) The building class of the wall defined by the composition of the building elements and fire-resistance rating. (Units: m2)</t>
+  </si>
+  <si>
+    <t>wall signs of water/mold</t>
+  </si>
+  <si>
+    <t>(Optional) Signs of the presence of mold or mildew on a wall (Units: m2)</t>
+  </si>
+  <si>
+    <t>window condition</t>
+  </si>
+  <si>
+    <t>(Optional) The physical condition of the window at the time of sampling (Units: m2)</t>
+  </si>
+  <si>
+    <t>escalator count</t>
+  </si>
+  <si>
+    <t>(Optional) The number of escalators within the built structure (Units: m2)</t>
+  </si>
+  <si>
+    <t>cooling system identifier</t>
+  </si>
+  <si>
+    <t>(Optional) The cooling system identifier (Units: °C)</t>
+  </si>
+  <si>
+    <t>quadrant position</t>
+  </si>
+  <si>
+    <t>(Optional) The quadrant position of the sampling room within the building (Units: °C)</t>
+  </si>
+  <si>
+    <t>number of pets</t>
+  </si>
+  <si>
+    <t>(Optional) The number of pets residing in the sampled space (Units: °C)</t>
+  </si>
+  <si>
+    <t>window vertical position</t>
+  </si>
+  <si>
+    <t>(Optional) The vertical position of the window on the wall (Units: °C)</t>
+  </si>
+  <si>
+    <t>fireplace type</t>
+  </si>
+  <si>
+    <t>(Optional) A firebox with chimney (Units: °C)</t>
+  </si>
+  <si>
+    <t>heating delivery locations</t>
+  </si>
+  <si>
+    <t>(Optional) The location of heat delivery within the room (Units: °C)</t>
+  </si>
+  <si>
+    <t>ceiling finish material</t>
+  </si>
+  <si>
+    <t>(Optional) The type of material used to finish a ceiling (Units: °C)</t>
+  </si>
+  <si>
+    <t>door type</t>
+  </si>
+  <si>
+    <t>(Optional) The type of door material (Units: °C)</t>
+  </si>
+  <si>
+    <t>number of houseplants</t>
+  </si>
+  <si>
+    <t>(Optional) The number of plant(s) in the sampling space (Units: °C)</t>
+  </si>
+  <si>
+    <t>floor age</t>
+  </si>
+  <si>
+    <t>(Optional) The time period since instalment of the carpet or flooring (Units: year)</t>
+  </si>
+  <si>
+    <t>rooms connected by a doorway</t>
+  </si>
+  <si>
+    <t>(Optional) List of rooms connected to the sampling room by a doorway (Units: year)</t>
+  </si>
+  <si>
+    <t>specifications</t>
+  </si>
+  <si>
+    <t>(Optional) The building specifications. if design is chosen, indicate phase: conceptual, schematic, design development, construction documents</t>
+  </si>
+  <si>
+    <t>specific humidity</t>
+  </si>
+  <si>
+    <t>(Optional) The mass of water vapour in a unit mass of moist air, usually expressed as grams of vapour per kilogram of air, or, in air conditioning, as grains per pound. (Units: g/m3)</t>
+  </si>
+  <si>
+    <t>window open frequency</t>
+  </si>
+  <si>
+    <t>(Optional) The number of times windows are opened per week (Units: m)</t>
+  </si>
+  <si>
+    <t>room dimensions</t>
+  </si>
+  <si>
+    <t>(Optional) The length, width and height of sampling room</t>
+  </si>
+  <si>
+    <t>water feature size</t>
+  </si>
+  <si>
+    <t>(Optional) The size of the water feature (Units: m2)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>sample size sorting method</t>
+  </si>
+  <si>
+    <t>(Optional) Method by which samples are sorted</t>
+  </si>
+  <si>
+    <t>organism count</t>
+  </si>
+  <si>
+    <t>(Mandatory) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
+  </si>
+  <si>
+    <t>mechanical structure</t>
+  </si>
+  <si>
+    <t>(Optional) Mechanical structure: a moving structure</t>
+  </si>
+  <si>
+    <t>handidness</t>
+  </si>
+  <si>
+    <t>(Optional) The handidness of the individual sampled (Units: year)</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1949,6 +2939,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1989,996 +2982,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>sampling time outside</t>
-  </si>
-  <si>
-    <t>(Optional) The recent and long term history of outside sampling</t>
-  </si>
-  <si>
-    <t>temperature outside house</t>
-  </si>
-  <si>
-    <t>(Optional) The recorded temperature value at sampling time outside (Units: °C)</t>
-  </si>
-  <si>
-    <t>train station collection location</t>
-  </si>
-  <si>
-    <t>(Optional) The train station collection location</t>
-  </si>
-  <si>
-    <t>train stop collection location</t>
-  </si>
-  <si>
-    <t>(Optional) The train stop collection location</t>
-  </si>
-  <si>
-    <t>adobe</t>
-  </si>
-  <si>
-    <t>carpet</t>
-  </si>
-  <si>
-    <t>cinder blocks</t>
-  </si>
-  <si>
-    <t>concrete</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>hay bales</t>
-  </si>
-  <si>
-    <t>metal</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>stainless steel</t>
-  </si>
-  <si>
-    <t>stone</t>
-  </si>
-  <si>
-    <t>stucco</t>
-  </si>
-  <si>
-    <t>tile</t>
-  </si>
-  <si>
-    <t>vinyl</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>surface material</t>
-  </si>
-  <si>
-    <t>(Optional) Surface materials at the point of sampling</t>
-  </si>
-  <si>
-    <t>biocides</t>
-  </si>
-  <si>
-    <t>biological contaminants</t>
-  </si>
-  <si>
-    <t>dust</t>
-  </si>
-  <si>
-    <t>nutrients</t>
-  </si>
-  <si>
-    <t>organic matter</t>
-  </si>
-  <si>
-    <t>particulate matter</t>
-  </si>
-  <si>
-    <t>radon</t>
-  </si>
-  <si>
-    <t>volatile organic compounds</t>
-  </si>
-  <si>
-    <t>surface-air contaminant</t>
-  </si>
-  <si>
-    <t>(Optional) Contaminant identified on surface</t>
-  </si>
-  <si>
-    <t>cabinet</t>
-  </si>
-  <si>
-    <t>ceiling</t>
-  </si>
-  <si>
-    <t>counter top</t>
-  </si>
-  <si>
-    <t>door</t>
-  </si>
-  <si>
-    <t>shelving</t>
-  </si>
-  <si>
-    <t>vent cover</t>
-  </si>
-  <si>
-    <t>wall</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>indoor surface</t>
-  </si>
-  <si>
-    <t>(Optional) Type of indoor surface</t>
-  </si>
-  <si>
-    <t>bathroom</t>
-  </si>
-  <si>
-    <t>bedroom</t>
-  </si>
-  <si>
-    <t>elevator</t>
-  </si>
-  <si>
-    <t>foyer</t>
-  </si>
-  <si>
-    <t>hallway</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>locker room</t>
-  </si>
-  <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>indoor space</t>
-  </si>
-  <si>
-    <t>(Mandatory) A distinguishable space within a structure, the purpose for which discrete areas of a building is used</t>
-  </si>
-  <si>
-    <t>HEPA filter</t>
-  </si>
-  <si>
-    <t>chemical air filter</t>
-  </si>
-  <si>
-    <t>electrostatic air treatment</t>
-  </si>
-  <si>
-    <t>gas-phase air treatment</t>
-  </si>
-  <si>
-    <t>low-MERV pleated media</t>
-  </si>
-  <si>
-    <t>particulate air filter</t>
-  </si>
-  <si>
-    <t>ultraviolet air treatment</t>
-  </si>
-  <si>
-    <t>filter type</t>
-  </si>
-  <si>
-    <t>(Mandatory) A device which removes solid particulates or airborne molecular contaminants</t>
-  </si>
-  <si>
-    <t>forced air system</t>
-  </si>
-  <si>
-    <t>heat pump</t>
-  </si>
-  <si>
-    <t>radiant system</t>
-  </si>
-  <si>
-    <t>steam forced heat</t>
-  </si>
-  <si>
-    <t>wood stove</t>
-  </si>
-  <si>
-    <t>heating and cooling system type</t>
-  </si>
-  <si>
-    <t>(Mandatory) Methods of conditioning or heating a room or building</t>
-  </si>
-  <si>
-    <t>basement</t>
-  </si>
-  <si>
-    <t>crawlspace</t>
-  </si>
-  <si>
-    <t>slab on grade</t>
-  </si>
-  <si>
-    <t>substructure type</t>
-  </si>
-  <si>
-    <t>(Optional) The substructure or under building is that largely hidden section of the building which is built off the foundations to the ground floor level</t>
-  </si>
-  <si>
-    <t>electric light</t>
-  </si>
-  <si>
-    <t>natural light</t>
-  </si>
-  <si>
-    <t>no light</t>
-  </si>
-  <si>
-    <t>light type</t>
-  </si>
-  <si>
-    <t>(Mandatory) Application of light to achieve some practical or aesthetic effect. lighting includes the use of both artificial light sources such as lamps and light fixtures, as well as natural illumination by capturing daylight. can also include absence of light</t>
-  </si>
-  <si>
-    <t>exurban</t>
-  </si>
-  <si>
-    <t>rural</t>
-  </si>
-  <si>
-    <t>suburban</t>
-  </si>
-  <si>
-    <t>urban</t>
-  </si>
-  <si>
-    <t>building setting</t>
-  </si>
-  <si>
-    <t>(Mandatory) A location (geography) where a building is set</t>
-  </si>
-  <si>
-    <t>agricultural</t>
-  </si>
-  <si>
-    <t>airport</t>
-  </si>
-  <si>
-    <t>commercial</t>
-  </si>
-  <si>
-    <t>educational</t>
-  </si>
-  <si>
-    <t>goverment</t>
-  </si>
-  <si>
-    <t>health care</t>
-  </si>
-  <si>
-    <t>high rise</t>
-  </si>
-  <si>
-    <t>industrial</t>
-  </si>
-  <si>
-    <t>low rise</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>military</t>
-  </si>
-  <si>
-    <t>parking</t>
-  </si>
-  <si>
-    <t>religious</t>
-  </si>
-  <si>
-    <t>residential</t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>sports complex</t>
-  </si>
-  <si>
-    <t>storage</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>wood framed</t>
-  </si>
-  <si>
-    <t>building occupancy type</t>
-  </si>
-  <si>
-    <t>(Mandatory) The primary function for which a building or discrete part of a building is intended to be used</t>
-  </si>
-  <si>
-    <t>typically occupied</t>
-  </si>
-  <si>
-    <t>typically unoccupied</t>
-  </si>
-  <si>
-    <t>space typical state</t>
-  </si>
-  <si>
-    <t>(Mandatory) Customary or normal state of the space</t>
-  </si>
-  <si>
-    <t>typical occupant density</t>
-  </si>
-  <si>
-    <t>(Mandatory) Customary or normal density of occupants</t>
-  </si>
-  <si>
-    <t>occupancy at sampling</t>
-  </si>
-  <si>
-    <t>(Mandatory) Number of occupants present at time of sample within the given space</t>
-  </si>
-  <si>
-    <t>occupant density at sampling</t>
-  </si>
-  <si>
-    <t>(Mandatory) Average number of occupants at time of sampling per square footage</t>
-  </si>
-  <si>
-    <t>forced ventilation</t>
-  </si>
-  <si>
-    <t>mechanical ventilation</t>
-  </si>
-  <si>
-    <t>natural ventilation</t>
-  </si>
-  <si>
-    <t>ventilation type</t>
-  </si>
-  <si>
-    <t>(Mandatory) The intentional movement of air from outside a building to the inside through forced or natural movement of air</t>
-  </si>
-  <si>
-    <t>rooms that are on the same hallway</t>
-  </si>
-  <si>
-    <t>(Optional) List of room(s) (room number, room name) located in the same hallway as sampling room</t>
-  </si>
-  <si>
-    <t>wall surface treatment</t>
-  </si>
-  <si>
-    <t>(Optional) The surface treatment of interior wall</t>
-  </si>
-  <si>
-    <t>wall area</t>
-  </si>
-  <si>
-    <t>(Optional) The total area of the sampled room's walls</t>
-  </si>
-  <si>
-    <t>elevator count</t>
-  </si>
-  <si>
-    <t>(Optional) The number of elevators within the built structure</t>
-  </si>
-  <si>
-    <t>floor area</t>
-  </si>
-  <si>
-    <t>(Optional) The area of the floor space within the room</t>
-  </si>
-  <si>
-    <t>furniture</t>
-  </si>
-  <si>
-    <t>(Optional) The types of furniture present in the sampled room</t>
-  </si>
-  <si>
-    <t>water feature type</t>
-  </si>
-  <si>
-    <t>(Optional) The type of water feature present within the building being sampled</t>
-  </si>
-  <si>
-    <t>room door distance</t>
-  </si>
-  <si>
-    <t>(Optional) Distance between doors (meters) in the hallway between the sampling room and adjacent rooms</t>
-  </si>
-  <si>
-    <t>room type</t>
-  </si>
-  <si>
-    <t>(Optional) The main purpose or activity of the sampling room. a room is any distinguishable space within a structure</t>
-  </si>
-  <si>
-    <t>window location</t>
-  </si>
-  <si>
-    <t>(Optional) The relative location of the window within the room</t>
-  </si>
-  <si>
-    <t>ceiling type</t>
-  </si>
-  <si>
-    <t>(Optional) The type of ceiling according to the ceiling's appearance or construction</t>
-  </si>
-  <si>
-    <t>door direction of opening</t>
-  </si>
-  <si>
-    <t>(Optional) The direction the door opens</t>
-  </si>
-  <si>
-    <t>exposed pipes</t>
-  </si>
-  <si>
-    <t>(Optional) The number of exposed pipes in the room</t>
-  </si>
-  <si>
-    <t>wall height</t>
-  </si>
-  <si>
-    <t>(Optional) The average height of the walls in the sampled room</t>
-  </si>
-  <si>
-    <t>door type, metal</t>
-  </si>
-  <si>
-    <t>(Optional) The type of metal door</t>
-  </si>
-  <si>
-    <t>inside lux light</t>
-  </si>
-  <si>
-    <t>(Optional) The recorded value at sampling time (power density) (Units: kg s−3)</t>
-  </si>
-  <si>
-    <t>exposed ductwork</t>
-  </si>
-  <si>
-    <t>(Optional) The amount of exposed ductwork in the room (Units: kg s−3)</t>
-  </si>
-  <si>
-    <t>door material</t>
-  </si>
-  <si>
-    <t>(Optional) The material the door is composed of (Units: kg s−3)</t>
-  </si>
-  <si>
-    <t>adjacent rooms</t>
-  </si>
-  <si>
-    <t>(Optional) List of rooms (room number, room name) immediately adjacent to the sampling room</t>
-  </si>
-  <si>
-    <t>wall thermal mass</t>
-  </si>
-  <si>
-    <t>(Optional) The ability of the wall to provide inertia against temperature fluctuations. generally this means concrete or concrete block that is either exposed or covered only with paint (Units: J/°C)</t>
-  </si>
-  <si>
-    <t>ceiling signs of water/mold</t>
-  </si>
-  <si>
-    <t>(Optional) Signs of the presence of mold or mildew on the ceiling (Units: J/°C)</t>
-  </si>
-  <si>
-    <t>window status</t>
-  </si>
-  <si>
-    <t>(Optional) Defines whether the windows were open or closed during environmental testing (Units: %)</t>
-  </si>
-  <si>
-    <t>door location</t>
-  </si>
-  <si>
-    <t>(Optional) The relative location of the door in the room (Units: year)</t>
-  </si>
-  <si>
-    <t>window signs of water/mold</t>
-  </si>
-  <si>
-    <t>(Optional) Signs of the presence of mold or mildew on the window. (Units: year)</t>
-  </si>
-  <si>
-    <t>window type</t>
-  </si>
-  <si>
-    <t>(Optional) The type of windows (Units: ppm)</t>
-  </si>
-  <si>
-    <t>window material</t>
-  </si>
-  <si>
-    <t>(Optional) The type of material used to finish a window (Units: g/m3)</t>
-  </si>
-  <si>
-    <t>window horizontal position</t>
-  </si>
-  <si>
-    <t>(Optional) The horizontal position of the window on the wall</t>
-  </si>
-  <si>
-    <t>room condition</t>
-  </si>
-  <si>
-    <t>(Optional) The condition of the room at the time of sampling (Units: mm)</t>
-  </si>
-  <si>
-    <t>window area/size</t>
-  </si>
-  <si>
-    <t>(Optional) The window's length and width (Units: mm)</t>
-  </si>
-  <si>
-    <t>sampling floor</t>
-  </si>
-  <si>
-    <t>(Optional) The floor of the building, where the sampling room is located (Units: °C)</t>
-  </si>
-  <si>
-    <t>room count</t>
-  </si>
-  <si>
-    <t>(Optional) The total count of rooms in the built structure including all room types</t>
-  </si>
-  <si>
-    <t>average daily occupancy</t>
-  </si>
-  <si>
-    <t>(Optional) Daily average occupancy of room. indicate the number of person(s) daily occupying the sampling room. (Units: °C)</t>
-  </si>
-  <si>
-    <t>floor condition</t>
-  </si>
-  <si>
-    <t>(Optional) The physical condition of the floor at the time of sampling; photos or video preferred; use drawings to indicate location of damaged areas (Units: °C)</t>
-  </si>
-  <si>
-    <t>door type, wood</t>
-  </si>
-  <si>
-    <t>(Optional) The type of wood door (Units: °C)</t>
-  </si>
-  <si>
-    <t>door condition</t>
-  </si>
-  <si>
-    <t>(Optional) The physical condition of the door</t>
-  </si>
-  <si>
-    <t>door movement</t>
-  </si>
-  <si>
-    <t>(Optional) The type of movement of the door</t>
-  </si>
-  <si>
-    <t>interior wall condition</t>
-  </si>
-  <si>
-    <t>(Optional) The physical condition of the wall at the time of sampling; photos or video preferred; use drawings to indicate location of damaged areas</t>
-  </si>
-  <si>
-    <t>floor signs of water/mold</t>
-  </si>
-  <si>
-    <t>(Optional) Signs of the presence of mold or mildew in a room</t>
-  </si>
-  <si>
-    <t>ceiling structure</t>
-  </si>
-  <si>
-    <t>(Optional) The construction format of the ceiling (Units: m)</t>
-  </si>
-  <si>
-    <t>wall texture</t>
-  </si>
-  <si>
-    <t>(Optional) The feel, appearance, or consistency of a wall surface (Units: m)</t>
-  </si>
-  <si>
-    <t>floor thermal mass</t>
-  </si>
-  <si>
-    <t>(Optional) The ability of the floor to provide inertia against temperature fluctuations (Units: J/°C)</t>
-  </si>
-  <si>
-    <t>room air exchange rate</t>
-  </si>
-  <si>
-    <t>(Optional) The rate at which outside air replaces indoor air in a given space (Units: year)</t>
-  </si>
-  <si>
-    <t>bathroom count</t>
-  </si>
-  <si>
-    <t>(Optional) The number of bathrooms in the building (Units: year)</t>
-  </si>
-  <si>
-    <t>shading device signs of water/mold</t>
-  </si>
-  <si>
-    <t>(Optional) Signs of the presence of mold or mildew on the shading device (Units: year)</t>
-  </si>
-  <si>
-    <t>window covering</t>
-  </si>
-  <si>
-    <t>(Optional) The type of window covering (Units: year)</t>
-  </si>
-  <si>
-    <t>ceiling texture</t>
-  </si>
-  <si>
-    <t>(Optional) The feel, appearance, or consistency of a ceiling surface (Units: year)</t>
-  </si>
-  <si>
-    <t>maximum occupancy</t>
-  </si>
-  <si>
-    <t>(Optional) The maximum amount of people allowed in the indoor environment (Units: year)</t>
-  </si>
-  <si>
-    <t>gender of restroom</t>
-  </si>
-  <si>
-    <t>(Optional) The gender type of the restroom (Units: year)</t>
-  </si>
-  <si>
-    <t>ceiling condition</t>
-  </si>
-  <si>
-    <t>(Optional) The physical condition of the ceiling at the time of sampling; photos or video preferred; use drawings to indicate location of damaged areas (Units: year)</t>
-  </si>
-  <si>
-    <t>floor structure</t>
-  </si>
-  <si>
-    <t>(Optional) Refers to the structural elements and subfloor upon which the finish flooring is installed (Units: year)</t>
-  </si>
-  <si>
-    <t>rooms that share a wall with sampling room</t>
-  </si>
-  <si>
-    <t>(Optional) List of room(s) (room number, room name) sharing a wall with the sampling room (Units: year)</t>
-  </si>
-  <si>
-    <t>wall finish material</t>
-  </si>
-  <si>
-    <t>(Optional) The material utilized to finish the outer most layer of the wall (Units: year)</t>
-  </si>
-  <si>
-    <t>room occupancy</t>
-  </si>
-  <si>
-    <t>(Optional) Count of room occupancy at time of sampling (Units: year)</t>
-  </si>
-  <si>
-    <t>room location in building</t>
-  </si>
-  <si>
-    <t>(Optional) The position of the room within the building (Units: year)</t>
-  </si>
-  <si>
-    <t>floor finish material</t>
-  </si>
-  <si>
-    <t>(Optional) The floor covering type; the finished surface that is walked on (Units: year)</t>
-  </si>
-  <si>
-    <t>room window count</t>
-  </si>
-  <si>
-    <t>(Optional) Number of windows in the room (Units: year)</t>
-  </si>
-  <si>
-    <t>sampling room id or name</t>
-  </si>
-  <si>
-    <t>(Optional) Explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other). (Units: year)</t>
-  </si>
-  <si>
-    <t>height carpet fiber mat</t>
-  </si>
-  <si>
-    <t>(Optional) The average carpet fiber height in the indoor environment (Units: mm)</t>
-  </si>
-  <si>
-    <t>ceiling area</t>
-  </si>
-  <si>
-    <t>(Optional) The area of the ceiling space within the room (Units: m2)</t>
-  </si>
-  <si>
-    <t>heating system delivery method</t>
-  </si>
-  <si>
-    <t>(Optional) The method by which the heat is delivered through the system (Units: m2)</t>
-  </si>
-  <si>
-    <t>room sampling position</t>
-  </si>
-  <si>
-    <t>(Optional) The horizontal sampling position in the room relative to architectural elements (Units: m2)</t>
-  </si>
-  <si>
-    <t>room moisture damage or mold history</t>
-  </si>
-  <si>
-    <t>(Optional) The history of moisture damage or mold in the past 12 months. number of events of moisture damage or mold observed (Units: °C)</t>
-  </si>
-  <si>
-    <t>door signs of water/mold</t>
-  </si>
-  <si>
-    <t>(Optional) Signs of the presence of mold or mildew on a door (Units: minute)</t>
-  </si>
-  <si>
-    <t>room net area</t>
-  </si>
-  <si>
-    <t>(Optional) The net floor area of sampling room. net area excludes wall thicknesses (Units: m2)</t>
-  </si>
-  <si>
-    <t>ceiling thermal mass</t>
-  </si>
-  <si>
-    <t>(Optional) The ability of the ceiling to provide inertia against temperature fluctuations. generally this means concrete that is exposed. a metal deck that supports a concrete slab will act thermally as long as it is exposed to room air flow (Units: J/°C)</t>
-  </si>
-  <si>
-    <t>rooms that share a door with sampling room</t>
-  </si>
-  <si>
-    <t>(Optional) List of room(s) (room number, room name) sharing a door with the sampling room (Units: year)</t>
-  </si>
-  <si>
-    <t>orientations of exterior window</t>
-  </si>
-  <si>
-    <t>(Optional) The compass direction the exterior window of the room is facing (Units: year)</t>
-  </si>
-  <si>
-    <t>wall location</t>
-  </si>
-  <si>
-    <t>(Optional) The relative location of the wall within the room (Units: °C)</t>
-  </si>
-  <si>
-    <t>room volume</t>
-  </si>
-  <si>
-    <t>(Optional) Volume of sampling room (Units: m2)</t>
-  </si>
-  <si>
-    <t>door type, composite</t>
-  </si>
-  <si>
-    <t>(Optional) The composite type of the door (Units: m2)</t>
-  </si>
-  <si>
-    <t>bedroom count</t>
-  </si>
-  <si>
-    <t>(Optional) The number of bedrooms in the building (Units: m2)</t>
-  </si>
-  <si>
-    <t>wall construction type</t>
-  </si>
-  <si>
-    <t>(Optional) The building class of the wall defined by the composition of the building elements and fire-resistance rating. (Units: m2)</t>
-  </si>
-  <si>
-    <t>wall signs of water/mold</t>
-  </si>
-  <si>
-    <t>(Optional) Signs of the presence of mold or mildew on a wall (Units: m2)</t>
-  </si>
-  <si>
-    <t>window condition</t>
-  </si>
-  <si>
-    <t>(Optional) The physical condition of the window at the time of sampling (Units: m2)</t>
-  </si>
-  <si>
-    <t>escalator count</t>
-  </si>
-  <si>
-    <t>(Optional) The number of escalators within the built structure (Units: m2)</t>
-  </si>
-  <si>
-    <t>cooling system identifier</t>
-  </si>
-  <si>
-    <t>(Optional) The cooling system identifier (Units: °C)</t>
-  </si>
-  <si>
-    <t>quadrant position</t>
-  </si>
-  <si>
-    <t>(Optional) The quadrant position of the sampling room within the building (Units: °C)</t>
-  </si>
-  <si>
-    <t>number of pets</t>
-  </si>
-  <si>
-    <t>(Optional) The number of pets residing in the sampled space (Units: °C)</t>
-  </si>
-  <si>
-    <t>window vertical position</t>
-  </si>
-  <si>
-    <t>(Optional) The vertical position of the window on the wall (Units: °C)</t>
-  </si>
-  <si>
-    <t>fireplace type</t>
-  </si>
-  <si>
-    <t>(Optional) A firebox with chimney (Units: °C)</t>
-  </si>
-  <si>
-    <t>heating delivery locations</t>
-  </si>
-  <si>
-    <t>(Optional) The location of heat delivery within the room (Units: °C)</t>
-  </si>
-  <si>
-    <t>ceiling finish material</t>
-  </si>
-  <si>
-    <t>(Optional) The type of material used to finish a ceiling (Units: °C)</t>
-  </si>
-  <si>
-    <t>door type</t>
-  </si>
-  <si>
-    <t>(Optional) The type of door material (Units: °C)</t>
-  </si>
-  <si>
-    <t>number of houseplants</t>
-  </si>
-  <si>
-    <t>(Optional) The number of plant(s) in the sampling space (Units: °C)</t>
-  </si>
-  <si>
-    <t>floor age</t>
-  </si>
-  <si>
-    <t>(Optional) The time period since instalment of the carpet or flooring (Units: year)</t>
-  </si>
-  <si>
-    <t>rooms connected by a doorway</t>
-  </si>
-  <si>
-    <t>(Optional) List of rooms connected to the sampling room by a doorway (Units: year)</t>
-  </si>
-  <si>
-    <t>specifications</t>
-  </si>
-  <si>
-    <t>(Optional) The building specifications. if design is chosen, indicate phase: conceptual, schematic, design development, construction documents</t>
-  </si>
-  <si>
-    <t>specific humidity</t>
-  </si>
-  <si>
-    <t>(Optional) The mass of water vapour in a unit mass of moist air, usually expressed as grams of vapour per kilogram of air, or, in air conditioning, as grains per pound. (Units: g/m3)</t>
-  </si>
-  <si>
-    <t>window open frequency</t>
-  </si>
-  <si>
-    <t>(Optional) The number of times windows are opened per week (Units: m)</t>
-  </si>
-  <si>
-    <t>room dimensions</t>
-  </si>
-  <si>
-    <t>(Optional) The length, width and height of sampling room</t>
-  </si>
-  <si>
-    <t>water feature size</t>
-  </si>
-  <si>
-    <t>(Optional) The size of the water feature (Units: m2)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>sample size sorting method</t>
-  </si>
-  <si>
-    <t>(Optional) Method by which samples are sorted</t>
-  </si>
-  <si>
-    <t>organism count</t>
-  </si>
-  <si>
-    <t>(Mandatory) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
-  </si>
-  <si>
-    <t>mechanical structure</t>
-  </si>
-  <si>
-    <t>(Optional) Mechanical structure: a moving structure</t>
-  </si>
-  <si>
-    <t>handidness</t>
-  </si>
-  <si>
-    <t>(Optional) The handidness of the individual sampled (Units: year)</t>
   </si>
   <si>
     <t>host disease status</t>
@@ -5007,577 +5010,577 @@
         <v>355</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="DY1" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>955</v>
-      </c>
       <c r="EK1" s="1" t="s">
-        <v>957</v>
+        <v>669</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>959</v>
+        <v>671</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>961</v>
+        <v>673</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>963</v>
+        <v>675</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>965</v>
+        <v>677</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>967</v>
+        <v>679</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>969</v>
+        <v>681</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>971</v>
+        <v>683</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>973</v>
+        <v>685</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="FX1" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="FY1" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="FZ1" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="GA1" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="GS1" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="GU1" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="GV1" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="GX1" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="GZ1" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="HA1" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="HD1" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="HE1" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="HF1" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="HH1" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="HI1" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="HJ1" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="2" spans="1:218" ht="150" customHeight="1">
@@ -5663,577 +5666,577 @@
         <v>356</v>
       </c>
       <c r="AB2" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="CI2" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="CM2" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="CN2" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="CO2" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="CP2" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="CQ2" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="CR2" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="CS2" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="CT2" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="CU2" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="CV2" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="CW2" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="CX2" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="CY2" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="CZ2" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="DA2" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="DB2" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="DD2" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="DE2" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="DF2" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="DG2" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="DH2" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="DI2" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="DJ2" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="DK2" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="DL2" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="DM2" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="DN2" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="DO2" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="DP2" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="DQ2" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="DR2" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="DS2" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="DT2" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="DU2" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="DV2" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="DW2" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="DX2" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="DY2" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="DZ2" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="EA2" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="EB2" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="EC2" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="ED2" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="EE2" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="EF2" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="EG2" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="EH2" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="EI2" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="EJ2" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="AN2" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="CI2" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="CK2" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="CL2" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="CM2" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="CN2" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="CO2" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="CP2" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="CQ2" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="CR2" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="CS2" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="CT2" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="CU2" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="CV2" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="CW2" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="CX2" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="CY2" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="CZ2" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="DA2" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="DB2" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="DC2" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="DD2" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="DE2" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="DF2" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="DG2" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="DH2" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="DI2" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="DJ2" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="DK2" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="DL2" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="DM2" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="DN2" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="DO2" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="DP2" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="DQ2" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="DR2" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="DS2" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="DT2" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="DU2" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="DV2" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="DW2" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="DX2" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="DY2" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="DZ2" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="EA2" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="EB2" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="EC2" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="ED2" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="EE2" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="EF2" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="EG2" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="EH2" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="EI2" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="EJ2" s="2" t="s">
-        <v>956</v>
-      </c>
       <c r="EK2" s="2" t="s">
-        <v>958</v>
+        <v>670</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>960</v>
+        <v>672</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>962</v>
+        <v>674</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>966</v>
+        <v>678</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>968</v>
+        <v>680</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>970</v>
+        <v>682</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>972</v>
+        <v>684</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>974</v>
+        <v>686</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="EX2" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="EY2" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="EZ2" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="FA2" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="FB2" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="FC2" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="FD2" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="FE2" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="FF2" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="FG2" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="FH2" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="FI2" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="FK2" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="FL2" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="FM2" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="FN2" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="FO2" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="FP2" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="FQ2" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="FR2" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="FS2" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="FT2" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="FU2" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="FV2" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="FW2" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="FX2" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="FY2" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="FZ2" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="GA2" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="GB2" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="GC2" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="GD2" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="GE2" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="GF2" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="GG2" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="GH2" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="GI2" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="GJ2" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="GK2" s="2" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="GL2" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="GM2" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="GN2" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="GO2" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="GP2" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="GQ2" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="GR2" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="GS2" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="GT2" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="GU2" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="GV2" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="GW2" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="GX2" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="GY2" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="GZ2" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="HA2" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="HB2" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="HC2" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="HD2" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="HE2" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="HF2" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="HG2" s="2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="HH2" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="HI2" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="HJ2" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
   </sheetData>
@@ -6250,44 +6253,44 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB101">
-      <formula1>geographiclocationcountryandorsea</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM101">
+      <formula1>surfacematerial</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN101">
-      <formula1>surfacematerial</formula1>
+      <formula1>surfaceaircontaminant</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3:AO101">
-      <formula1>surfaceaircontaminant</formula1>
+      <formula1>indoorsurface</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP3:AP101">
-      <formula1>indoorsurface</formula1>
+      <formula1>indoorspace</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ101">
-      <formula1>indoorspace</formula1>
+      <formula1>filtertype</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AR101">
-      <formula1>filtertype</formula1>
+      <formula1>heatingandcoolingsystemtype</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
-      <formula1>heatingandcoolingsystemtype</formula1>
+      <formula1>substructuretype</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT101">
-      <formula1>substructuretype</formula1>
+      <formula1>lighttype</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU3:AU101">
-      <formula1>lighttype</formula1>
+      <formula1>buildingsetting</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV3:AV101">
-      <formula1>buildingsetting</formula1>
+      <formula1>buildingoccupancytype</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW3:AW101">
-      <formula1>buildingoccupancytype</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX3:AX101">
       <formula1>spacetypicalstate</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB3:BB101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA3:BA101">
       <formula1>ventilationtype</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="ET3:ET101">
+      <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FI3:FI101">
       <formula1>frequencyofcleaning</formula1>
@@ -6299,7 +6302,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1:FI288"/>
+  <dimension ref="F1:FI289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6318,47 +6321,47 @@
       <c r="V1" t="s">
         <v>342</v>
       </c>
-      <c r="AB1" t="s">
-        <v>357</v>
+      <c r="AM1" t="s">
+        <v>379</v>
       </c>
       <c r="AN1" t="s">
-        <v>669</v>
+        <v>396</v>
       </c>
       <c r="AO1" t="s">
-        <v>686</v>
+        <v>406</v>
       </c>
       <c r="AP1" t="s">
-        <v>696</v>
+        <v>416</v>
       </c>
       <c r="AQ1" t="s">
-        <v>706</v>
+        <v>426</v>
       </c>
       <c r="AR1" t="s">
-        <v>716</v>
+        <v>435</v>
       </c>
       <c r="AS1" t="s">
-        <v>725</v>
+        <v>442</v>
       </c>
       <c r="AT1" t="s">
-        <v>732</v>
+        <v>447</v>
       </c>
       <c r="AU1" t="s">
-        <v>737</v>
+        <v>452</v>
       </c>
       <c r="AV1" t="s">
-        <v>742</v>
+        <v>458</v>
       </c>
       <c r="AW1" t="s">
-        <v>748</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>770</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>780</v>
+        <v>480</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>490</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>687</v>
       </c>
       <c r="FI1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="2" spans="6:165">
@@ -6374,47 +6377,47 @@
       <c r="V2" t="s">
         <v>343</v>
       </c>
-      <c r="AB2" t="s">
-        <v>358</v>
+      <c r="AM2" t="s">
+        <v>380</v>
       </c>
       <c r="AN2" t="s">
-        <v>670</v>
+        <v>397</v>
       </c>
       <c r="AO2" t="s">
-        <v>687</v>
+        <v>407</v>
       </c>
       <c r="AP2" t="s">
-        <v>697</v>
+        <v>417</v>
       </c>
       <c r="AQ2" t="s">
-        <v>707</v>
+        <v>427</v>
       </c>
       <c r="AR2" t="s">
-        <v>717</v>
+        <v>436</v>
       </c>
       <c r="AS2" t="s">
-        <v>726</v>
+        <v>443</v>
       </c>
       <c r="AT2" t="s">
-        <v>733</v>
+        <v>448</v>
       </c>
       <c r="AU2" t="s">
-        <v>738</v>
+        <v>453</v>
       </c>
       <c r="AV2" t="s">
-        <v>743</v>
+        <v>459</v>
       </c>
       <c r="AW2" t="s">
-        <v>749</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>771</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>781</v>
+        <v>481</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>491</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>688</v>
       </c>
       <c r="FI2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3" spans="6:165">
@@ -6430,44 +6433,44 @@
       <c r="V3" t="s">
         <v>344</v>
       </c>
-      <c r="AB3" t="s">
-        <v>359</v>
+      <c r="AM3" t="s">
+        <v>381</v>
       </c>
       <c r="AN3" t="s">
-        <v>671</v>
+        <v>398</v>
       </c>
       <c r="AO3" t="s">
-        <v>688</v>
+        <v>408</v>
       </c>
       <c r="AP3" t="s">
-        <v>698</v>
+        <v>418</v>
       </c>
       <c r="AQ3" t="s">
-        <v>708</v>
+        <v>428</v>
       </c>
       <c r="AR3" t="s">
-        <v>718</v>
+        <v>437</v>
       </c>
       <c r="AS3" t="s">
-        <v>727</v>
+        <v>444</v>
       </c>
       <c r="AT3" t="s">
-        <v>734</v>
+        <v>449</v>
       </c>
       <c r="AU3" t="s">
-        <v>739</v>
+        <v>454</v>
       </c>
       <c r="AV3" t="s">
-        <v>744</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>750</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>782</v>
+        <v>460</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>492</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>689</v>
       </c>
       <c r="FI3" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4" spans="6:165">
@@ -6480,35 +6483,35 @@
       <c r="I4" t="s">
         <v>312</v>
       </c>
-      <c r="AB4" t="s">
-        <v>360</v>
+      <c r="AM4" t="s">
+        <v>382</v>
       </c>
       <c r="AN4" t="s">
-        <v>672</v>
+        <v>399</v>
       </c>
       <c r="AO4" t="s">
-        <v>689</v>
+        <v>409</v>
       </c>
       <c r="AP4" t="s">
-        <v>699</v>
+        <v>419</v>
       </c>
       <c r="AQ4" t="s">
-        <v>709</v>
+        <v>429</v>
       </c>
       <c r="AR4" t="s">
-        <v>719</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>728</v>
+        <v>438</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>455</v>
       </c>
       <c r="AV4" t="s">
-        <v>745</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>751</v>
+        <v>461</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>690</v>
       </c>
       <c r="FI4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="5" spans="6:165">
@@ -6521,32 +6524,32 @@
       <c r="I5" t="s">
         <v>313</v>
       </c>
-      <c r="AB5" t="s">
-        <v>361</v>
+      <c r="AM5" t="s">
+        <v>383</v>
       </c>
       <c r="AN5" t="s">
-        <v>673</v>
+        <v>400</v>
       </c>
       <c r="AO5" t="s">
-        <v>690</v>
+        <v>410</v>
       </c>
       <c r="AP5" t="s">
-        <v>700</v>
+        <v>420</v>
       </c>
       <c r="AQ5" t="s">
-        <v>710</v>
+        <v>430</v>
       </c>
       <c r="AR5" t="s">
-        <v>720</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>729</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>752</v>
+        <v>439</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>462</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>691</v>
       </c>
       <c r="FI5" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="6" spans="6:165">
@@ -6556,26 +6559,26 @@
       <c r="I6" t="s">
         <v>314</v>
       </c>
-      <c r="AB6" t="s">
-        <v>362</v>
+      <c r="AM6" t="s">
+        <v>384</v>
       </c>
       <c r="AN6" t="s">
-        <v>674</v>
+        <v>401</v>
       </c>
       <c r="AO6" t="s">
-        <v>691</v>
+        <v>411</v>
       </c>
       <c r="AP6" t="s">
-        <v>701</v>
+        <v>421</v>
       </c>
       <c r="AQ6" t="s">
-        <v>711</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>721</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>753</v>
+        <v>431</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>463</v>
+      </c>
+      <c r="ET6" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="6:165">
@@ -6585,1575 +6588,1580 @@
       <c r="I7" t="s">
         <v>315</v>
       </c>
-      <c r="AB7" t="s">
-        <v>363</v>
+      <c r="AM7" t="s">
+        <v>385</v>
       </c>
       <c r="AN7" t="s">
-        <v>675</v>
+        <v>402</v>
       </c>
       <c r="AO7" t="s">
-        <v>692</v>
+        <v>412</v>
       </c>
       <c r="AP7" t="s">
-        <v>702</v>
+        <v>422</v>
       </c>
       <c r="AQ7" t="s">
-        <v>712</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>722</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>754</v>
+        <v>432</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>464</v>
+      </c>
+      <c r="ET7" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="6:165">
       <c r="F8" t="s">
         <v>275</v>
       </c>
-      <c r="AB8" t="s">
-        <v>364</v>
+      <c r="AM8" t="s">
+        <v>386</v>
       </c>
       <c r="AN8" t="s">
-        <v>676</v>
+        <v>403</v>
       </c>
       <c r="AO8" t="s">
-        <v>693</v>
+        <v>413</v>
       </c>
       <c r="AP8" t="s">
-        <v>703</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>713</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>755</v>
+        <v>423</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>465</v>
+      </c>
+      <c r="ET8" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="9" spans="6:165">
       <c r="F9" t="s">
         <v>276</v>
       </c>
-      <c r="AB9" t="s">
-        <v>365</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>677</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>756</v>
+      <c r="AM9" t="s">
+        <v>387</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>466</v>
+      </c>
+      <c r="ET9" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="6:165">
       <c r="F10" t="s">
         <v>277</v>
       </c>
-      <c r="AB10" t="s">
-        <v>366</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>678</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>757</v>
+      <c r="AM10" t="s">
+        <v>388</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>467</v>
+      </c>
+      <c r="ET10" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="11" spans="6:165">
       <c r="F11" t="s">
         <v>278</v>
       </c>
-      <c r="AB11" t="s">
-        <v>367</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>679</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>758</v>
+      <c r="AM11" t="s">
+        <v>389</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>468</v>
+      </c>
+      <c r="ET11" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="12" spans="6:165">
       <c r="F12" t="s">
         <v>279</v>
       </c>
-      <c r="AB12" t="s">
-        <v>368</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>680</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>713</v>
+      <c r="AM12" t="s">
+        <v>390</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>423</v>
+      </c>
+      <c r="ET12" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="13" spans="6:165">
       <c r="F13" t="s">
         <v>280</v>
       </c>
-      <c r="AB13" t="s">
-        <v>369</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>681</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>759</v>
+      <c r="AM13" t="s">
+        <v>391</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>469</v>
+      </c>
+      <c r="ET13" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="14" spans="6:165">
       <c r="F14" t="s">
         <v>281</v>
       </c>
-      <c r="AB14" t="s">
-        <v>370</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>682</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>760</v>
+      <c r="AM14" t="s">
+        <v>392</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>470</v>
+      </c>
+      <c r="ET14" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="6:165">
       <c r="F15" t="s">
         <v>282</v>
       </c>
-      <c r="AB15" t="s">
-        <v>371</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>683</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>761</v>
+      <c r="AM15" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>471</v>
+      </c>
+      <c r="ET15" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="6:165">
       <c r="F16" t="s">
         <v>283</v>
       </c>
-      <c r="AB16" t="s">
-        <v>372</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="17" spans="6:49">
+      <c r="AV16" t="s">
+        <v>472</v>
+      </c>
+      <c r="ET16" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="17" spans="6:150">
       <c r="F17" t="s">
         <v>284</v>
       </c>
-      <c r="AB17" t="s">
-        <v>373</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="18" spans="6:49">
+      <c r="AV17" t="s">
+        <v>473</v>
+      </c>
+      <c r="ET17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="18" spans="6:150">
       <c r="F18" t="s">
         <v>285</v>
       </c>
-      <c r="AB18" t="s">
-        <v>374</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="19" spans="6:49">
+      <c r="AV18" t="s">
+        <v>474</v>
+      </c>
+      <c r="ET18" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="19" spans="6:150">
       <c r="F19" t="s">
         <v>286</v>
       </c>
-      <c r="AB19" t="s">
-        <v>375</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="20" spans="6:49">
+      <c r="AV19" t="s">
+        <v>475</v>
+      </c>
+      <c r="ET19" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="20" spans="6:150">
       <c r="F20" t="s">
         <v>287</v>
       </c>
-      <c r="AB20" t="s">
-        <v>376</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="21" spans="6:49">
+      <c r="AV20" t="s">
+        <v>476</v>
+      </c>
+      <c r="ET20" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="21" spans="6:150">
       <c r="F21" t="s">
         <v>288</v>
       </c>
-      <c r="AB21" t="s">
-        <v>377</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="22" spans="6:49">
+      <c r="AV21" t="s">
+        <v>477</v>
+      </c>
+      <c r="ET21" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="22" spans="6:150">
       <c r="F22" t="s">
         <v>289</v>
       </c>
-      <c r="AB22" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="23" spans="6:49">
+      <c r="ET22" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="23" spans="6:150">
       <c r="F23" t="s">
         <v>290</v>
       </c>
-      <c r="AB23" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="24" spans="6:49">
+      <c r="ET23" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="24" spans="6:150">
       <c r="F24" t="s">
         <v>291</v>
       </c>
-      <c r="AB24" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25" spans="6:49">
+      <c r="ET24" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="25" spans="6:150">
       <c r="F25" t="s">
         <v>292</v>
       </c>
-      <c r="AB25" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="26" spans="6:49">
+      <c r="ET25" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="26" spans="6:150">
       <c r="F26" t="s">
         <v>293</v>
       </c>
-      <c r="AB26" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" spans="6:49">
+      <c r="ET26" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="27" spans="6:150">
       <c r="F27" t="s">
         <v>294</v>
       </c>
-      <c r="AB27" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="28" spans="6:49">
+      <c r="ET27" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="28" spans="6:150">
       <c r="F28" t="s">
         <v>295</v>
       </c>
-      <c r="AB28" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="29" spans="6:49">
+      <c r="ET28" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="29" spans="6:150">
       <c r="F29" t="s">
         <v>296</v>
       </c>
-      <c r="AB29" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="30" spans="6:49">
+      <c r="ET29" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="30" spans="6:150">
       <c r="F30" t="s">
         <v>297</v>
       </c>
-      <c r="AB30" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="31" spans="6:49">
-      <c r="AB31" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="32" spans="6:49">
-      <c r="AB32" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="33" spans="28:28">
-      <c r="AB33" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="28:28">
-      <c r="AB34" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="35" spans="28:28">
-      <c r="AB35" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="36" spans="28:28">
-      <c r="AB36" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="37" spans="28:28">
-      <c r="AB37" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="38" spans="28:28">
-      <c r="AB38" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="39" spans="28:28">
-      <c r="AB39" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="40" spans="28:28">
-      <c r="AB40" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="41" spans="28:28">
-      <c r="AB41" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="42" spans="28:28">
-      <c r="AB42" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="43" spans="28:28">
-      <c r="AB43" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="44" spans="28:28">
-      <c r="AB44" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="45" spans="28:28">
-      <c r="AB45" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="46" spans="28:28">
-      <c r="AB46" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="47" spans="28:28">
-      <c r="AB47" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="48" spans="28:28">
-      <c r="AB48" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="49" spans="28:28">
-      <c r="AB49" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="50" spans="28:28">
-      <c r="AB50" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="51" spans="28:28">
-      <c r="AB51" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="52" spans="28:28">
-      <c r="AB52" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="53" spans="28:28">
-      <c r="AB53" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="54" spans="28:28">
-      <c r="AB54" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="55" spans="28:28">
-      <c r="AB55" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="56" spans="28:28">
-      <c r="AB56" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="57" spans="28:28">
-      <c r="AB57" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="58" spans="28:28">
-      <c r="AB58" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="59" spans="28:28">
-      <c r="AB59" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="60" spans="28:28">
-      <c r="AB60" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="61" spans="28:28">
-      <c r="AB61" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="62" spans="28:28">
-      <c r="AB62" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="63" spans="28:28">
-      <c r="AB63" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="64" spans="28:28">
-      <c r="AB64" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="65" spans="28:28">
-      <c r="AB65" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="66" spans="28:28">
-      <c r="AB66" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="67" spans="28:28">
-      <c r="AB67" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="68" spans="28:28">
-      <c r="AB68" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="69" spans="28:28">
-      <c r="AB69" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="70" spans="28:28">
-      <c r="AB70" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="71" spans="28:28">
-      <c r="AB71" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="72" spans="28:28">
-      <c r="AB72" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="73" spans="28:28">
-      <c r="AB73" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="74" spans="28:28">
-      <c r="AB74" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="75" spans="28:28">
-      <c r="AB75" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="76" spans="28:28">
-      <c r="AB76" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="77" spans="28:28">
-      <c r="AB77" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="78" spans="28:28">
-      <c r="AB78" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="79" spans="28:28">
-      <c r="AB79" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="80" spans="28:28">
-      <c r="AB80" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="81" spans="28:28">
-      <c r="AB81" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="82" spans="28:28">
-      <c r="AB82" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="83" spans="28:28">
-      <c r="AB83" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="84" spans="28:28">
-      <c r="AB84" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="85" spans="28:28">
-      <c r="AB85" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="86" spans="28:28">
-      <c r="AB86" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="87" spans="28:28">
-      <c r="AB87" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="88" spans="28:28">
-      <c r="AB88" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="89" spans="28:28">
-      <c r="AB89" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="90" spans="28:28">
-      <c r="AB90" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="91" spans="28:28">
-      <c r="AB91" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="92" spans="28:28">
-      <c r="AB92" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="93" spans="28:28">
-      <c r="AB93" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="94" spans="28:28">
-      <c r="AB94" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="95" spans="28:28">
-      <c r="AB95" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="96" spans="28:28">
-      <c r="AB96" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="97" spans="28:28">
-      <c r="AB97" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="98" spans="28:28">
-      <c r="AB98" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="99" spans="28:28">
-      <c r="AB99" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="100" spans="28:28">
-      <c r="AB100" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="101" spans="28:28">
-      <c r="AB101" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="102" spans="28:28">
-      <c r="AB102" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="103" spans="28:28">
-      <c r="AB103" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="104" spans="28:28">
-      <c r="AB104" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="105" spans="28:28">
-      <c r="AB105" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="106" spans="28:28">
-      <c r="AB106" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="107" spans="28:28">
-      <c r="AB107" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="108" spans="28:28">
-      <c r="AB108" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="109" spans="28:28">
-      <c r="AB109" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="110" spans="28:28">
-      <c r="AB110" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="111" spans="28:28">
-      <c r="AB111" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="112" spans="28:28">
-      <c r="AB112" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="113" spans="28:28">
-      <c r="AB113" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="114" spans="28:28">
-      <c r="AB114" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="115" spans="28:28">
-      <c r="AB115" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="116" spans="28:28">
-      <c r="AB116" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="117" spans="28:28">
-      <c r="AB117" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="118" spans="28:28">
-      <c r="AB118" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="119" spans="28:28">
-      <c r="AB119" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="120" spans="28:28">
-      <c r="AB120" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="121" spans="28:28">
-      <c r="AB121" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="122" spans="28:28">
-      <c r="AB122" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="123" spans="28:28">
-      <c r="AB123" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="124" spans="28:28">
-      <c r="AB124" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="125" spans="28:28">
-      <c r="AB125" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="126" spans="28:28">
-      <c r="AB126" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="127" spans="28:28">
-      <c r="AB127" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="128" spans="28:28">
-      <c r="AB128" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="129" spans="28:28">
-      <c r="AB129" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="130" spans="28:28">
-      <c r="AB130" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="131" spans="28:28">
-      <c r="AB131" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="132" spans="28:28">
-      <c r="AB132" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="133" spans="28:28">
-      <c r="AB133" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="134" spans="28:28">
-      <c r="AB134" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="135" spans="28:28">
-      <c r="AB135" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="136" spans="28:28">
-      <c r="AB136" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="137" spans="28:28">
-      <c r="AB137" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="138" spans="28:28">
-      <c r="AB138" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="139" spans="28:28">
-      <c r="AB139" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="140" spans="28:28">
-      <c r="AB140" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="141" spans="28:28">
-      <c r="AB141" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="142" spans="28:28">
-      <c r="AB142" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="143" spans="28:28">
-      <c r="AB143" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="144" spans="28:28">
-      <c r="AB144" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="145" spans="28:28">
-      <c r="AB145" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="146" spans="28:28">
-      <c r="AB146" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="147" spans="28:28">
-      <c r="AB147" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="148" spans="28:28">
-      <c r="AB148" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="149" spans="28:28">
-      <c r="AB149" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="150" spans="28:28">
-      <c r="AB150" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="151" spans="28:28">
-      <c r="AB151" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="152" spans="28:28">
-      <c r="AB152" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="153" spans="28:28">
-      <c r="AB153" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="154" spans="28:28">
-      <c r="AB154" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="155" spans="28:28">
-      <c r="AB155" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="156" spans="28:28">
-      <c r="AB156" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="157" spans="28:28">
-      <c r="AB157" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="158" spans="28:28">
-      <c r="AB158" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="159" spans="28:28">
-      <c r="AB159" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="160" spans="28:28">
-      <c r="AB160" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="161" spans="28:28">
-      <c r="AB161" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="162" spans="28:28">
-      <c r="AB162" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="163" spans="28:28">
-      <c r="AB163" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="164" spans="28:28">
-      <c r="AB164" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="165" spans="28:28">
-      <c r="AB165" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="166" spans="28:28">
-      <c r="AB166" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="167" spans="28:28">
-      <c r="AB167" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="168" spans="28:28">
-      <c r="AB168" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="169" spans="28:28">
-      <c r="AB169" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="170" spans="28:28">
-      <c r="AB170" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="171" spans="28:28">
-      <c r="AB171" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="172" spans="28:28">
-      <c r="AB172" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="173" spans="28:28">
-      <c r="AB173" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="174" spans="28:28">
-      <c r="AB174" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="175" spans="28:28">
-      <c r="AB175" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="176" spans="28:28">
-      <c r="AB176" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="177" spans="28:28">
-      <c r="AB177" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="178" spans="28:28">
-      <c r="AB178" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="179" spans="28:28">
-      <c r="AB179" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="180" spans="28:28">
-      <c r="AB180" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="181" spans="28:28">
-      <c r="AB181" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="182" spans="28:28">
-      <c r="AB182" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="183" spans="28:28">
-      <c r="AB183" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="184" spans="28:28">
-      <c r="AB184" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="185" spans="28:28">
-      <c r="AB185" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="186" spans="28:28">
-      <c r="AB186" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="187" spans="28:28">
-      <c r="AB187" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="188" spans="28:28">
-      <c r="AB188" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="189" spans="28:28">
-      <c r="AB189" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="190" spans="28:28">
-      <c r="AB190" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="191" spans="28:28">
-      <c r="AB191" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="192" spans="28:28">
-      <c r="AB192" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="193" spans="28:28">
-      <c r="AB193" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="194" spans="28:28">
-      <c r="AB194" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="195" spans="28:28">
-      <c r="AB195" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="196" spans="28:28">
-      <c r="AB196" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="197" spans="28:28">
-      <c r="AB197" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="198" spans="28:28">
-      <c r="AB198" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="199" spans="28:28">
-      <c r="AB199" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="200" spans="28:28">
-      <c r="AB200" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="201" spans="28:28">
-      <c r="AB201" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="202" spans="28:28">
-      <c r="AB202" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="203" spans="28:28">
-      <c r="AB203" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="204" spans="28:28">
-      <c r="AB204" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="205" spans="28:28">
-      <c r="AB205" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="206" spans="28:28">
-      <c r="AB206" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="207" spans="28:28">
-      <c r="AB207" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="208" spans="28:28">
-      <c r="AB208" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="209" spans="28:28">
-      <c r="AB209" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="210" spans="28:28">
-      <c r="AB210" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="211" spans="28:28">
-      <c r="AB211" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="212" spans="28:28">
-      <c r="AB212" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="213" spans="28:28">
-      <c r="AB213" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="214" spans="28:28">
-      <c r="AB214" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="215" spans="28:28">
-      <c r="AB215" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="216" spans="28:28">
-      <c r="AB216" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="217" spans="28:28">
-      <c r="AB217" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="218" spans="28:28">
-      <c r="AB218" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="219" spans="28:28">
-      <c r="AB219" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="220" spans="28:28">
-      <c r="AB220" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="221" spans="28:28">
-      <c r="AB221" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="222" spans="28:28">
-      <c r="AB222" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="223" spans="28:28">
-      <c r="AB223" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="224" spans="28:28">
-      <c r="AB224" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="225" spans="28:28">
-      <c r="AB225" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="226" spans="28:28">
-      <c r="AB226" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="227" spans="28:28">
-      <c r="AB227" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="228" spans="28:28">
-      <c r="AB228" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="229" spans="28:28">
-      <c r="AB229" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="230" spans="28:28">
-      <c r="AB230" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="231" spans="28:28">
-      <c r="AB231" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="232" spans="28:28">
-      <c r="AB232" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="233" spans="28:28">
-      <c r="AB233" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="234" spans="28:28">
-      <c r="AB234" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="235" spans="28:28">
-      <c r="AB235" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="236" spans="28:28">
-      <c r="AB236" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="237" spans="28:28">
-      <c r="AB237" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="238" spans="28:28">
-      <c r="AB238" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="239" spans="28:28">
-      <c r="AB239" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="240" spans="28:28">
-      <c r="AB240" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="241" spans="28:28">
-      <c r="AB241" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="242" spans="28:28">
-      <c r="AB242" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="243" spans="28:28">
-      <c r="AB243" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="244" spans="28:28">
-      <c r="AB244" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="245" spans="28:28">
-      <c r="AB245" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="246" spans="28:28">
-      <c r="AB246" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="247" spans="28:28">
-      <c r="AB247" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="248" spans="28:28">
-      <c r="AB248" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="249" spans="28:28">
-      <c r="AB249" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="250" spans="28:28">
-      <c r="AB250" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="251" spans="28:28">
-      <c r="AB251" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="252" spans="28:28">
-      <c r="AB252" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="253" spans="28:28">
-      <c r="AB253" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="254" spans="28:28">
-      <c r="AB254" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="255" spans="28:28">
-      <c r="AB255" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="256" spans="28:28">
-      <c r="AB256" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="257" spans="28:28">
-      <c r="AB257" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="258" spans="28:28">
-      <c r="AB258" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="259" spans="28:28">
-      <c r="AB259" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="260" spans="28:28">
-      <c r="AB260" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="261" spans="28:28">
-      <c r="AB261" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="262" spans="28:28">
-      <c r="AB262" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="263" spans="28:28">
-      <c r="AB263" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="264" spans="28:28">
-      <c r="AB264" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="265" spans="28:28">
-      <c r="AB265" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="266" spans="28:28">
-      <c r="AB266" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="267" spans="28:28">
-      <c r="AB267" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="268" spans="28:28">
-      <c r="AB268" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="269" spans="28:28">
-      <c r="AB269" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="270" spans="28:28">
-      <c r="AB270" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="271" spans="28:28">
-      <c r="AB271" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="272" spans="28:28">
-      <c r="AB272" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="273" spans="28:28">
-      <c r="AB273" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="274" spans="28:28">
-      <c r="AB274" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="275" spans="28:28">
-      <c r="AB275" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="276" spans="28:28">
-      <c r="AB276" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="277" spans="28:28">
-      <c r="AB277" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="278" spans="28:28">
-      <c r="AB278" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="279" spans="28:28">
-      <c r="AB279" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="280" spans="28:28">
-      <c r="AB280" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="281" spans="28:28">
-      <c r="AB281" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="282" spans="28:28">
-      <c r="AB282" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="283" spans="28:28">
-      <c r="AB283" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="284" spans="28:28">
-      <c r="AB284" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="285" spans="28:28">
-      <c r="AB285" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="286" spans="28:28">
-      <c r="AB286" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="287" spans="28:28">
-      <c r="AB287" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="288" spans="28:28">
-      <c r="AB288" t="s">
-        <v>644</v>
+      <c r="ET30" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="31" spans="6:150">
+      <c r="ET31" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="32" spans="6:150">
+      <c r="ET32" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="33" spans="150:150">
+      <c r="ET33" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="34" spans="150:150">
+      <c r="ET34" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="35" spans="150:150">
+      <c r="ET35" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="36" spans="150:150">
+      <c r="ET36" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="37" spans="150:150">
+      <c r="ET37" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="38" spans="150:150">
+      <c r="ET38" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="39" spans="150:150">
+      <c r="ET39" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="40" spans="150:150">
+      <c r="ET40" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="41" spans="150:150">
+      <c r="ET41" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="42" spans="150:150">
+      <c r="ET42" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="43" spans="150:150">
+      <c r="ET43" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="44" spans="150:150">
+      <c r="ET44" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="45" spans="150:150">
+      <c r="ET45" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="46" spans="150:150">
+      <c r="ET46" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="47" spans="150:150">
+      <c r="ET47" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="48" spans="150:150">
+      <c r="ET48" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="49" spans="150:150">
+      <c r="ET49" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="50" spans="150:150">
+      <c r="ET50" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="51" spans="150:150">
+      <c r="ET51" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="52" spans="150:150">
+      <c r="ET52" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="53" spans="150:150">
+      <c r="ET53" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="54" spans="150:150">
+      <c r="ET54" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="55" spans="150:150">
+      <c r="ET55" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="56" spans="150:150">
+      <c r="ET56" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="57" spans="150:150">
+      <c r="ET57" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="58" spans="150:150">
+      <c r="ET58" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="59" spans="150:150">
+      <c r="ET59" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="60" spans="150:150">
+      <c r="ET60" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="61" spans="150:150">
+      <c r="ET61" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="62" spans="150:150">
+      <c r="ET62" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="63" spans="150:150">
+      <c r="ET63" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="64" spans="150:150">
+      <c r="ET64" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="65" spans="150:150">
+      <c r="ET65" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="66" spans="150:150">
+      <c r="ET66" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="67" spans="150:150">
+      <c r="ET67" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="68" spans="150:150">
+      <c r="ET68" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="69" spans="150:150">
+      <c r="ET69" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="70" spans="150:150">
+      <c r="ET70" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="71" spans="150:150">
+      <c r="ET71" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="72" spans="150:150">
+      <c r="ET72" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="73" spans="150:150">
+      <c r="ET73" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="74" spans="150:150">
+      <c r="ET74" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="75" spans="150:150">
+      <c r="ET75" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="76" spans="150:150">
+      <c r="ET76" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="77" spans="150:150">
+      <c r="ET77" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="78" spans="150:150">
+      <c r="ET78" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="79" spans="150:150">
+      <c r="ET79" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="80" spans="150:150">
+      <c r="ET80" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="81" spans="150:150">
+      <c r="ET81" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="82" spans="150:150">
+      <c r="ET82" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="83" spans="150:150">
+      <c r="ET83" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="84" spans="150:150">
+      <c r="ET84" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="85" spans="150:150">
+      <c r="ET85" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="86" spans="150:150">
+      <c r="ET86" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="87" spans="150:150">
+      <c r="ET87" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="88" spans="150:150">
+      <c r="ET88" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="89" spans="150:150">
+      <c r="ET89" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="90" spans="150:150">
+      <c r="ET90" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="91" spans="150:150">
+      <c r="ET91" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="92" spans="150:150">
+      <c r="ET92" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="93" spans="150:150">
+      <c r="ET93" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="94" spans="150:150">
+      <c r="ET94" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="95" spans="150:150">
+      <c r="ET95" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="96" spans="150:150">
+      <c r="ET96" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="97" spans="150:150">
+      <c r="ET97" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="98" spans="150:150">
+      <c r="ET98" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="99" spans="150:150">
+      <c r="ET99" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="100" spans="150:150">
+      <c r="ET100" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="101" spans="150:150">
+      <c r="ET101" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="102" spans="150:150">
+      <c r="ET102" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="103" spans="150:150">
+      <c r="ET103" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="104" spans="150:150">
+      <c r="ET104" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="105" spans="150:150">
+      <c r="ET105" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="106" spans="150:150">
+      <c r="ET106" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="107" spans="150:150">
+      <c r="ET107" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="108" spans="150:150">
+      <c r="ET108" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="109" spans="150:150">
+      <c r="ET109" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="110" spans="150:150">
+      <c r="ET110" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="111" spans="150:150">
+      <c r="ET111" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="112" spans="150:150">
+      <c r="ET112" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="113" spans="150:150">
+      <c r="ET113" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="114" spans="150:150">
+      <c r="ET114" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="115" spans="150:150">
+      <c r="ET115" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="116" spans="150:150">
+      <c r="ET116" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="117" spans="150:150">
+      <c r="ET117" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="118" spans="150:150">
+      <c r="ET118" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="119" spans="150:150">
+      <c r="ET119" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="120" spans="150:150">
+      <c r="ET120" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="121" spans="150:150">
+      <c r="ET121" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="122" spans="150:150">
+      <c r="ET122" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="123" spans="150:150">
+      <c r="ET123" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="124" spans="150:150">
+      <c r="ET124" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="125" spans="150:150">
+      <c r="ET125" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="126" spans="150:150">
+      <c r="ET126" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="127" spans="150:150">
+      <c r="ET127" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="128" spans="150:150">
+      <c r="ET128" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="129" spans="150:150">
+      <c r="ET129" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="130" spans="150:150">
+      <c r="ET130" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="131" spans="150:150">
+      <c r="ET131" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="132" spans="150:150">
+      <c r="ET132" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="133" spans="150:150">
+      <c r="ET133" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="134" spans="150:150">
+      <c r="ET134" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="135" spans="150:150">
+      <c r="ET135" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="136" spans="150:150">
+      <c r="ET136" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="137" spans="150:150">
+      <c r="ET137" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="138" spans="150:150">
+      <c r="ET138" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="139" spans="150:150">
+      <c r="ET139" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="140" spans="150:150">
+      <c r="ET140" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="141" spans="150:150">
+      <c r="ET141" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="142" spans="150:150">
+      <c r="ET142" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="143" spans="150:150">
+      <c r="ET143" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="144" spans="150:150">
+      <c r="ET144" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="145" spans="150:150">
+      <c r="ET145" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="146" spans="150:150">
+      <c r="ET146" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="147" spans="150:150">
+      <c r="ET147" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="148" spans="150:150">
+      <c r="ET148" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="149" spans="150:150">
+      <c r="ET149" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="150" spans="150:150">
+      <c r="ET150" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="151" spans="150:150">
+      <c r="ET151" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="152" spans="150:150">
+      <c r="ET152" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="153" spans="150:150">
+      <c r="ET153" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="154" spans="150:150">
+      <c r="ET154" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="155" spans="150:150">
+      <c r="ET155" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="156" spans="150:150">
+      <c r="ET156" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="157" spans="150:150">
+      <c r="ET157" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="158" spans="150:150">
+      <c r="ET158" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="159" spans="150:150">
+      <c r="ET159" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="160" spans="150:150">
+      <c r="ET160" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="161" spans="150:150">
+      <c r="ET161" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="162" spans="150:150">
+      <c r="ET162" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="163" spans="150:150">
+      <c r="ET163" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="164" spans="150:150">
+      <c r="ET164" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="165" spans="150:150">
+      <c r="ET165" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="166" spans="150:150">
+      <c r="ET166" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="167" spans="150:150">
+      <c r="ET167" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="168" spans="150:150">
+      <c r="ET168" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="169" spans="150:150">
+      <c r="ET169" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="170" spans="150:150">
+      <c r="ET170" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="171" spans="150:150">
+      <c r="ET171" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="172" spans="150:150">
+      <c r="ET172" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="173" spans="150:150">
+      <c r="ET173" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="174" spans="150:150">
+      <c r="ET174" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="175" spans="150:150">
+      <c r="ET175" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="176" spans="150:150">
+      <c r="ET176" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="177" spans="150:150">
+      <c r="ET177" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="178" spans="150:150">
+      <c r="ET178" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="179" spans="150:150">
+      <c r="ET179" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="180" spans="150:150">
+      <c r="ET180" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="181" spans="150:150">
+      <c r="ET181" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="182" spans="150:150">
+      <c r="ET182" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="183" spans="150:150">
+      <c r="ET183" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="184" spans="150:150">
+      <c r="ET184" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="185" spans="150:150">
+      <c r="ET185" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="186" spans="150:150">
+      <c r="ET186" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="187" spans="150:150">
+      <c r="ET187" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="188" spans="150:150">
+      <c r="ET188" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="189" spans="150:150">
+      <c r="ET189" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="190" spans="150:150">
+      <c r="ET190" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="191" spans="150:150">
+      <c r="ET191" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="192" spans="150:150">
+      <c r="ET192" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="193" spans="150:150">
+      <c r="ET193" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="194" spans="150:150">
+      <c r="ET194" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="195" spans="150:150">
+      <c r="ET195" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="196" spans="150:150">
+      <c r="ET196" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="197" spans="150:150">
+      <c r="ET197" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="198" spans="150:150">
+      <c r="ET198" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="199" spans="150:150">
+      <c r="ET199" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="200" spans="150:150">
+      <c r="ET200" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="201" spans="150:150">
+      <c r="ET201" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="202" spans="150:150">
+      <c r="ET202" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="203" spans="150:150">
+      <c r="ET203" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="204" spans="150:150">
+      <c r="ET204" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="205" spans="150:150">
+      <c r="ET205" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="206" spans="150:150">
+      <c r="ET206" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="207" spans="150:150">
+      <c r="ET207" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="208" spans="150:150">
+      <c r="ET208" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="209" spans="150:150">
+      <c r="ET209" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="210" spans="150:150">
+      <c r="ET210" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="211" spans="150:150">
+      <c r="ET211" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="212" spans="150:150">
+      <c r="ET212" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="213" spans="150:150">
+      <c r="ET213" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="214" spans="150:150">
+      <c r="ET214" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="215" spans="150:150">
+      <c r="ET215" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="216" spans="150:150">
+      <c r="ET216" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="217" spans="150:150">
+      <c r="ET217" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="218" spans="150:150">
+      <c r="ET218" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="219" spans="150:150">
+      <c r="ET219" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="220" spans="150:150">
+      <c r="ET220" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="221" spans="150:150">
+      <c r="ET221" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="222" spans="150:150">
+      <c r="ET222" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="223" spans="150:150">
+      <c r="ET223" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="224" spans="150:150">
+      <c r="ET224" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="225" spans="150:150">
+      <c r="ET225" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="226" spans="150:150">
+      <c r="ET226" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="227" spans="150:150">
+      <c r="ET227" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="228" spans="150:150">
+      <c r="ET228" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="229" spans="150:150">
+      <c r="ET229" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="230" spans="150:150">
+      <c r="ET230" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="231" spans="150:150">
+      <c r="ET231" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="232" spans="150:150">
+      <c r="ET232" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="233" spans="150:150">
+      <c r="ET233" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="234" spans="150:150">
+      <c r="ET234" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="235" spans="150:150">
+      <c r="ET235" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="236" spans="150:150">
+      <c r="ET236" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="237" spans="150:150">
+      <c r="ET237" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="238" spans="150:150">
+      <c r="ET238" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="239" spans="150:150">
+      <c r="ET239" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="240" spans="150:150">
+      <c r="ET240" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="241" spans="150:150">
+      <c r="ET241" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="242" spans="150:150">
+      <c r="ET242" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="243" spans="150:150">
+      <c r="ET243" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="244" spans="150:150">
+      <c r="ET244" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="245" spans="150:150">
+      <c r="ET245" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="246" spans="150:150">
+      <c r="ET246" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="247" spans="150:150">
+      <c r="ET247" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="248" spans="150:150">
+      <c r="ET248" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="249" spans="150:150">
+      <c r="ET249" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="250" spans="150:150">
+      <c r="ET250" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="251" spans="150:150">
+      <c r="ET251" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="252" spans="150:150">
+      <c r="ET252" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="253" spans="150:150">
+      <c r="ET253" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="254" spans="150:150">
+      <c r="ET254" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="255" spans="150:150">
+      <c r="ET255" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="256" spans="150:150">
+      <c r="ET256" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="257" spans="150:150">
+      <c r="ET257" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="258" spans="150:150">
+      <c r="ET258" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="259" spans="150:150">
+      <c r="ET259" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="260" spans="150:150">
+      <c r="ET260" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="261" spans="150:150">
+      <c r="ET261" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="262" spans="150:150">
+      <c r="ET262" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="263" spans="150:150">
+      <c r="ET263" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="264" spans="150:150">
+      <c r="ET264" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="265" spans="150:150">
+      <c r="ET265" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="266" spans="150:150">
+      <c r="ET266" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="267" spans="150:150">
+      <c r="ET267" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="268" spans="150:150">
+      <c r="ET268" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="269" spans="150:150">
+      <c r="ET269" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="270" spans="150:150">
+      <c r="ET270" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="271" spans="150:150">
+      <c r="ET271" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="272" spans="150:150">
+      <c r="ET272" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="273" spans="150:150">
+      <c r="ET273" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="274" spans="150:150">
+      <c r="ET274" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="275" spans="150:150">
+      <c r="ET275" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="276" spans="150:150">
+      <c r="ET276" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="277" spans="150:150">
+      <c r="ET277" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="278" spans="150:150">
+      <c r="ET278" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="279" spans="150:150">
+      <c r="ET279" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="280" spans="150:150">
+      <c r="ET280" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="281" spans="150:150">
+      <c r="ET281" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="282" spans="150:150">
+      <c r="ET282" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="283" spans="150:150">
+      <c r="ET283" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="284" spans="150:150">
+      <c r="ET284" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="285" spans="150:150">
+      <c r="ET285" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="286" spans="150:150">
+      <c r="ET286" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="287" spans="150:150">
+      <c r="ET287" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="288" spans="150:150">
+      <c r="ET288" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="289" spans="150:150">
+      <c r="ET289" t="s">
+        <v>975</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -26,7 +26,7 @@
     <definedName name="heatingandcoolingsystemtype">'cv_sample'!$AR$1:$AR$5</definedName>
     <definedName name="indoorspace">'cv_sample'!$AP$1:$AP$8</definedName>
     <definedName name="indoorsurface">'cv_sample'!$AO$1:$AO$8</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="1120">
   <si>
     <t>alias</t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -3943,7 +3946,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3987,7 +3990,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4014,7 +4017,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4726,6 +4729,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4750,27 +4758,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4793,122 +4801,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4935,1308 +4943,1308 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="FX1" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="FY1" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="FZ1" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="GA1" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="GS1" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="GU1" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="GV1" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="GX1" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="GZ1" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="HA1" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="HD1" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="HE1" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="HF1" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="HH1" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="HI1" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="HJ1" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="2" spans="1:218" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="EX2" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="EY2" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="EZ2" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="FA2" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="FB2" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="FC2" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="FD2" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="FE2" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="FF2" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="FG2" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="FH2" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="FI2" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="FK2" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="FL2" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="FM2" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="FN2" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="FO2" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="FP2" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="FQ2" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="FR2" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="FS2" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="FT2" s="2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="FU2" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="FV2" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="FW2" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="FX2" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="FY2" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="FZ2" s="2" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="GA2" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="GB2" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="GC2" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="GD2" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="GE2" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="GF2" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="GG2" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="GH2" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="GI2" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="GJ2" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="GK2" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="GL2" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="GM2" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="GN2" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="GO2" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="GP2" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="GQ2" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="GR2" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="GS2" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="GT2" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="GU2" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="GV2" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="GW2" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="GX2" s="2" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="GY2" s="2" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="GZ2" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="HA2" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="HB2" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="HC2" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="HD2" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="HE2" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="HF2" s="2" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="HG2" s="2" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="HH2" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="HI2" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="HJ2" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
@@ -6310,1858 +6318,1858 @@
   <sheetData>
     <row r="1" spans="6:165">
       <c r="F1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="V1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AP1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AQ1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AR1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AS1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AT1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AU1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AV1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AW1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="BA1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="ET1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="FI1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="2" spans="6:165">
       <c r="F2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AP2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AQ2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AR2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AS2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AT2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AU2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AV2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AW2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="BA2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="ET2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="FI2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="3" spans="6:165">
       <c r="F3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AP3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AQ3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AR3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AS3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AT3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AU3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AV3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="BA3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="ET3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="FI3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="4" spans="6:165">
       <c r="F4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AP4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AQ4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AR4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AU4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AV4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="ET4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="FI4" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="5" spans="6:165">
       <c r="F5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AQ5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AR5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AV5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="ET5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="FI5" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="6" spans="6:165">
       <c r="F6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AP6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AQ6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AV6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="ET6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="6:165">
       <c r="F7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AP7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AQ7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AV7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="ET7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="6:165">
       <c r="F8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AP8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AV8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="ET8" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="6:165">
       <c r="F9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AV9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="ET9" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="6:165">
       <c r="F10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AV10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="ET10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="11" spans="6:165">
       <c r="F11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AV11" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="ET11" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" spans="6:165">
       <c r="F12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AV12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="ET12" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="13" spans="6:165">
       <c r="F13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AV13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="ET13" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="6:165">
       <c r="F14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AV14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="ET14" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="6:165">
       <c r="F15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM15" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AV15" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="ET15" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="6:165">
       <c r="F16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AV16" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="ET16" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17" spans="6:150">
       <c r="F17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AV17" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="ET17" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" spans="6:150">
       <c r="F18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AV18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="ET18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="19" spans="6:150">
       <c r="F19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AV19" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="ET19" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="6:150">
       <c r="F20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AV20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="ET20" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="21" spans="6:150">
       <c r="F21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AV21" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="ET21" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="22" spans="6:150">
       <c r="F22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="ET22" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="23" spans="6:150">
       <c r="F23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="ET23" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="24" spans="6:150">
       <c r="F24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="ET24" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="25" spans="6:150">
       <c r="F25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="ET25" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="26" spans="6:150">
       <c r="F26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="ET26" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" spans="6:150">
       <c r="F27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="ET27" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="28" spans="6:150">
       <c r="F28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="ET28" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="29" spans="6:150">
       <c r="F29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="ET29" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="30" spans="6:150">
       <c r="F30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="ET30" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="31" spans="6:150">
       <c r="ET31" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="32" spans="6:150">
       <c r="ET32" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="33" spans="150:150">
       <c r="ET33" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="34" spans="150:150">
       <c r="ET34" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="150:150">
       <c r="ET35" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="36" spans="150:150">
       <c r="ET36" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="37" spans="150:150">
       <c r="ET37" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="38" spans="150:150">
       <c r="ET38" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="39" spans="150:150">
       <c r="ET39" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="40" spans="150:150">
       <c r="ET40" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="41" spans="150:150">
       <c r="ET41" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="42" spans="150:150">
       <c r="ET42" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="43" spans="150:150">
       <c r="ET43" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="44" spans="150:150">
       <c r="ET44" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="45" spans="150:150">
       <c r="ET45" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="46" spans="150:150">
       <c r="ET46" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="47" spans="150:150">
       <c r="ET47" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="48" spans="150:150">
       <c r="ET48" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="49" spans="150:150">
       <c r="ET49" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="50" spans="150:150">
       <c r="ET50" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="51" spans="150:150">
       <c r="ET51" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="52" spans="150:150">
       <c r="ET52" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="53" spans="150:150">
       <c r="ET53" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="54" spans="150:150">
       <c r="ET54" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="55" spans="150:150">
       <c r="ET55" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="56" spans="150:150">
       <c r="ET56" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="57" spans="150:150">
       <c r="ET57" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="58" spans="150:150">
       <c r="ET58" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="59" spans="150:150">
       <c r="ET59" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="60" spans="150:150">
       <c r="ET60" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="61" spans="150:150">
       <c r="ET61" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="62" spans="150:150">
       <c r="ET62" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="63" spans="150:150">
       <c r="ET63" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="64" spans="150:150">
       <c r="ET64" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="65" spans="150:150">
       <c r="ET65" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="66" spans="150:150">
       <c r="ET66" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="67" spans="150:150">
       <c r="ET67" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="68" spans="150:150">
       <c r="ET68" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="69" spans="150:150">
       <c r="ET69" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="70" spans="150:150">
       <c r="ET70" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="71" spans="150:150">
       <c r="ET71" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="72" spans="150:150">
       <c r="ET72" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="73" spans="150:150">
       <c r="ET73" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="74" spans="150:150">
       <c r="ET74" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="75" spans="150:150">
       <c r="ET75" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="76" spans="150:150">
       <c r="ET76" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="77" spans="150:150">
       <c r="ET77" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="78" spans="150:150">
       <c r="ET78" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="79" spans="150:150">
       <c r="ET79" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="80" spans="150:150">
       <c r="ET80" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="81" spans="150:150">
       <c r="ET81" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="82" spans="150:150">
       <c r="ET82" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="83" spans="150:150">
       <c r="ET83" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="84" spans="150:150">
       <c r="ET84" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="85" spans="150:150">
       <c r="ET85" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="86" spans="150:150">
       <c r="ET86" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="87" spans="150:150">
       <c r="ET87" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="88" spans="150:150">
       <c r="ET88" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="89" spans="150:150">
       <c r="ET89" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="90" spans="150:150">
       <c r="ET90" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="91" spans="150:150">
       <c r="ET91" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="92" spans="150:150">
       <c r="ET92" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="93" spans="150:150">
       <c r="ET93" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="94" spans="150:150">
       <c r="ET94" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="95" spans="150:150">
       <c r="ET95" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="96" spans="150:150">
       <c r="ET96" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="97" spans="150:150">
       <c r="ET97" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="98" spans="150:150">
       <c r="ET98" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="99" spans="150:150">
       <c r="ET99" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="100" spans="150:150">
       <c r="ET100" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="101" spans="150:150">
       <c r="ET101" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="102" spans="150:150">
       <c r="ET102" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="103" spans="150:150">
       <c r="ET103" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="104" spans="150:150">
       <c r="ET104" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="105" spans="150:150">
       <c r="ET105" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="106" spans="150:150">
       <c r="ET106" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="107" spans="150:150">
       <c r="ET107" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="108" spans="150:150">
       <c r="ET108" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="109" spans="150:150">
       <c r="ET109" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="110" spans="150:150">
       <c r="ET110" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="111" spans="150:150">
       <c r="ET111" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="112" spans="150:150">
       <c r="ET112" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="113" spans="150:150">
       <c r="ET113" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="114" spans="150:150">
       <c r="ET114" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="115" spans="150:150">
       <c r="ET115" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="116" spans="150:150">
       <c r="ET116" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="117" spans="150:150">
       <c r="ET117" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="118" spans="150:150">
       <c r="ET118" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="119" spans="150:150">
       <c r="ET119" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="120" spans="150:150">
       <c r="ET120" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="121" spans="150:150">
       <c r="ET121" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="122" spans="150:150">
       <c r="ET122" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="123" spans="150:150">
       <c r="ET123" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="124" spans="150:150">
       <c r="ET124" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="125" spans="150:150">
       <c r="ET125" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="126" spans="150:150">
       <c r="ET126" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="127" spans="150:150">
       <c r="ET127" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="128" spans="150:150">
       <c r="ET128" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="129" spans="150:150">
       <c r="ET129" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="130" spans="150:150">
       <c r="ET130" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="131" spans="150:150">
       <c r="ET131" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="132" spans="150:150">
       <c r="ET132" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="133" spans="150:150">
       <c r="ET133" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="134" spans="150:150">
       <c r="ET134" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="135" spans="150:150">
       <c r="ET135" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="136" spans="150:150">
       <c r="ET136" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="137" spans="150:150">
       <c r="ET137" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="138" spans="150:150">
       <c r="ET138" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="139" spans="150:150">
       <c r="ET139" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="140" spans="150:150">
       <c r="ET140" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="141" spans="150:150">
       <c r="ET141" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="142" spans="150:150">
       <c r="ET142" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="143" spans="150:150">
       <c r="ET143" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="144" spans="150:150">
       <c r="ET144" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="145" spans="150:150">
       <c r="ET145" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="146" spans="150:150">
       <c r="ET146" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="147" spans="150:150">
       <c r="ET147" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="148" spans="150:150">
       <c r="ET148" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="149" spans="150:150">
       <c r="ET149" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="150" spans="150:150">
       <c r="ET150" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="151" spans="150:150">
       <c r="ET151" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="152" spans="150:150">
       <c r="ET152" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="153" spans="150:150">
       <c r="ET153" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="154" spans="150:150">
       <c r="ET154" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="155" spans="150:150">
       <c r="ET155" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="156" spans="150:150">
       <c r="ET156" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="157" spans="150:150">
       <c r="ET157" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="158" spans="150:150">
       <c r="ET158" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="159" spans="150:150">
       <c r="ET159" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="160" spans="150:150">
       <c r="ET160" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="161" spans="150:150">
       <c r="ET161" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="162" spans="150:150">
       <c r="ET162" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="163" spans="150:150">
       <c r="ET163" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="164" spans="150:150">
       <c r="ET164" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="165" spans="150:150">
       <c r="ET165" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="166" spans="150:150">
       <c r="ET166" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="167" spans="150:150">
       <c r="ET167" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="168" spans="150:150">
       <c r="ET168" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="169" spans="150:150">
       <c r="ET169" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="170" spans="150:150">
       <c r="ET170" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="171" spans="150:150">
       <c r="ET171" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="172" spans="150:150">
       <c r="ET172" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="173" spans="150:150">
       <c r="ET173" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="174" spans="150:150">
       <c r="ET174" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="175" spans="150:150">
       <c r="ET175" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="176" spans="150:150">
       <c r="ET176" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="177" spans="150:150">
       <c r="ET177" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="178" spans="150:150">
       <c r="ET178" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="179" spans="150:150">
       <c r="ET179" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="180" spans="150:150">
       <c r="ET180" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="181" spans="150:150">
       <c r="ET181" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="182" spans="150:150">
       <c r="ET182" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="183" spans="150:150">
       <c r="ET183" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="184" spans="150:150">
       <c r="ET184" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="185" spans="150:150">
       <c r="ET185" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="186" spans="150:150">
       <c r="ET186" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="187" spans="150:150">
       <c r="ET187" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="188" spans="150:150">
       <c r="ET188" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="189" spans="150:150">
       <c r="ET189" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="190" spans="150:150">
       <c r="ET190" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="191" spans="150:150">
       <c r="ET191" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="192" spans="150:150">
       <c r="ET192" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="193" spans="150:150">
       <c r="ET193" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="194" spans="150:150">
       <c r="ET194" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="195" spans="150:150">
       <c r="ET195" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="196" spans="150:150">
       <c r="ET196" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="197" spans="150:150">
       <c r="ET197" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="198" spans="150:150">
       <c r="ET198" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="199" spans="150:150">
       <c r="ET199" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="200" spans="150:150">
       <c r="ET200" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="201" spans="150:150">
       <c r="ET201" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="202" spans="150:150">
       <c r="ET202" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="203" spans="150:150">
       <c r="ET203" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="204" spans="150:150">
       <c r="ET204" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="205" spans="150:150">
       <c r="ET205" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="206" spans="150:150">
       <c r="ET206" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="207" spans="150:150">
       <c r="ET207" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="208" spans="150:150">
       <c r="ET208" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="209" spans="150:150">
       <c r="ET209" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="210" spans="150:150">
       <c r="ET210" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="211" spans="150:150">
       <c r="ET211" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="212" spans="150:150">
       <c r="ET212" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="213" spans="150:150">
       <c r="ET213" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="214" spans="150:150">
       <c r="ET214" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="215" spans="150:150">
       <c r="ET215" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="216" spans="150:150">
       <c r="ET216" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="217" spans="150:150">
       <c r="ET217" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="218" spans="150:150">
       <c r="ET218" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="219" spans="150:150">
       <c r="ET219" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="220" spans="150:150">
       <c r="ET220" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="221" spans="150:150">
       <c r="ET221" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="222" spans="150:150">
       <c r="ET222" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="223" spans="150:150">
       <c r="ET223" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="224" spans="150:150">
       <c r="ET224" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="225" spans="150:150">
       <c r="ET225" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="226" spans="150:150">
       <c r="ET226" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="227" spans="150:150">
       <c r="ET227" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="228" spans="150:150">
       <c r="ET228" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="229" spans="150:150">
       <c r="ET229" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="230" spans="150:150">
       <c r="ET230" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="231" spans="150:150">
       <c r="ET231" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="232" spans="150:150">
       <c r="ET232" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="233" spans="150:150">
       <c r="ET233" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="234" spans="150:150">
       <c r="ET234" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="235" spans="150:150">
       <c r="ET235" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="236" spans="150:150">
       <c r="ET236" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="237" spans="150:150">
       <c r="ET237" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="238" spans="150:150">
       <c r="ET238" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="239" spans="150:150">
       <c r="ET239" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="240" spans="150:150">
       <c r="ET240" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="241" spans="150:150">
       <c r="ET241" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="242" spans="150:150">
       <c r="ET242" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="243" spans="150:150">
       <c r="ET243" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="244" spans="150:150">
       <c r="ET244" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="245" spans="150:150">
       <c r="ET245" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="246" spans="150:150">
       <c r="ET246" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="247" spans="150:150">
       <c r="ET247" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="248" spans="150:150">
       <c r="ET248" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="249" spans="150:150">
       <c r="ET249" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="250" spans="150:150">
       <c r="ET250" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="251" spans="150:150">
       <c r="ET251" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="252" spans="150:150">
       <c r="ET252" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="253" spans="150:150">
       <c r="ET253" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="254" spans="150:150">
       <c r="ET254" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="255" spans="150:150">
       <c r="ET255" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="256" spans="150:150">
       <c r="ET256" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="257" spans="150:150">
       <c r="ET257" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="258" spans="150:150">
       <c r="ET258" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="259" spans="150:150">
       <c r="ET259" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="260" spans="150:150">
       <c r="ET260" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="261" spans="150:150">
       <c r="ET261" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="262" spans="150:150">
       <c r="ET262" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="263" spans="150:150">
       <c r="ET263" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="264" spans="150:150">
       <c r="ET264" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="265" spans="150:150">
       <c r="ET265" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="266" spans="150:150">
       <c r="ET266" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="267" spans="150:150">
       <c r="ET267" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="268" spans="150:150">
       <c r="ET268" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="269" spans="150:150">
       <c r="ET269" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="270" spans="150:150">
       <c r="ET270" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="271" spans="150:150">
       <c r="ET271" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="272" spans="150:150">
       <c r="ET272" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="273" spans="150:150">
       <c r="ET273" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="274" spans="150:150">
       <c r="ET274" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="275" spans="150:150">
       <c r="ET275" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="276" spans="150:150">
       <c r="ET276" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="277" spans="150:150">
       <c r="ET277" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="278" spans="150:150">
       <c r="ET278" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="279" spans="150:150">
       <c r="ET279" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="280" spans="150:150">
       <c r="ET280" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="281" spans="150:150">
       <c r="ET281" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="282" spans="150:150">
       <c r="ET282" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="283" spans="150:150">
       <c r="ET283" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="284" spans="150:150">
       <c r="ET284" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="285" spans="150:150">
       <c r="ET285" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="286" spans="150:150">
       <c r="ET286" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="287" spans="150:150">
       <c r="ET287" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="288" spans="150:150">
       <c r="ET288" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="289" spans="150:150">
       <c r="ET289" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -26,7 +26,7 @@
     <definedName name="heatingandcoolingsystemtype">'cv_sample'!$AR$1:$AR$5</definedName>
     <definedName name="indoorspace">'cv_sample'!$AP$1:$AP$8</definedName>
     <definedName name="indoorsurface">'cv_sample'!$AO$1:$AO$8</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1121">
   <si>
     <t>alias</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -3946,7 +3949,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3990,7 +3993,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4017,7 +4020,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4734,6 +4737,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4758,27 +4766,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4801,122 +4809,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4943,1308 +4951,1308 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="FX1" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="FY1" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="FZ1" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="GA1" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="GS1" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="GU1" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="GV1" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="GX1" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="GZ1" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="HA1" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="HD1" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="HE1" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="HF1" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="HH1" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="HI1" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="HJ1" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="2" spans="1:218" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="EX2" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="EY2" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="EZ2" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="FA2" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="FB2" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="FC2" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="FD2" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="FE2" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="FF2" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="FG2" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="FH2" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="FI2" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="FK2" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="FL2" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="FM2" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="FN2" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="FO2" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="FP2" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="FQ2" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="FR2" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="FS2" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="FT2" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="FU2" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="FV2" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="FW2" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="FX2" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="FY2" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="FZ2" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="GA2" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="GB2" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="GC2" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="GD2" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="GE2" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="GF2" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="GG2" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="GH2" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="GI2" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="GJ2" s="2" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="GK2" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="GL2" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="GM2" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="GN2" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="GO2" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="GP2" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="GQ2" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="GR2" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="GS2" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="GT2" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="GU2" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="GV2" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="GW2" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="GX2" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="GY2" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="GZ2" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="HA2" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="HB2" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="HC2" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="HD2" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="HE2" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="HF2" s="2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="HG2" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="HH2" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="HI2" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="HJ2" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
   </sheetData>
@@ -6318,1858 +6326,1858 @@
   <sheetData>
     <row r="1" spans="6:165">
       <c r="F1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AP1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AQ1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AR1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AS1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AT1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AU1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AV1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AW1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="BA1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="ET1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="FI1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2" spans="6:165">
       <c r="F2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AP2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AQ2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AR2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AS2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AT2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AU2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AV2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AW2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="BA2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="ET2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="FI2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="3" spans="6:165">
       <c r="F3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AP3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AQ3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AR3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AS3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AT3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AU3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AV3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="BA3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="ET3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="FI3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="4" spans="6:165">
       <c r="F4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AQ4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AR4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AU4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AV4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="ET4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="FI4" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="5" spans="6:165">
       <c r="F5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AP5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AQ5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AR5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AV5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="ET5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="FI5" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="6" spans="6:165">
       <c r="F6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AP6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AQ6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AV6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="ET6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="6:165">
       <c r="F7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AP7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AQ7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AV7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="ET7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="6:165">
       <c r="F8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AP8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AV8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="ET8" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="6:165">
       <c r="F9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AV9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="ET9" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="10" spans="6:165">
       <c r="F10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AV10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="ET10" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" spans="6:165">
       <c r="F11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AV11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="ET11" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12" spans="6:165">
       <c r="F12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM12" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AV12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="ET12" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="6:165">
       <c r="F13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AV13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="ET13" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="6:165">
       <c r="F14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AV14" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="ET14" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="6:165">
       <c r="F15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AV15" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="ET15" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="6:165">
       <c r="F16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AV16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="ET16" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="6:150">
       <c r="F17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AV17" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="ET17" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="18" spans="6:150">
       <c r="F18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AV18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="ET18" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="6:150">
       <c r="F19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AV19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="ET19" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="20" spans="6:150">
       <c r="F20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AV20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="ET20" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="21" spans="6:150">
       <c r="F21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AV21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="ET21" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="22" spans="6:150">
       <c r="F22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="ET22" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="23" spans="6:150">
       <c r="F23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="ET23" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" spans="6:150">
       <c r="F24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="ET24" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="25" spans="6:150">
       <c r="F25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="ET25" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="26" spans="6:150">
       <c r="F26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="ET26" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="27" spans="6:150">
       <c r="F27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="ET27" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="28" spans="6:150">
       <c r="F28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="ET28" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="29" spans="6:150">
       <c r="F29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="ET29" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="30" spans="6:150">
       <c r="F30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="ET30" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="31" spans="6:150">
       <c r="ET31" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="32" spans="6:150">
       <c r="ET32" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="33" spans="150:150">
       <c r="ET33" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="34" spans="150:150">
       <c r="ET34" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="35" spans="150:150">
       <c r="ET35" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="36" spans="150:150">
       <c r="ET36" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="37" spans="150:150">
       <c r="ET37" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="38" spans="150:150">
       <c r="ET38" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" spans="150:150">
       <c r="ET39" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="40" spans="150:150">
       <c r="ET40" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="41" spans="150:150">
       <c r="ET41" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="42" spans="150:150">
       <c r="ET42" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="43" spans="150:150">
       <c r="ET43" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="44" spans="150:150">
       <c r="ET44" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="45" spans="150:150">
       <c r="ET45" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="46" spans="150:150">
       <c r="ET46" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="47" spans="150:150">
       <c r="ET47" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="48" spans="150:150">
       <c r="ET48" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="49" spans="150:150">
       <c r="ET49" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="50" spans="150:150">
       <c r="ET50" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="51" spans="150:150">
       <c r="ET51" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="52" spans="150:150">
       <c r="ET52" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="53" spans="150:150">
       <c r="ET53" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="54" spans="150:150">
       <c r="ET54" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="55" spans="150:150">
       <c r="ET55" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="56" spans="150:150">
       <c r="ET56" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="57" spans="150:150">
       <c r="ET57" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="58" spans="150:150">
       <c r="ET58" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="59" spans="150:150">
       <c r="ET59" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="60" spans="150:150">
       <c r="ET60" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="61" spans="150:150">
       <c r="ET61" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="62" spans="150:150">
       <c r="ET62" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="63" spans="150:150">
       <c r="ET63" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="64" spans="150:150">
       <c r="ET64" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="65" spans="150:150">
       <c r="ET65" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="66" spans="150:150">
       <c r="ET66" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="67" spans="150:150">
       <c r="ET67" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="68" spans="150:150">
       <c r="ET68" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="69" spans="150:150">
       <c r="ET69" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="70" spans="150:150">
       <c r="ET70" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="71" spans="150:150">
       <c r="ET71" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="72" spans="150:150">
       <c r="ET72" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="73" spans="150:150">
       <c r="ET73" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="74" spans="150:150">
       <c r="ET74" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="75" spans="150:150">
       <c r="ET75" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="76" spans="150:150">
       <c r="ET76" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="77" spans="150:150">
       <c r="ET77" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="78" spans="150:150">
       <c r="ET78" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="79" spans="150:150">
       <c r="ET79" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="80" spans="150:150">
       <c r="ET80" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="81" spans="150:150">
       <c r="ET81" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="82" spans="150:150">
       <c r="ET82" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="83" spans="150:150">
       <c r="ET83" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="84" spans="150:150">
       <c r="ET84" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="85" spans="150:150">
       <c r="ET85" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="86" spans="150:150">
       <c r="ET86" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="87" spans="150:150">
       <c r="ET87" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="88" spans="150:150">
       <c r="ET88" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="89" spans="150:150">
       <c r="ET89" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="90" spans="150:150">
       <c r="ET90" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="91" spans="150:150">
       <c r="ET91" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="92" spans="150:150">
       <c r="ET92" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="93" spans="150:150">
       <c r="ET93" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="94" spans="150:150">
       <c r="ET94" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="95" spans="150:150">
       <c r="ET95" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="96" spans="150:150">
       <c r="ET96" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="97" spans="150:150">
       <c r="ET97" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="98" spans="150:150">
       <c r="ET98" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="99" spans="150:150">
       <c r="ET99" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="100" spans="150:150">
       <c r="ET100" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="101" spans="150:150">
       <c r="ET101" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="102" spans="150:150">
       <c r="ET102" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="103" spans="150:150">
       <c r="ET103" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="104" spans="150:150">
       <c r="ET104" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="105" spans="150:150">
       <c r="ET105" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="106" spans="150:150">
       <c r="ET106" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="107" spans="150:150">
       <c r="ET107" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="108" spans="150:150">
       <c r="ET108" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="109" spans="150:150">
       <c r="ET109" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="110" spans="150:150">
       <c r="ET110" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="111" spans="150:150">
       <c r="ET111" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="112" spans="150:150">
       <c r="ET112" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="113" spans="150:150">
       <c r="ET113" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="114" spans="150:150">
       <c r="ET114" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="115" spans="150:150">
       <c r="ET115" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="116" spans="150:150">
       <c r="ET116" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="117" spans="150:150">
       <c r="ET117" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="118" spans="150:150">
       <c r="ET118" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="119" spans="150:150">
       <c r="ET119" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="120" spans="150:150">
       <c r="ET120" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="121" spans="150:150">
       <c r="ET121" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="122" spans="150:150">
       <c r="ET122" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="123" spans="150:150">
       <c r="ET123" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="124" spans="150:150">
       <c r="ET124" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="125" spans="150:150">
       <c r="ET125" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="126" spans="150:150">
       <c r="ET126" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="127" spans="150:150">
       <c r="ET127" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="128" spans="150:150">
       <c r="ET128" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="129" spans="150:150">
       <c r="ET129" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="130" spans="150:150">
       <c r="ET130" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="131" spans="150:150">
       <c r="ET131" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="132" spans="150:150">
       <c r="ET132" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="133" spans="150:150">
       <c r="ET133" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="134" spans="150:150">
       <c r="ET134" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="135" spans="150:150">
       <c r="ET135" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="136" spans="150:150">
       <c r="ET136" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="137" spans="150:150">
       <c r="ET137" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="138" spans="150:150">
       <c r="ET138" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="139" spans="150:150">
       <c r="ET139" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="140" spans="150:150">
       <c r="ET140" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="141" spans="150:150">
       <c r="ET141" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="142" spans="150:150">
       <c r="ET142" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="143" spans="150:150">
       <c r="ET143" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="144" spans="150:150">
       <c r="ET144" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="145" spans="150:150">
       <c r="ET145" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="146" spans="150:150">
       <c r="ET146" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="147" spans="150:150">
       <c r="ET147" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="148" spans="150:150">
       <c r="ET148" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="149" spans="150:150">
       <c r="ET149" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="150" spans="150:150">
       <c r="ET150" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="151" spans="150:150">
       <c r="ET151" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="152" spans="150:150">
       <c r="ET152" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="153" spans="150:150">
       <c r="ET153" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="154" spans="150:150">
       <c r="ET154" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="155" spans="150:150">
       <c r="ET155" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="156" spans="150:150">
       <c r="ET156" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="157" spans="150:150">
       <c r="ET157" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="158" spans="150:150">
       <c r="ET158" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="159" spans="150:150">
       <c r="ET159" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="160" spans="150:150">
       <c r="ET160" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="161" spans="150:150">
       <c r="ET161" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="162" spans="150:150">
       <c r="ET162" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="163" spans="150:150">
       <c r="ET163" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="164" spans="150:150">
       <c r="ET164" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="165" spans="150:150">
       <c r="ET165" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="166" spans="150:150">
       <c r="ET166" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="167" spans="150:150">
       <c r="ET167" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="168" spans="150:150">
       <c r="ET168" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="169" spans="150:150">
       <c r="ET169" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="170" spans="150:150">
       <c r="ET170" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="171" spans="150:150">
       <c r="ET171" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="172" spans="150:150">
       <c r="ET172" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="173" spans="150:150">
       <c r="ET173" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="174" spans="150:150">
       <c r="ET174" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="175" spans="150:150">
       <c r="ET175" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="176" spans="150:150">
       <c r="ET176" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="177" spans="150:150">
       <c r="ET177" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="178" spans="150:150">
       <c r="ET178" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="179" spans="150:150">
       <c r="ET179" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="180" spans="150:150">
       <c r="ET180" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="181" spans="150:150">
       <c r="ET181" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="182" spans="150:150">
       <c r="ET182" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="183" spans="150:150">
       <c r="ET183" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="184" spans="150:150">
       <c r="ET184" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="185" spans="150:150">
       <c r="ET185" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="186" spans="150:150">
       <c r="ET186" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="187" spans="150:150">
       <c r="ET187" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="188" spans="150:150">
       <c r="ET188" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="189" spans="150:150">
       <c r="ET189" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="190" spans="150:150">
       <c r="ET190" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="191" spans="150:150">
       <c r="ET191" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="192" spans="150:150">
       <c r="ET192" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="193" spans="150:150">
       <c r="ET193" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="194" spans="150:150">
       <c r="ET194" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="195" spans="150:150">
       <c r="ET195" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="196" spans="150:150">
       <c r="ET196" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="197" spans="150:150">
       <c r="ET197" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="198" spans="150:150">
       <c r="ET198" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="199" spans="150:150">
       <c r="ET199" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="200" spans="150:150">
       <c r="ET200" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="201" spans="150:150">
       <c r="ET201" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="202" spans="150:150">
       <c r="ET202" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="203" spans="150:150">
       <c r="ET203" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="204" spans="150:150">
       <c r="ET204" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="205" spans="150:150">
       <c r="ET205" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="206" spans="150:150">
       <c r="ET206" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="207" spans="150:150">
       <c r="ET207" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="208" spans="150:150">
       <c r="ET208" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="209" spans="150:150">
       <c r="ET209" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="210" spans="150:150">
       <c r="ET210" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="211" spans="150:150">
       <c r="ET211" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="212" spans="150:150">
       <c r="ET212" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="213" spans="150:150">
       <c r="ET213" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="214" spans="150:150">
       <c r="ET214" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="215" spans="150:150">
       <c r="ET215" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="216" spans="150:150">
       <c r="ET216" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="217" spans="150:150">
       <c r="ET217" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="218" spans="150:150">
       <c r="ET218" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="219" spans="150:150">
       <c r="ET219" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="220" spans="150:150">
       <c r="ET220" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="221" spans="150:150">
       <c r="ET221" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="222" spans="150:150">
       <c r="ET222" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="223" spans="150:150">
       <c r="ET223" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="224" spans="150:150">
       <c r="ET224" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="225" spans="150:150">
       <c r="ET225" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="226" spans="150:150">
       <c r="ET226" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="227" spans="150:150">
       <c r="ET227" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="228" spans="150:150">
       <c r="ET228" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="229" spans="150:150">
       <c r="ET229" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="230" spans="150:150">
       <c r="ET230" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="231" spans="150:150">
       <c r="ET231" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="232" spans="150:150">
       <c r="ET232" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="233" spans="150:150">
       <c r="ET233" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="234" spans="150:150">
       <c r="ET234" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="235" spans="150:150">
       <c r="ET235" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="236" spans="150:150">
       <c r="ET236" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="237" spans="150:150">
       <c r="ET237" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="238" spans="150:150">
       <c r="ET238" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="239" spans="150:150">
       <c r="ET239" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="240" spans="150:150">
       <c r="ET240" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="241" spans="150:150">
       <c r="ET241" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="242" spans="150:150">
       <c r="ET242" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="243" spans="150:150">
       <c r="ET243" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="244" spans="150:150">
       <c r="ET244" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="245" spans="150:150">
       <c r="ET245" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="246" spans="150:150">
       <c r="ET246" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="247" spans="150:150">
       <c r="ET247" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="248" spans="150:150">
       <c r="ET248" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="249" spans="150:150">
       <c r="ET249" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="250" spans="150:150">
       <c r="ET250" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="251" spans="150:150">
       <c r="ET251" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="252" spans="150:150">
       <c r="ET252" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="253" spans="150:150">
       <c r="ET253" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="254" spans="150:150">
       <c r="ET254" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="255" spans="150:150">
       <c r="ET255" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="256" spans="150:150">
       <c r="ET256" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="257" spans="150:150">
       <c r="ET257" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="258" spans="150:150">
       <c r="ET258" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="259" spans="150:150">
       <c r="ET259" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="260" spans="150:150">
       <c r="ET260" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="261" spans="150:150">
       <c r="ET261" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="262" spans="150:150">
       <c r="ET262" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="263" spans="150:150">
       <c r="ET263" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="264" spans="150:150">
       <c r="ET264" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="265" spans="150:150">
       <c r="ET265" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="266" spans="150:150">
       <c r="ET266" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="267" spans="150:150">
       <c r="ET267" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="268" spans="150:150">
       <c r="ET268" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="269" spans="150:150">
       <c r="ET269" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="270" spans="150:150">
       <c r="ET270" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="271" spans="150:150">
       <c r="ET271" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="272" spans="150:150">
       <c r="ET272" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="273" spans="150:150">
       <c r="ET273" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="274" spans="150:150">
       <c r="ET274" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="275" spans="150:150">
       <c r="ET275" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="276" spans="150:150">
       <c r="ET276" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="277" spans="150:150">
       <c r="ET277" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="278" spans="150:150">
       <c r="ET278" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="279" spans="150:150">
       <c r="ET279" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="280" spans="150:150">
       <c r="ET280" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="281" spans="150:150">
       <c r="ET281" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="282" spans="150:150">
       <c r="ET282" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="283" spans="150:150">
       <c r="ET283" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="284" spans="150:150">
       <c r="ET284" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="285" spans="150:150">
       <c r="ET285" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="286" spans="150:150">
       <c r="ET286" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="287" spans="150:150">
       <c r="ET287" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="288" spans="150:150">
       <c r="ET288" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="289" spans="150:150">
       <c r="ET289" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -26,7 +26,7 @@
     <definedName name="heatingandcoolingsystemtype">'cv_sample'!$AR$1:$AR$5</definedName>
     <definedName name="indoorspace">'cv_sample'!$AP$1:$AP$8</definedName>
     <definedName name="indoorsurface">'cv_sample'!$AO$1:$AO$8</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1122">
   <si>
     <t>alias</t>
   </si>
@@ -735,6 +735,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -3949,7 +3952,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3993,7 +3996,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4020,7 +4023,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4742,6 +4745,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4766,27 +4774,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4809,122 +4817,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4951,1308 +4959,1308 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="FX1" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="FY1" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="FZ1" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="GA1" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="GS1" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="GU1" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="GV1" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="GX1" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="GZ1" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="HA1" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="HD1" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="HE1" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="HF1" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="HH1" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="HI1" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="HJ1" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="2" spans="1:218" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="EX2" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="EY2" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="EZ2" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="FA2" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="FB2" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="FC2" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="FD2" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="FE2" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="FF2" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="FG2" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="FH2" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="FI2" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="FK2" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="FL2" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="FM2" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="FN2" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="FO2" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="FP2" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="FQ2" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="FR2" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="FS2" s="2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="FT2" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="FU2" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="FV2" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="FW2" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="FX2" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="FY2" s="2" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="FZ2" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="GA2" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="GB2" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="GC2" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="GD2" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="GE2" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="GF2" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="GG2" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="GH2" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="GI2" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="GJ2" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="GK2" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="GL2" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="GM2" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="GN2" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="GO2" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="GP2" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="GQ2" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="GR2" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="GS2" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="GT2" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="GU2" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="GV2" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="GW2" s="2" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="GX2" s="2" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="GY2" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="GZ2" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="HA2" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="HB2" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="HC2" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="HD2" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="HE2" s="2" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="HF2" s="2" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="HG2" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="HH2" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="HI2" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="HJ2" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
   </sheetData>
@@ -6326,1858 +6334,1858 @@
   <sheetData>
     <row r="1" spans="6:165">
       <c r="F1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AP1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AQ1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AR1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AS1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AT1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AU1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AV1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AW1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="BA1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="ET1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="FI1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="2" spans="6:165">
       <c r="F2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AP2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AQ2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AR2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AS2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AT2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AU2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AV2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AW2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="BA2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="ET2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="FI2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="6:165">
       <c r="F3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="V3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AQ3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AR3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AS3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AT3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AU3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AV3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="BA3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="ET3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="FI3" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="4" spans="6:165">
       <c r="F4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AP4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AQ4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AR4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AU4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AV4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="ET4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="FI4" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="5" spans="6:165">
       <c r="F5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AP5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AQ5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AR5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AV5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="ET5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="FI5" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="6" spans="6:165">
       <c r="F6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AP6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AQ6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AV6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="ET6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="6:165">
       <c r="F7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AP7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AQ7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AV7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="ET7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="6:165">
       <c r="F8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AP8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AV8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="ET8" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="9" spans="6:165">
       <c r="F9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AV9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="ET9" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="6:165">
       <c r="F10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AV10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="ET10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="11" spans="6:165">
       <c r="F11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AV11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="ET11" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="6:165">
       <c r="F12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AV12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="ET12" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="6:165">
       <c r="F13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AV13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="ET13" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="14" spans="6:165">
       <c r="F14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AV14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="ET14" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="15" spans="6:165">
       <c r="F15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AV15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="ET15" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="6:165">
       <c r="F16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AV16" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="ET16" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="17" spans="6:150">
       <c r="F17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AV17" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="ET17" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="18" spans="6:150">
       <c r="F18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AV18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="ET18" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="19" spans="6:150">
       <c r="F19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AV19" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="ET19" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" spans="6:150">
       <c r="F20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AV20" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="ET20" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" spans="6:150">
       <c r="F21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AV21" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="ET21" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="6:150">
       <c r="F22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="ET22" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="23" spans="6:150">
       <c r="F23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="ET23" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="24" spans="6:150">
       <c r="F24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="ET24" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="25" spans="6:150">
       <c r="F25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="ET25" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="26" spans="6:150">
       <c r="F26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="ET26" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="27" spans="6:150">
       <c r="F27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="ET27" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="28" spans="6:150">
       <c r="F28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="ET28" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="29" spans="6:150">
       <c r="F29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="ET29" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="30" spans="6:150">
       <c r="F30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="ET30" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="31" spans="6:150">
       <c r="ET31" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="32" spans="6:150">
       <c r="ET32" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="33" spans="150:150">
       <c r="ET33" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="34" spans="150:150">
       <c r="ET34" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="35" spans="150:150">
       <c r="ET35" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="36" spans="150:150">
       <c r="ET36" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="37" spans="150:150">
       <c r="ET37" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="38" spans="150:150">
       <c r="ET38" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" spans="150:150">
       <c r="ET39" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="40" spans="150:150">
       <c r="ET40" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="41" spans="150:150">
       <c r="ET41" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="42" spans="150:150">
       <c r="ET42" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="43" spans="150:150">
       <c r="ET43" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="44" spans="150:150">
       <c r="ET44" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="45" spans="150:150">
       <c r="ET45" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="46" spans="150:150">
       <c r="ET46" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="47" spans="150:150">
       <c r="ET47" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="48" spans="150:150">
       <c r="ET48" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="49" spans="150:150">
       <c r="ET49" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="50" spans="150:150">
       <c r="ET50" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="51" spans="150:150">
       <c r="ET51" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="52" spans="150:150">
       <c r="ET52" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="53" spans="150:150">
       <c r="ET53" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="54" spans="150:150">
       <c r="ET54" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="55" spans="150:150">
       <c r="ET55" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="56" spans="150:150">
       <c r="ET56" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="57" spans="150:150">
       <c r="ET57" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="58" spans="150:150">
       <c r="ET58" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="59" spans="150:150">
       <c r="ET59" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="60" spans="150:150">
       <c r="ET60" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="61" spans="150:150">
       <c r="ET61" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="62" spans="150:150">
       <c r="ET62" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="63" spans="150:150">
       <c r="ET63" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="64" spans="150:150">
       <c r="ET64" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="65" spans="150:150">
       <c r="ET65" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="66" spans="150:150">
       <c r="ET66" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="67" spans="150:150">
       <c r="ET67" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="68" spans="150:150">
       <c r="ET68" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="69" spans="150:150">
       <c r="ET69" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="70" spans="150:150">
       <c r="ET70" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="71" spans="150:150">
       <c r="ET71" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="72" spans="150:150">
       <c r="ET72" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="73" spans="150:150">
       <c r="ET73" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="74" spans="150:150">
       <c r="ET74" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="75" spans="150:150">
       <c r="ET75" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="76" spans="150:150">
       <c r="ET76" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="77" spans="150:150">
       <c r="ET77" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="78" spans="150:150">
       <c r="ET78" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="79" spans="150:150">
       <c r="ET79" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="80" spans="150:150">
       <c r="ET80" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="81" spans="150:150">
       <c r="ET81" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="82" spans="150:150">
       <c r="ET82" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="83" spans="150:150">
       <c r="ET83" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="84" spans="150:150">
       <c r="ET84" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="85" spans="150:150">
       <c r="ET85" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="86" spans="150:150">
       <c r="ET86" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="87" spans="150:150">
       <c r="ET87" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="88" spans="150:150">
       <c r="ET88" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="89" spans="150:150">
       <c r="ET89" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="90" spans="150:150">
       <c r="ET90" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="91" spans="150:150">
       <c r="ET91" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="92" spans="150:150">
       <c r="ET92" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="93" spans="150:150">
       <c r="ET93" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="94" spans="150:150">
       <c r="ET94" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="95" spans="150:150">
       <c r="ET95" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="96" spans="150:150">
       <c r="ET96" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="97" spans="150:150">
       <c r="ET97" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="98" spans="150:150">
       <c r="ET98" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="99" spans="150:150">
       <c r="ET99" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="100" spans="150:150">
       <c r="ET100" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="101" spans="150:150">
       <c r="ET101" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="102" spans="150:150">
       <c r="ET102" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="103" spans="150:150">
       <c r="ET103" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="104" spans="150:150">
       <c r="ET104" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="105" spans="150:150">
       <c r="ET105" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="106" spans="150:150">
       <c r="ET106" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="107" spans="150:150">
       <c r="ET107" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="108" spans="150:150">
       <c r="ET108" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="109" spans="150:150">
       <c r="ET109" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="110" spans="150:150">
       <c r="ET110" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="111" spans="150:150">
       <c r="ET111" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="112" spans="150:150">
       <c r="ET112" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="113" spans="150:150">
       <c r="ET113" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="114" spans="150:150">
       <c r="ET114" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="115" spans="150:150">
       <c r="ET115" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="116" spans="150:150">
       <c r="ET116" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="117" spans="150:150">
       <c r="ET117" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="118" spans="150:150">
       <c r="ET118" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="119" spans="150:150">
       <c r="ET119" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="120" spans="150:150">
       <c r="ET120" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="121" spans="150:150">
       <c r="ET121" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="122" spans="150:150">
       <c r="ET122" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="123" spans="150:150">
       <c r="ET123" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="124" spans="150:150">
       <c r="ET124" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="125" spans="150:150">
       <c r="ET125" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="126" spans="150:150">
       <c r="ET126" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="127" spans="150:150">
       <c r="ET127" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="128" spans="150:150">
       <c r="ET128" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="129" spans="150:150">
       <c r="ET129" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="130" spans="150:150">
       <c r="ET130" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="131" spans="150:150">
       <c r="ET131" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="132" spans="150:150">
       <c r="ET132" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="133" spans="150:150">
       <c r="ET133" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="134" spans="150:150">
       <c r="ET134" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="135" spans="150:150">
       <c r="ET135" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="136" spans="150:150">
       <c r="ET136" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="137" spans="150:150">
       <c r="ET137" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="138" spans="150:150">
       <c r="ET138" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="139" spans="150:150">
       <c r="ET139" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="140" spans="150:150">
       <c r="ET140" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="141" spans="150:150">
       <c r="ET141" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="142" spans="150:150">
       <c r="ET142" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="143" spans="150:150">
       <c r="ET143" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="144" spans="150:150">
       <c r="ET144" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="145" spans="150:150">
       <c r="ET145" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="146" spans="150:150">
       <c r="ET146" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="147" spans="150:150">
       <c r="ET147" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="148" spans="150:150">
       <c r="ET148" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="149" spans="150:150">
       <c r="ET149" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="150" spans="150:150">
       <c r="ET150" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="151" spans="150:150">
       <c r="ET151" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="152" spans="150:150">
       <c r="ET152" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="153" spans="150:150">
       <c r="ET153" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="154" spans="150:150">
       <c r="ET154" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="155" spans="150:150">
       <c r="ET155" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="156" spans="150:150">
       <c r="ET156" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="157" spans="150:150">
       <c r="ET157" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="158" spans="150:150">
       <c r="ET158" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="159" spans="150:150">
       <c r="ET159" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="160" spans="150:150">
       <c r="ET160" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="161" spans="150:150">
       <c r="ET161" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="162" spans="150:150">
       <c r="ET162" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="163" spans="150:150">
       <c r="ET163" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="164" spans="150:150">
       <c r="ET164" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="165" spans="150:150">
       <c r="ET165" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="166" spans="150:150">
       <c r="ET166" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="167" spans="150:150">
       <c r="ET167" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="168" spans="150:150">
       <c r="ET168" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="169" spans="150:150">
       <c r="ET169" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="170" spans="150:150">
       <c r="ET170" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="171" spans="150:150">
       <c r="ET171" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="172" spans="150:150">
       <c r="ET172" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="173" spans="150:150">
       <c r="ET173" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="174" spans="150:150">
       <c r="ET174" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="175" spans="150:150">
       <c r="ET175" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="176" spans="150:150">
       <c r="ET176" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="177" spans="150:150">
       <c r="ET177" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="178" spans="150:150">
       <c r="ET178" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="179" spans="150:150">
       <c r="ET179" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="180" spans="150:150">
       <c r="ET180" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="181" spans="150:150">
       <c r="ET181" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="182" spans="150:150">
       <c r="ET182" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="183" spans="150:150">
       <c r="ET183" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="184" spans="150:150">
       <c r="ET184" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="185" spans="150:150">
       <c r="ET185" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="186" spans="150:150">
       <c r="ET186" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="187" spans="150:150">
       <c r="ET187" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="188" spans="150:150">
       <c r="ET188" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="189" spans="150:150">
       <c r="ET189" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="190" spans="150:150">
       <c r="ET190" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="191" spans="150:150">
       <c r="ET191" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="192" spans="150:150">
       <c r="ET192" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="193" spans="150:150">
       <c r="ET193" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="194" spans="150:150">
       <c r="ET194" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="195" spans="150:150">
       <c r="ET195" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="196" spans="150:150">
       <c r="ET196" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="197" spans="150:150">
       <c r="ET197" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="198" spans="150:150">
       <c r="ET198" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="199" spans="150:150">
       <c r="ET199" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="200" spans="150:150">
       <c r="ET200" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="201" spans="150:150">
       <c r="ET201" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="202" spans="150:150">
       <c r="ET202" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="203" spans="150:150">
       <c r="ET203" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="204" spans="150:150">
       <c r="ET204" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="205" spans="150:150">
       <c r="ET205" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="206" spans="150:150">
       <c r="ET206" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="207" spans="150:150">
       <c r="ET207" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="208" spans="150:150">
       <c r="ET208" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="209" spans="150:150">
       <c r="ET209" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="210" spans="150:150">
       <c r="ET210" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="211" spans="150:150">
       <c r="ET211" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="212" spans="150:150">
       <c r="ET212" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="213" spans="150:150">
       <c r="ET213" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="214" spans="150:150">
       <c r="ET214" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="215" spans="150:150">
       <c r="ET215" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="216" spans="150:150">
       <c r="ET216" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="217" spans="150:150">
       <c r="ET217" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="218" spans="150:150">
       <c r="ET218" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="219" spans="150:150">
       <c r="ET219" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="220" spans="150:150">
       <c r="ET220" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="221" spans="150:150">
       <c r="ET221" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="222" spans="150:150">
       <c r="ET222" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="223" spans="150:150">
       <c r="ET223" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="224" spans="150:150">
       <c r="ET224" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="225" spans="150:150">
       <c r="ET225" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="226" spans="150:150">
       <c r="ET226" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="227" spans="150:150">
       <c r="ET227" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="228" spans="150:150">
       <c r="ET228" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="229" spans="150:150">
       <c r="ET229" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="230" spans="150:150">
       <c r="ET230" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="231" spans="150:150">
       <c r="ET231" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="232" spans="150:150">
       <c r="ET232" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="233" spans="150:150">
       <c r="ET233" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="234" spans="150:150">
       <c r="ET234" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="235" spans="150:150">
       <c r="ET235" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="236" spans="150:150">
       <c r="ET236" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="237" spans="150:150">
       <c r="ET237" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="238" spans="150:150">
       <c r="ET238" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="239" spans="150:150">
       <c r="ET239" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="240" spans="150:150">
       <c r="ET240" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="241" spans="150:150">
       <c r="ET241" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="242" spans="150:150">
       <c r="ET242" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="243" spans="150:150">
       <c r="ET243" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="244" spans="150:150">
       <c r="ET244" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="245" spans="150:150">
       <c r="ET245" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="246" spans="150:150">
       <c r="ET246" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="247" spans="150:150">
       <c r="ET247" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="248" spans="150:150">
       <c r="ET248" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="249" spans="150:150">
       <c r="ET249" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="250" spans="150:150">
       <c r="ET250" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="251" spans="150:150">
       <c r="ET251" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="252" spans="150:150">
       <c r="ET252" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="253" spans="150:150">
       <c r="ET253" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="254" spans="150:150">
       <c r="ET254" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="255" spans="150:150">
       <c r="ET255" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="256" spans="150:150">
       <c r="ET256" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="257" spans="150:150">
       <c r="ET257" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="258" spans="150:150">
       <c r="ET258" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="259" spans="150:150">
       <c r="ET259" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="260" spans="150:150">
       <c r="ET260" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="261" spans="150:150">
       <c r="ET261" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="262" spans="150:150">
       <c r="ET262" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="263" spans="150:150">
       <c r="ET263" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="264" spans="150:150">
       <c r="ET264" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="265" spans="150:150">
       <c r="ET265" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="266" spans="150:150">
       <c r="ET266" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="267" spans="150:150">
       <c r="ET267" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="268" spans="150:150">
       <c r="ET268" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="269" spans="150:150">
       <c r="ET269" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="270" spans="150:150">
       <c r="ET270" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="271" spans="150:150">
       <c r="ET271" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="272" spans="150:150">
       <c r="ET272" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="273" spans="150:150">
       <c r="ET273" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="274" spans="150:150">
       <c r="ET274" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="275" spans="150:150">
       <c r="ET275" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="276" spans="150:150">
       <c r="ET276" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="277" spans="150:150">
       <c r="ET277" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="278" spans="150:150">
       <c r="ET278" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="279" spans="150:150">
       <c r="ET279" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="280" spans="150:150">
       <c r="ET280" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="281" spans="150:150">
       <c r="ET281" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="282" spans="150:150">
       <c r="ET282" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="283" spans="150:150">
       <c r="ET283" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="284" spans="150:150">
       <c r="ET284" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="285" spans="150:150">
       <c r="ET285" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="286" spans="150:150">
       <c r="ET286" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="287" spans="150:150">
       <c r="ET287" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="288" spans="150:150">
       <c r="ET288" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="289" spans="150:150">
       <c r="ET289" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -26,7 +26,7 @@
     <definedName name="heatingandcoolingsystemtype">'cv_sample'!$AR$1:$AR$5</definedName>
     <definedName name="indoorspace">'cv_sample'!$AP$1:$AP$8</definedName>
     <definedName name="indoorsurface">'cv_sample'!$AO$1:$AO$8</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1123">
   <si>
     <t>alias</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -3952,7 +3955,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3996,7 +3999,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -4023,7 +4026,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4750,6 +4753,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4774,27 +4782,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4817,122 +4825,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4959,1308 +4967,1308 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="FX1" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="FY1" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="FZ1" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="GA1" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="GS1" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="GU1" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="GV1" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="GX1" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="GZ1" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="HA1" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="HD1" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="HE1" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="HF1" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="HH1" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="HI1" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="HJ1" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="2" spans="1:218" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="DP2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="DQ2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="DS2" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="DT2" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="DV2" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="DX2" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="DY2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="DZ2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="EA2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="ED2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="EE2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="EG2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="EH2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="EJ2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="EK2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="EL2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="EM2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="EO2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="EP2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="EQ2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="ER2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="EX2" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="EY2" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="EZ2" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="FA2" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="FB2" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="FC2" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="FD2" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="FE2" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="FF2" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="FG2" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="FH2" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="FI2" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="FK2" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="FL2" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="FM2" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="FN2" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="FO2" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="FP2" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="FQ2" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="FR2" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="FS2" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="FT2" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="FU2" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="FV2" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="FW2" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="FX2" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="FY2" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="FZ2" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="GA2" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="GB2" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="GC2" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="GD2" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="GE2" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="GF2" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="GG2" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="GH2" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="GI2" s="2" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="GJ2" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="GK2" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="GL2" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="GM2" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="GN2" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="GO2" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="GP2" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="GQ2" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="GR2" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="GS2" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="GT2" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="GU2" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="GV2" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="GW2" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="GX2" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="GY2" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="GZ2" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="HA2" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="HB2" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="HC2" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="HD2" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="HE2" s="2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="HF2" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="HG2" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="HH2" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="HI2" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="HJ2" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -6334,1858 +6342,1858 @@
   <sheetData>
     <row r="1" spans="6:165">
       <c r="F1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AP1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AQ1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AR1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AS1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AT1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AU1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AV1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AW1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="BA1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="ET1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="FI1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="2" spans="6:165">
       <c r="F2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="V2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AQ2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AR2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AS2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AT2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AU2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AV2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AW2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="BA2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="ET2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="FI2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="3" spans="6:165">
       <c r="F3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="V3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AP3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AQ3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AR3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AS3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AT3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AU3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AV3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="BA3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="ET3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="FI3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="4" spans="6:165">
       <c r="F4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AP4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AQ4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AR4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AU4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AV4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="ET4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="FI4" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="5" spans="6:165">
       <c r="F5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AP5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AQ5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AR5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AV5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="ET5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="FI5" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="6" spans="6:165">
       <c r="F6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AP6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AQ6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AV6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="ET6" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="6:165">
       <c r="F7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AP7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AQ7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AV7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="ET7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8" spans="6:165">
       <c r="F8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AP8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AV8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="ET8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9" spans="6:165">
       <c r="F9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AV9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="ET9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10" spans="6:165">
       <c r="F10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AV10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="ET10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="6:165">
       <c r="F11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AV11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="ET11" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12" spans="6:165">
       <c r="F12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AV12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="ET12" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="13" spans="6:165">
       <c r="F13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AV13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="ET13" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="14" spans="6:165">
       <c r="F14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AV14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="ET14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" spans="6:165">
       <c r="F15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AV15" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="ET15" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="6:165">
       <c r="F16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AV16" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="ET16" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="6:150">
       <c r="F17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AV17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="ET17" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18" spans="6:150">
       <c r="F18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AV18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="ET18" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="19" spans="6:150">
       <c r="F19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AV19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="ET19" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="6:150">
       <c r="F20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AV20" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="ET20" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="6:150">
       <c r="F21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AV21" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="ET21" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="22" spans="6:150">
       <c r="F22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="ET22" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="6:150">
       <c r="F23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="ET23" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="24" spans="6:150">
       <c r="F24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="ET24" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="25" spans="6:150">
       <c r="F25" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="ET25" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="26" spans="6:150">
       <c r="F26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="ET26" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="27" spans="6:150">
       <c r="F27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="ET27" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="28" spans="6:150">
       <c r="F28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="ET28" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="29" spans="6:150">
       <c r="F29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="ET29" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="30" spans="6:150">
       <c r="F30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="ET30" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="31" spans="6:150">
       <c r="ET31" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="32" spans="6:150">
       <c r="ET32" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="33" spans="150:150">
       <c r="ET33" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="34" spans="150:150">
       <c r="ET34" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="35" spans="150:150">
       <c r="ET35" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="36" spans="150:150">
       <c r="ET36" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="37" spans="150:150">
       <c r="ET37" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="38" spans="150:150">
       <c r="ET38" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="39" spans="150:150">
       <c r="ET39" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="40" spans="150:150">
       <c r="ET40" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="41" spans="150:150">
       <c r="ET41" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="42" spans="150:150">
       <c r="ET42" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="43" spans="150:150">
       <c r="ET43" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="44" spans="150:150">
       <c r="ET44" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="45" spans="150:150">
       <c r="ET45" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="46" spans="150:150">
       <c r="ET46" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="47" spans="150:150">
       <c r="ET47" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="48" spans="150:150">
       <c r="ET48" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="49" spans="150:150">
       <c r="ET49" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="50" spans="150:150">
       <c r="ET50" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="51" spans="150:150">
       <c r="ET51" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="52" spans="150:150">
       <c r="ET52" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="53" spans="150:150">
       <c r="ET53" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="54" spans="150:150">
       <c r="ET54" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="55" spans="150:150">
       <c r="ET55" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="56" spans="150:150">
       <c r="ET56" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="150:150">
       <c r="ET57" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="58" spans="150:150">
       <c r="ET58" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="59" spans="150:150">
       <c r="ET59" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="60" spans="150:150">
       <c r="ET60" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="61" spans="150:150">
       <c r="ET61" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="62" spans="150:150">
       <c r="ET62" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="63" spans="150:150">
       <c r="ET63" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="64" spans="150:150">
       <c r="ET64" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="65" spans="150:150">
       <c r="ET65" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="66" spans="150:150">
       <c r="ET66" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="67" spans="150:150">
       <c r="ET67" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="68" spans="150:150">
       <c r="ET68" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="69" spans="150:150">
       <c r="ET69" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="70" spans="150:150">
       <c r="ET70" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="71" spans="150:150">
       <c r="ET71" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="72" spans="150:150">
       <c r="ET72" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="73" spans="150:150">
       <c r="ET73" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="74" spans="150:150">
       <c r="ET74" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="75" spans="150:150">
       <c r="ET75" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="76" spans="150:150">
       <c r="ET76" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="77" spans="150:150">
       <c r="ET77" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="78" spans="150:150">
       <c r="ET78" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="79" spans="150:150">
       <c r="ET79" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="80" spans="150:150">
       <c r="ET80" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="81" spans="150:150">
       <c r="ET81" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="82" spans="150:150">
       <c r="ET82" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="83" spans="150:150">
       <c r="ET83" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="84" spans="150:150">
       <c r="ET84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="85" spans="150:150">
       <c r="ET85" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="86" spans="150:150">
       <c r="ET86" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="87" spans="150:150">
       <c r="ET87" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="88" spans="150:150">
       <c r="ET88" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="89" spans="150:150">
       <c r="ET89" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="90" spans="150:150">
       <c r="ET90" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="91" spans="150:150">
       <c r="ET91" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="92" spans="150:150">
       <c r="ET92" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="93" spans="150:150">
       <c r="ET93" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="94" spans="150:150">
       <c r="ET94" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="95" spans="150:150">
       <c r="ET95" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="96" spans="150:150">
       <c r="ET96" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="97" spans="150:150">
       <c r="ET97" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="98" spans="150:150">
       <c r="ET98" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="99" spans="150:150">
       <c r="ET99" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="100" spans="150:150">
       <c r="ET100" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="101" spans="150:150">
       <c r="ET101" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="102" spans="150:150">
       <c r="ET102" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="103" spans="150:150">
       <c r="ET103" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="104" spans="150:150">
       <c r="ET104" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="105" spans="150:150">
       <c r="ET105" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="106" spans="150:150">
       <c r="ET106" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="107" spans="150:150">
       <c r="ET107" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="108" spans="150:150">
       <c r="ET108" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="109" spans="150:150">
       <c r="ET109" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="110" spans="150:150">
       <c r="ET110" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="111" spans="150:150">
       <c r="ET111" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="112" spans="150:150">
       <c r="ET112" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="113" spans="150:150">
       <c r="ET113" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="114" spans="150:150">
       <c r="ET114" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="115" spans="150:150">
       <c r="ET115" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="116" spans="150:150">
       <c r="ET116" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="117" spans="150:150">
       <c r="ET117" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="118" spans="150:150">
       <c r="ET118" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="119" spans="150:150">
       <c r="ET119" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="120" spans="150:150">
       <c r="ET120" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="121" spans="150:150">
       <c r="ET121" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="122" spans="150:150">
       <c r="ET122" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="123" spans="150:150">
       <c r="ET123" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="124" spans="150:150">
       <c r="ET124" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="125" spans="150:150">
       <c r="ET125" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="126" spans="150:150">
       <c r="ET126" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="127" spans="150:150">
       <c r="ET127" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="128" spans="150:150">
       <c r="ET128" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="129" spans="150:150">
       <c r="ET129" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="130" spans="150:150">
       <c r="ET130" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="131" spans="150:150">
       <c r="ET131" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="132" spans="150:150">
       <c r="ET132" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="133" spans="150:150">
       <c r="ET133" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="134" spans="150:150">
       <c r="ET134" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="135" spans="150:150">
       <c r="ET135" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="136" spans="150:150">
       <c r="ET136" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="137" spans="150:150">
       <c r="ET137" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="138" spans="150:150">
       <c r="ET138" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="139" spans="150:150">
       <c r="ET139" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="140" spans="150:150">
       <c r="ET140" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="141" spans="150:150">
       <c r="ET141" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="142" spans="150:150">
       <c r="ET142" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="143" spans="150:150">
       <c r="ET143" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="144" spans="150:150">
       <c r="ET144" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="145" spans="150:150">
       <c r="ET145" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="146" spans="150:150">
       <c r="ET146" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="147" spans="150:150">
       <c r="ET147" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="148" spans="150:150">
       <c r="ET148" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="149" spans="150:150">
       <c r="ET149" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="150" spans="150:150">
       <c r="ET150" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="151" spans="150:150">
       <c r="ET151" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="152" spans="150:150">
       <c r="ET152" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="153" spans="150:150">
       <c r="ET153" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="154" spans="150:150">
       <c r="ET154" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="155" spans="150:150">
       <c r="ET155" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="156" spans="150:150">
       <c r="ET156" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="157" spans="150:150">
       <c r="ET157" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="158" spans="150:150">
       <c r="ET158" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="159" spans="150:150">
       <c r="ET159" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="160" spans="150:150">
       <c r="ET160" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="161" spans="150:150">
       <c r="ET161" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="162" spans="150:150">
       <c r="ET162" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="163" spans="150:150">
       <c r="ET163" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="164" spans="150:150">
       <c r="ET164" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="165" spans="150:150">
       <c r="ET165" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="166" spans="150:150">
       <c r="ET166" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="167" spans="150:150">
       <c r="ET167" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="168" spans="150:150">
       <c r="ET168" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="169" spans="150:150">
       <c r="ET169" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="170" spans="150:150">
       <c r="ET170" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="171" spans="150:150">
       <c r="ET171" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="172" spans="150:150">
       <c r="ET172" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="173" spans="150:150">
       <c r="ET173" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="174" spans="150:150">
       <c r="ET174" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="175" spans="150:150">
       <c r="ET175" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="176" spans="150:150">
       <c r="ET176" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="177" spans="150:150">
       <c r="ET177" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="178" spans="150:150">
       <c r="ET178" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="179" spans="150:150">
       <c r="ET179" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="180" spans="150:150">
       <c r="ET180" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="181" spans="150:150">
       <c r="ET181" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="182" spans="150:150">
       <c r="ET182" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="183" spans="150:150">
       <c r="ET183" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="184" spans="150:150">
       <c r="ET184" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="185" spans="150:150">
       <c r="ET185" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="186" spans="150:150">
       <c r="ET186" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="187" spans="150:150">
       <c r="ET187" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="188" spans="150:150">
       <c r="ET188" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="189" spans="150:150">
       <c r="ET189" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="190" spans="150:150">
       <c r="ET190" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="191" spans="150:150">
       <c r="ET191" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="192" spans="150:150">
       <c r="ET192" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="193" spans="150:150">
       <c r="ET193" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="194" spans="150:150">
       <c r="ET194" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="195" spans="150:150">
       <c r="ET195" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="196" spans="150:150">
       <c r="ET196" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="197" spans="150:150">
       <c r="ET197" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="198" spans="150:150">
       <c r="ET198" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="199" spans="150:150">
       <c r="ET199" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="200" spans="150:150">
       <c r="ET200" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="201" spans="150:150">
       <c r="ET201" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="202" spans="150:150">
       <c r="ET202" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="203" spans="150:150">
       <c r="ET203" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="204" spans="150:150">
       <c r="ET204" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="205" spans="150:150">
       <c r="ET205" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="206" spans="150:150">
       <c r="ET206" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="207" spans="150:150">
       <c r="ET207" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="208" spans="150:150">
       <c r="ET208" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="209" spans="150:150">
       <c r="ET209" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="210" spans="150:150">
       <c r="ET210" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="211" spans="150:150">
       <c r="ET211" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="212" spans="150:150">
       <c r="ET212" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="213" spans="150:150">
       <c r="ET213" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="214" spans="150:150">
       <c r="ET214" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="215" spans="150:150">
       <c r="ET215" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="216" spans="150:150">
       <c r="ET216" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="217" spans="150:150">
       <c r="ET217" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="218" spans="150:150">
       <c r="ET218" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="219" spans="150:150">
       <c r="ET219" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="220" spans="150:150">
       <c r="ET220" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="221" spans="150:150">
       <c r="ET221" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="222" spans="150:150">
       <c r="ET222" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="223" spans="150:150">
       <c r="ET223" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="224" spans="150:150">
       <c r="ET224" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="225" spans="150:150">
       <c r="ET225" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="226" spans="150:150">
       <c r="ET226" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="227" spans="150:150">
       <c r="ET227" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="228" spans="150:150">
       <c r="ET228" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="229" spans="150:150">
       <c r="ET229" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="230" spans="150:150">
       <c r="ET230" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="231" spans="150:150">
       <c r="ET231" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="232" spans="150:150">
       <c r="ET232" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="233" spans="150:150">
       <c r="ET233" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="234" spans="150:150">
       <c r="ET234" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="235" spans="150:150">
       <c r="ET235" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="236" spans="150:150">
       <c r="ET236" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="237" spans="150:150">
       <c r="ET237" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="238" spans="150:150">
       <c r="ET238" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="239" spans="150:150">
       <c r="ET239" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="240" spans="150:150">
       <c r="ET240" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="241" spans="150:150">
       <c r="ET241" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="242" spans="150:150">
       <c r="ET242" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="243" spans="150:150">
       <c r="ET243" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="244" spans="150:150">
       <c r="ET244" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="245" spans="150:150">
       <c r="ET245" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="246" spans="150:150">
       <c r="ET246" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="247" spans="150:150">
       <c r="ET247" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="248" spans="150:150">
       <c r="ET248" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="249" spans="150:150">
       <c r="ET249" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="250" spans="150:150">
       <c r="ET250" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="251" spans="150:150">
       <c r="ET251" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="252" spans="150:150">
       <c r="ET252" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="253" spans="150:150">
       <c r="ET253" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="254" spans="150:150">
       <c r="ET254" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="255" spans="150:150">
       <c r="ET255" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="256" spans="150:150">
       <c r="ET256" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="257" spans="150:150">
       <c r="ET257" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="258" spans="150:150">
       <c r="ET258" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="259" spans="150:150">
       <c r="ET259" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="260" spans="150:150">
       <c r="ET260" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="261" spans="150:150">
       <c r="ET261" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="262" spans="150:150">
       <c r="ET262" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="263" spans="150:150">
       <c r="ET263" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="264" spans="150:150">
       <c r="ET264" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="265" spans="150:150">
       <c r="ET265" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="266" spans="150:150">
       <c r="ET266" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="267" spans="150:150">
       <c r="ET267" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="268" spans="150:150">
       <c r="ET268" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="269" spans="150:150">
       <c r="ET269" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="270" spans="150:150">
       <c r="ET270" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="271" spans="150:150">
       <c r="ET271" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="272" spans="150:150">
       <c r="ET272" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="273" spans="150:150">
       <c r="ET273" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="274" spans="150:150">
       <c r="ET274" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="275" spans="150:150">
       <c r="ET275" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="276" spans="150:150">
       <c r="ET276" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="277" spans="150:150">
       <c r="ET277" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="278" spans="150:150">
       <c r="ET278" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="279" spans="150:150">
       <c r="ET279" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="280" spans="150:150">
       <c r="ET280" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="281" spans="150:150">
       <c r="ET281" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="282" spans="150:150">
       <c r="ET282" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="283" spans="150:150">
       <c r="ET283" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="284" spans="150:150">
       <c r="ET284" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="285" spans="150:150">
       <c r="ET285" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="286" spans="150:150">
       <c r="ET286" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="287" spans="150:150">
       <c r="ET287" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="288" spans="150:150">
       <c r="ET288" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="289" spans="150:150">
       <c r="ET289" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -22,7 +22,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="filtertype">'cv_sample'!$AQ$1:$AQ$7</definedName>
     <definedName name="frequencyofcleaning">'cv_sample'!$FI$1:$FI$5</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$ET$1:$ET$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$ET$1:$ET$294</definedName>
     <definedName name="heatingandcoolingsystemtype">'cv_sample'!$AR$1:$AR$5</definedName>
     <definedName name="indoorspace">'cv_sample'!$AP$1:$AP$8</definedName>
     <definedName name="indoorsurface">'cv_sample'!$AO$1:$AO$8</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="1128">
   <si>
     <t>alias</t>
   </si>
@@ -860,7 +860,7 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>number of inoculated individuals</t>
+    <t>number_of_inoculated_individuals</t>
   </si>
   <si>
     <t>(Optional) Number of host individuals inoculated for the experiment.</t>
@@ -956,7 +956,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic level</t>
+    <t>trophic_level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -977,13 +977,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed biotic relationship</t>
+    <t>observed_biotic_relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known pathogenicity</t>
+    <t>known_pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -1010,7 +1010,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship to oxygen</t>
+    <t>relationship_to_oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1022,25 +1022,25 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample collection device</t>
+    <t>sample_collection_device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>frequency of cooking</t>
+    <t>frequency_of_cooking</t>
   </si>
   <si>
     <t>(Optional) The number of times a meal is cooked per week</t>
@@ -1052,37 +1052,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number of replicons</t>
+    <t>number_of_replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal elements</t>
+    <t>extrachromosomal_elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated size</t>
+    <t>estimated_size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target gene</t>
+    <t>target_gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target subfragment</t>
+    <t>target_subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
+    <t>multiplex_identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1097,31 +1097,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence quality check</t>
+    <t>sequence_quality_check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera check software</t>
+    <t>chimera_check_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
+    <t>relevant_electronic_resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant standard operating procedures</t>
+    <t>relevant_standard_operating_procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1133,37 +1133,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1175,25 +1175,25 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>sampling time outside</t>
+    <t>sampling_time_outside</t>
   </si>
   <si>
     <t>(Optional) The recent and long term history of outside sampling</t>
   </si>
   <si>
-    <t>temperature outside house</t>
+    <t>temperature_outside_house</t>
   </si>
   <si>
     <t>(Optional) The recorded temperature value at sampling time outside (Units: °C)</t>
   </si>
   <si>
-    <t>train station collection location</t>
+    <t>train_station_collection_location</t>
   </si>
   <si>
     <t>(Optional) The train station collection location</t>
   </si>
   <si>
-    <t>train stop collection location</t>
+    <t>train_stop_collection_location</t>
   </si>
   <si>
     <t>(Optional) The train stop collection location</t>
@@ -1244,7 +1244,7 @@
     <t>wood</t>
   </si>
   <si>
-    <t>surface material</t>
+    <t>surface_material</t>
   </si>
   <si>
     <t>(Optional) Surface materials at the point of sampling</t>
@@ -1274,7 +1274,7 @@
     <t>volatile organic compounds</t>
   </si>
   <si>
-    <t>surface-air contaminant</t>
+    <t>surfaceair_contaminant</t>
   </si>
   <si>
     <t>(Optional) Contaminant identified on surface</t>
@@ -1304,7 +1304,7 @@
     <t>window</t>
   </si>
   <si>
-    <t>indoor surface</t>
+    <t>indoor_surface</t>
   </si>
   <si>
     <t>(Optional) Type of indoor surface</t>
@@ -1334,7 +1334,7 @@
     <t>office</t>
   </si>
   <si>
-    <t>indoor space</t>
+    <t>indoor_space</t>
   </si>
   <si>
     <t>(Mandatory) A distinguishable space within a structure, the purpose for which discrete areas of a building is used</t>
@@ -1361,7 +1361,7 @@
     <t>ultraviolet air treatment</t>
   </si>
   <si>
-    <t>filter type</t>
+    <t>filter_type</t>
   </si>
   <si>
     <t>(Mandatory) A device which removes solid particulates or airborne molecular contaminants</t>
@@ -1382,7 +1382,7 @@
     <t>wood stove</t>
   </si>
   <si>
-    <t>heating and cooling system type</t>
+    <t>heating_and_cooling_system_type</t>
   </si>
   <si>
     <t>(Mandatory) Methods of conditioning or heating a room or building</t>
@@ -1397,7 +1397,7 @@
     <t>slab on grade</t>
   </si>
   <si>
-    <t>substructure type</t>
+    <t>substructure_type</t>
   </si>
   <si>
     <t>(Optional) The substructure or under building is that largely hidden section of the building which is built off the foundations to the ground floor level</t>
@@ -1412,7 +1412,7 @@
     <t>no light</t>
   </si>
   <si>
-    <t>light type</t>
+    <t>light_type</t>
   </si>
   <si>
     <t>(Mandatory) Application of light to achieve some practical or aesthetic effect. lighting includes the use of both artificial light sources such as lamps and light fixtures, as well as natural illumination by capturing daylight. can also include absence of light</t>
@@ -1430,7 +1430,7 @@
     <t>urban</t>
   </si>
   <si>
-    <t>building setting</t>
+    <t>building_setting</t>
   </si>
   <si>
     <t>(Mandatory) A location (geography) where a building is set</t>
@@ -1496,7 +1496,7 @@
     <t>wood framed</t>
   </si>
   <si>
-    <t>building occupancy type</t>
+    <t>building_occupancy_type</t>
   </si>
   <si>
     <t>(Mandatory) The primary function for which a building or discrete part of a building is intended to be used</t>
@@ -1508,25 +1508,25 @@
     <t>typically unoccupied</t>
   </si>
   <si>
-    <t>space typical state</t>
+    <t>space_typical_state</t>
   </si>
   <si>
     <t>(Mandatory) Customary or normal state of the space</t>
   </si>
   <si>
-    <t>typical occupant density</t>
+    <t>typical_occupant_density</t>
   </si>
   <si>
     <t>(Mandatory) Customary or normal density of occupants</t>
   </si>
   <si>
-    <t>occupancy at sampling</t>
+    <t>occupancy_at_sampling</t>
   </si>
   <si>
     <t>(Mandatory) Number of occupants present at time of sample within the given space</t>
   </si>
   <si>
-    <t>occupant density at sampling</t>
+    <t>occupant_density_at_sampling</t>
   </si>
   <si>
     <t>(Mandatory) Average number of occupants at time of sampling per square footage</t>
@@ -1541,37 +1541,37 @@
     <t>natural ventilation</t>
   </si>
   <si>
-    <t>ventilation type</t>
+    <t>ventilation_type</t>
   </si>
   <si>
     <t>(Mandatory) The intentional movement of air from outside a building to the inside through forced or natural movement of air</t>
   </si>
   <si>
-    <t>rooms that are on the same hallway</t>
+    <t>rooms_that_are_on_the_same_hallway</t>
   </si>
   <si>
     <t>(Optional) List of room(s) (room number, room name) located in the same hallway as sampling room</t>
   </si>
   <si>
-    <t>wall surface treatment</t>
+    <t>wall_surface_treatment</t>
   </si>
   <si>
     <t>(Optional) The surface treatment of interior wall</t>
   </si>
   <si>
-    <t>wall area</t>
+    <t>wall_area</t>
   </si>
   <si>
     <t>(Optional) The total area of the sampled room's walls</t>
   </si>
   <si>
-    <t>elevator count</t>
+    <t>elevator_count</t>
   </si>
   <si>
     <t>(Optional) The number of elevators within the built structure</t>
   </si>
   <si>
-    <t>floor area</t>
+    <t>floor_area</t>
   </si>
   <si>
     <t>(Optional) The area of the floor space within the room</t>
@@ -1583,481 +1583,481 @@
     <t>(Optional) The types of furniture present in the sampled room</t>
   </si>
   <si>
-    <t>water feature type</t>
+    <t>water_feature_type</t>
   </si>
   <si>
     <t>(Optional) The type of water feature present within the building being sampled</t>
   </si>
   <si>
-    <t>room door distance</t>
+    <t>room_door_distance</t>
   </si>
   <si>
     <t>(Optional) Distance between doors (meters) in the hallway between the sampling room and adjacent rooms</t>
   </si>
   <si>
-    <t>room type</t>
+    <t>room_type</t>
   </si>
   <si>
     <t>(Optional) The main purpose or activity of the sampling room. a room is any distinguishable space within a structure</t>
   </si>
   <si>
-    <t>window location</t>
+    <t>window_location</t>
   </si>
   <si>
     <t>(Optional) The relative location of the window within the room</t>
   </si>
   <si>
-    <t>ceiling type</t>
+    <t>ceiling_type</t>
   </si>
   <si>
     <t>(Optional) The type of ceiling according to the ceiling's appearance or construction</t>
   </si>
   <si>
-    <t>door direction of opening</t>
+    <t>door_direction_of_opening</t>
   </si>
   <si>
     <t>(Optional) The direction the door opens</t>
   </si>
   <si>
-    <t>exposed pipes</t>
+    <t>exposed_pipes</t>
   </si>
   <si>
     <t>(Optional) The number of exposed pipes in the room</t>
   </si>
   <si>
-    <t>wall height</t>
+    <t>wall_height</t>
   </si>
   <si>
     <t>(Optional) The average height of the walls in the sampled room</t>
   </si>
   <si>
-    <t>door type, metal</t>
+    <t>door_type_metal</t>
   </si>
   <si>
     <t>(Optional) The type of metal door</t>
   </si>
   <si>
-    <t>inside lux light</t>
+    <t>inside_lux_light</t>
   </si>
   <si>
     <t>(Optional) The recorded value at sampling time (power density) (Units: kg s−3)</t>
   </si>
   <si>
-    <t>exposed ductwork</t>
+    <t>exposed_ductwork</t>
   </si>
   <si>
     <t>(Optional) The amount of exposed ductwork in the room (Units: kg s−3)</t>
   </si>
   <si>
-    <t>door material</t>
+    <t>door_material</t>
   </si>
   <si>
     <t>(Optional) The material the door is composed of (Units: kg s−3)</t>
   </si>
   <si>
-    <t>adjacent rooms</t>
+    <t>adjacent_rooms</t>
   </si>
   <si>
     <t>(Optional) List of rooms (room number, room name) immediately adjacent to the sampling room</t>
   </si>
   <si>
-    <t>wall thermal mass</t>
+    <t>wall_thermal_mass</t>
   </si>
   <si>
     <t>(Optional) The ability of the wall to provide inertia against temperature fluctuations. generally this means concrete or concrete block that is either exposed or covered only with paint (Units: J/°C)</t>
   </si>
   <si>
-    <t>ceiling signs of water/mold</t>
+    <t>ceiling_signs_of_watermold</t>
   </si>
   <si>
     <t>(Optional) Signs of the presence of mold or mildew on the ceiling (Units: J/°C)</t>
   </si>
   <si>
-    <t>window status</t>
+    <t>window_status</t>
   </si>
   <si>
     <t>(Optional) Defines whether the windows were open or closed during environmental testing (Units: %)</t>
   </si>
   <si>
-    <t>door location</t>
-  </si>
-  <si>
-    <t>(Optional) The relative location of the door in the room (Units: year)</t>
-  </si>
-  <si>
-    <t>window signs of water/mold</t>
-  </si>
-  <si>
-    <t>(Optional) Signs of the presence of mold or mildew on the window. (Units: year)</t>
-  </si>
-  <si>
-    <t>window type</t>
+    <t>door_location</t>
+  </si>
+  <si>
+    <t>(Optional) The relative location of the door in the room (Units: minute)</t>
+  </si>
+  <si>
+    <t>window_signs_of_watermold</t>
+  </si>
+  <si>
+    <t>(Optional) Signs of the presence of mold or mildew on the window. (Units: minute)</t>
+  </si>
+  <si>
+    <t>window_type</t>
   </si>
   <si>
     <t>(Optional) The type of windows (Units: ppm)</t>
   </si>
   <si>
-    <t>window material</t>
-  </si>
-  <si>
-    <t>(Optional) The type of material used to finish a window (Units: g/m3)</t>
-  </si>
-  <si>
-    <t>window horizontal position</t>
+    <t>window_material</t>
+  </si>
+  <si>
+    <t>(Optional) The type of material used to finish a window (Units: %)</t>
+  </si>
+  <si>
+    <t>window_horizontal_position</t>
   </si>
   <si>
     <t>(Optional) The horizontal position of the window on the wall</t>
   </si>
   <si>
-    <t>room condition</t>
-  </si>
-  <si>
-    <t>(Optional) The condition of the room at the time of sampling (Units: mm)</t>
-  </si>
-  <si>
-    <t>window area/size</t>
-  </si>
-  <si>
-    <t>(Optional) The window's length and width (Units: mm)</t>
-  </si>
-  <si>
-    <t>sampling floor</t>
+    <t>room_condition</t>
+  </si>
+  <si>
+    <t>(Optional) The condition of the room at the time of sampling (Units: m)</t>
+  </si>
+  <si>
+    <t>window_areasize</t>
+  </si>
+  <si>
+    <t>(Optional) The window's length and width (Units: m)</t>
+  </si>
+  <si>
+    <t>sampling_floor</t>
   </si>
   <si>
     <t>(Optional) The floor of the building, where the sampling room is located (Units: °C)</t>
   </si>
   <si>
-    <t>room count</t>
+    <t>room_count</t>
   </si>
   <si>
     <t>(Optional) The total count of rooms in the built structure including all room types</t>
   </si>
   <si>
-    <t>average daily occupancy</t>
+    <t>average_daily_occupancy</t>
   </si>
   <si>
     <t>(Optional) Daily average occupancy of room. indicate the number of person(s) daily occupying the sampling room. (Units: °C)</t>
   </si>
   <si>
-    <t>floor condition</t>
+    <t>floor_condition</t>
   </si>
   <si>
     <t>(Optional) The physical condition of the floor at the time of sampling; photos or video preferred; use drawings to indicate location of damaged areas (Units: °C)</t>
   </si>
   <si>
-    <t>door type, wood</t>
+    <t>door_type_wood</t>
   </si>
   <si>
     <t>(Optional) The type of wood door (Units: °C)</t>
   </si>
   <si>
-    <t>door condition</t>
+    <t>door_condition</t>
   </si>
   <si>
     <t>(Optional) The physical condition of the door</t>
   </si>
   <si>
-    <t>door movement</t>
+    <t>door_movement</t>
   </si>
   <si>
     <t>(Optional) The type of movement of the door</t>
   </si>
   <si>
-    <t>interior wall condition</t>
+    <t>interior_wall_condition</t>
   </si>
   <si>
     <t>(Optional) The physical condition of the wall at the time of sampling; photos or video preferred; use drawings to indicate location of damaged areas</t>
   </si>
   <si>
-    <t>floor signs of water/mold</t>
+    <t>floor_signs_of_watermold</t>
   </si>
   <si>
     <t>(Optional) Signs of the presence of mold or mildew in a room</t>
   </si>
   <si>
-    <t>ceiling structure</t>
+    <t>ceiling_structure</t>
   </si>
   <si>
     <t>(Optional) The construction format of the ceiling (Units: m)</t>
   </si>
   <si>
-    <t>wall texture</t>
+    <t>wall_texture</t>
   </si>
   <si>
     <t>(Optional) The feel, appearance, or consistency of a wall surface (Units: m)</t>
   </si>
   <si>
-    <t>floor thermal mass</t>
+    <t>floor_thermal_mass</t>
   </si>
   <si>
     <t>(Optional) The ability of the floor to provide inertia against temperature fluctuations (Units: J/°C)</t>
   </si>
   <si>
-    <t>room air exchange rate</t>
+    <t>room_air_exchange_rate</t>
   </si>
   <si>
     <t>(Optional) The rate at which outside air replaces indoor air in a given space (Units: year)</t>
   </si>
   <si>
-    <t>bathroom count</t>
+    <t>bathroom_count</t>
   </si>
   <si>
     <t>(Optional) The number of bathrooms in the building (Units: year)</t>
   </si>
   <si>
-    <t>shading device signs of water/mold</t>
+    <t>shading_device_signs_of_watermold</t>
   </si>
   <si>
     <t>(Optional) Signs of the presence of mold or mildew on the shading device (Units: year)</t>
   </si>
   <si>
-    <t>window covering</t>
+    <t>window_covering</t>
   </si>
   <si>
     <t>(Optional) The type of window covering (Units: year)</t>
   </si>
   <si>
-    <t>ceiling texture</t>
+    <t>ceiling_texture</t>
   </si>
   <si>
     <t>(Optional) The feel, appearance, or consistency of a ceiling surface (Units: year)</t>
   </si>
   <si>
-    <t>maximum occupancy</t>
+    <t>maximum_occupancy</t>
   </si>
   <si>
     <t>(Optional) The maximum amount of people allowed in the indoor environment (Units: year)</t>
   </si>
   <si>
-    <t>gender of restroom</t>
+    <t>gender_of_restroom</t>
   </si>
   <si>
     <t>(Optional) The gender type of the restroom (Units: year)</t>
   </si>
   <si>
-    <t>ceiling condition</t>
+    <t>ceiling_condition</t>
   </si>
   <si>
     <t>(Optional) The physical condition of the ceiling at the time of sampling; photos or video preferred; use drawings to indicate location of damaged areas (Units: year)</t>
   </si>
   <si>
-    <t>floor structure</t>
-  </si>
-  <si>
-    <t>(Optional) Refers to the structural elements and subfloor upon which the finish flooring is installed (Units: year)</t>
-  </si>
-  <si>
-    <t>rooms that share a wall with sampling room</t>
-  </si>
-  <si>
-    <t>(Optional) List of room(s) (room number, room name) sharing a wall with the sampling room (Units: year)</t>
-  </si>
-  <si>
-    <t>wall finish material</t>
-  </si>
-  <si>
-    <t>(Optional) The material utilized to finish the outer most layer of the wall (Units: year)</t>
-  </si>
-  <si>
-    <t>room occupancy</t>
-  </si>
-  <si>
-    <t>(Optional) Count of room occupancy at time of sampling (Units: year)</t>
-  </si>
-  <si>
-    <t>room location in building</t>
-  </si>
-  <si>
-    <t>(Optional) The position of the room within the building (Units: year)</t>
-  </si>
-  <si>
-    <t>floor finish material</t>
-  </si>
-  <si>
-    <t>(Optional) The floor covering type; the finished surface that is walked on (Units: year)</t>
-  </si>
-  <si>
-    <t>room window count</t>
-  </si>
-  <si>
-    <t>(Optional) Number of windows in the room (Units: year)</t>
-  </si>
-  <si>
-    <t>sampling room id or name</t>
-  </si>
-  <si>
-    <t>(Optional) Explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other). (Units: year)</t>
-  </si>
-  <si>
-    <t>height carpet fiber mat</t>
-  </si>
-  <si>
-    <t>(Optional) The average carpet fiber height in the indoor environment (Units: mm)</t>
-  </si>
-  <si>
-    <t>ceiling area</t>
+    <t>floor_structure</t>
+  </si>
+  <si>
+    <t>(Optional) Refers to the structural elements and subfloor upon which the finish flooring is installed (Units: minute)</t>
+  </si>
+  <si>
+    <t>rooms_that_share_a_wall_with_sampling_room</t>
+  </si>
+  <si>
+    <t>(Optional) List of room(s) (room number, room name) sharing a wall with the sampling room (Units: minute)</t>
+  </si>
+  <si>
+    <t>wall_finish_material</t>
+  </si>
+  <si>
+    <t>(Optional) The material utilized to finish the outer most layer of the wall (Units: minute)</t>
+  </si>
+  <si>
+    <t>room_occupancy</t>
+  </si>
+  <si>
+    <t>(Optional) Count of room occupancy at time of sampling (Units: minute)</t>
+  </si>
+  <si>
+    <t>room_location_in_building</t>
+  </si>
+  <si>
+    <t>(Optional) The position of the room within the building (Units: minute)</t>
+  </si>
+  <si>
+    <t>floor_finish_material</t>
+  </si>
+  <si>
+    <t>(Optional) The floor covering type; the finished surface that is walked on (Units: minute)</t>
+  </si>
+  <si>
+    <t>room_window_count</t>
+  </si>
+  <si>
+    <t>(Optional) Number of windows in the room (Units: minute)</t>
+  </si>
+  <si>
+    <t>sampling_room_id_or_name</t>
+  </si>
+  <si>
+    <t>(Optional) Explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other). (Units: day)</t>
+  </si>
+  <si>
+    <t>height_carpet_fiber_mat</t>
+  </si>
+  <si>
+    <t>(Optional) The average carpet fiber height in the indoor environment (Units: cm)</t>
+  </si>
+  <si>
+    <t>ceiling_area</t>
   </si>
   <si>
     <t>(Optional) The area of the ceiling space within the room (Units: m2)</t>
   </si>
   <si>
-    <t>heating system delivery method</t>
+    <t>heating_system_delivery_method</t>
   </si>
   <si>
     <t>(Optional) The method by which the heat is delivered through the system (Units: m2)</t>
   </si>
   <si>
-    <t>room sampling position</t>
+    <t>room_sampling_position</t>
   </si>
   <si>
     <t>(Optional) The horizontal sampling position in the room relative to architectural elements (Units: m2)</t>
   </si>
   <si>
-    <t>room moisture damage or mold history</t>
+    <t>room_moisture_damage_or_mold_history</t>
   </si>
   <si>
     <t>(Optional) The history of moisture damage or mold in the past 12 months. number of events of moisture damage or mold observed (Units: °C)</t>
   </si>
   <si>
-    <t>door signs of water/mold</t>
+    <t>door_signs_of_watermold</t>
   </si>
   <si>
     <t>(Optional) Signs of the presence of mold or mildew on a door (Units: minute)</t>
   </si>
   <si>
-    <t>room net area</t>
+    <t>room_net_area</t>
   </si>
   <si>
     <t>(Optional) The net floor area of sampling room. net area excludes wall thicknesses (Units: m2)</t>
   </si>
   <si>
-    <t>ceiling thermal mass</t>
+    <t>ceiling_thermal_mass</t>
   </si>
   <si>
     <t>(Optional) The ability of the ceiling to provide inertia against temperature fluctuations. generally this means concrete that is exposed. a metal deck that supports a concrete slab will act thermally as long as it is exposed to room air flow (Units: J/°C)</t>
   </si>
   <si>
-    <t>rooms that share a door with sampling room</t>
-  </si>
-  <si>
-    <t>(Optional) List of room(s) (room number, room name) sharing a door with the sampling room (Units: year)</t>
-  </si>
-  <si>
-    <t>orientations of exterior window</t>
-  </si>
-  <si>
-    <t>(Optional) The compass direction the exterior window of the room is facing (Units: year)</t>
-  </si>
-  <si>
-    <t>wall location</t>
+    <t>rooms_that_share_a_door_with_sampling_room</t>
+  </si>
+  <si>
+    <t>(Optional) List of room(s) (room number, room name) sharing a door with the sampling room (Units: day)</t>
+  </si>
+  <si>
+    <t>orientations_of_exterior_window</t>
+  </si>
+  <si>
+    <t>(Optional) The compass direction the exterior window of the room is facing (Units: day)</t>
+  </si>
+  <si>
+    <t>wall_location</t>
   </si>
   <si>
     <t>(Optional) The relative location of the wall within the room (Units: °C)</t>
   </si>
   <si>
-    <t>room volume</t>
+    <t>room_volume</t>
   </si>
   <si>
     <t>(Optional) Volume of sampling room (Units: m2)</t>
   </si>
   <si>
-    <t>door type, composite</t>
+    <t>door_type_composite</t>
   </si>
   <si>
     <t>(Optional) The composite type of the door (Units: m2)</t>
   </si>
   <si>
-    <t>bedroom count</t>
+    <t>bedroom_count</t>
   </si>
   <si>
     <t>(Optional) The number of bedrooms in the building (Units: m2)</t>
   </si>
   <si>
-    <t>wall construction type</t>
+    <t>wall_construction_type</t>
   </si>
   <si>
     <t>(Optional) The building class of the wall defined by the composition of the building elements and fire-resistance rating. (Units: m2)</t>
   </si>
   <si>
-    <t>wall signs of water/mold</t>
+    <t>wall_signs_of_watermold</t>
   </si>
   <si>
     <t>(Optional) Signs of the presence of mold or mildew on a wall (Units: m2)</t>
   </si>
   <si>
-    <t>window condition</t>
+    <t>window_condition</t>
   </si>
   <si>
     <t>(Optional) The physical condition of the window at the time of sampling (Units: m2)</t>
   </si>
   <si>
-    <t>escalator count</t>
+    <t>escalator_count</t>
   </si>
   <si>
     <t>(Optional) The number of escalators within the built structure (Units: m2)</t>
   </si>
   <si>
-    <t>cooling system identifier</t>
+    <t>cooling_system_identifier</t>
   </si>
   <si>
     <t>(Optional) The cooling system identifier (Units: °C)</t>
   </si>
   <si>
-    <t>quadrant position</t>
+    <t>quadrant_position</t>
   </si>
   <si>
     <t>(Optional) The quadrant position of the sampling room within the building (Units: °C)</t>
   </si>
   <si>
-    <t>number of pets</t>
+    <t>number_of_pets</t>
   </si>
   <si>
     <t>(Optional) The number of pets residing in the sampled space (Units: °C)</t>
   </si>
   <si>
-    <t>window vertical position</t>
+    <t>window_vertical_position</t>
   </si>
   <si>
     <t>(Optional) The vertical position of the window on the wall (Units: °C)</t>
   </si>
   <si>
-    <t>fireplace type</t>
+    <t>fireplace_type</t>
   </si>
   <si>
     <t>(Optional) A firebox with chimney (Units: °C)</t>
   </si>
   <si>
-    <t>heating delivery locations</t>
+    <t>heating_delivery_locations</t>
   </si>
   <si>
     <t>(Optional) The location of heat delivery within the room (Units: °C)</t>
   </si>
   <si>
-    <t>ceiling finish material</t>
+    <t>ceiling_finish_material</t>
   </si>
   <si>
     <t>(Optional) The type of material used to finish a ceiling (Units: °C)</t>
   </si>
   <si>
-    <t>door type</t>
+    <t>door_type</t>
   </si>
   <si>
     <t>(Optional) The type of door material (Units: °C)</t>
   </si>
   <si>
-    <t>number of houseplants</t>
+    <t>number_of_houseplants</t>
   </si>
   <si>
     <t>(Optional) The number of plant(s) in the sampling space (Units: °C)</t>
   </si>
   <si>
-    <t>floor age</t>
+    <t>floor_age</t>
   </si>
   <si>
     <t>(Optional) The time period since instalment of the carpet or flooring (Units: year)</t>
   </si>
   <si>
-    <t>rooms connected by a doorway</t>
+    <t>rooms_connected_by_a_doorway</t>
   </si>
   <si>
     <t>(Optional) List of rooms connected to the sampling room by a doorway (Units: year)</t>
@@ -2069,49 +2069,49 @@
     <t>(Optional) The building specifications. if design is chosen, indicate phase: conceptual, schematic, design development, construction documents</t>
   </si>
   <si>
-    <t>specific humidity</t>
+    <t>specific_humidity</t>
   </si>
   <si>
     <t>(Optional) The mass of water vapour in a unit mass of moist air, usually expressed as grams of vapour per kilogram of air, or, in air conditioning, as grains per pound. (Units: g/m3)</t>
   </si>
   <si>
-    <t>window open frequency</t>
+    <t>window_open_frequency</t>
   </si>
   <si>
     <t>(Optional) The number of times windows are opened per week (Units: m)</t>
   </si>
   <si>
-    <t>room dimensions</t>
+    <t>room_dimensions</t>
   </si>
   <si>
     <t>(Optional) The length, width and height of sampling room</t>
   </si>
   <si>
-    <t>water feature size</t>
-  </si>
-  <si>
-    <t>(Optional) The size of the water feature (Units: m2)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>sample size sorting method</t>
+    <t>water_feature_size</t>
+  </si>
+  <si>
+    <t>(Optional) The size of the water feature (Units: ha)</t>
+  </si>
+  <si>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+  </si>
+  <si>
+    <t>sample_size_sorting_method</t>
   </si>
   <si>
     <t>(Optional) Method by which samples are sorted</t>
   </si>
   <si>
-    <t>organism count</t>
+    <t>organism_count</t>
   </si>
   <si>
     <t>(Mandatory) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>mechanical structure</t>
+    <t>mechanical_structure</t>
   </si>
   <si>
     <t>(Optional) Mechanical structure: a moving structure</t>
@@ -2336,9 +2336,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -2357,6 +2354,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -2558,6 +2558,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -2567,9 +2570,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -2609,7 +2609,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -2678,6 +2678,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -2753,6 +2756,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -2774,6 +2780,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -2819,6 +2828,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2831,6 +2843,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2840,9 +2855,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2867,6 +2879,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2927,12 +2942,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2990,67 +3005,67 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host disease status</t>
+    <t>host_disease_status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>relative air humidity</t>
+    <t>relative_air_humidity</t>
   </si>
   <si>
     <t>(Mandatory) Partial vapor and air pressure, density of the vapor and air, or by the actual mass of the vapor and air (Units: %)</t>
   </si>
   <si>
-    <t>absolute air humidity</t>
+    <t>absolute_air_humidity</t>
   </si>
   <si>
     <t>(Mandatory) Actual mass of water vapor - mh20 - present in the air water vapor mixture (Units: kg)</t>
   </si>
   <si>
-    <t>surface humidity</t>
+    <t>surface_humidity</t>
   </si>
   <si>
     <t>(Optional) Surface water activity as a function of air and material moisture (Units: %)</t>
   </si>
   <si>
-    <t>air temperature</t>
+    <t>air_temperature</t>
   </si>
   <si>
     <t>(Mandatory) Temperature of the air at time of sampling (Units: ºC)</t>
   </si>
   <si>
-    <t>surface temperature</t>
+    <t>surface_temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature of the surface at time of sampling (Units: ºC)</t>
   </si>
   <si>
-    <t>surface moisture</t>
+    <t>surface_moisture</t>
   </si>
   <si>
     <t>(Optional) Water held on the surface (Units: parts/million)</t>
   </si>
   <si>
-    <t>surface moisture pH</t>
+    <t>surface_moisture_ph</t>
   </si>
   <si>
     <t>(Optional) Ph measurement of surface</t>
   </si>
   <si>
-    <t>dew point</t>
+    <t>dew_point</t>
   </si>
   <si>
     <t>(Optional) The temperature to which a given parcel of humid air must be cooled, at constant barometric pressure, for water vapor to condense into water (Units: ºC)</t>
@@ -3062,19 +3077,19 @@
     <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
-    <t>last time swept/mopped/vacuumed</t>
+    <t>last_time_sweptmoppedvacuumed</t>
   </si>
   <si>
     <t>(Optional) The last time the floor was cleaned (swept, mopped, vacuumed)</t>
   </si>
   <si>
-    <t>number of residents</t>
+    <t>number_of_residents</t>
   </si>
   <si>
     <t>(Optional) The number of individuals currently occupying in the sampling location (Units: m)</t>
   </si>
   <si>
-    <t>average dew point</t>
+    <t>average_dew_point</t>
   </si>
   <si>
     <t>(Optional) The average of dew point measures taken at the beginning of every hour over a 24 hour period on the sampling day (Units: °C)</t>
@@ -3095,25 +3110,25 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>frequency of cleaning</t>
-  </si>
-  <si>
-    <t>(Optional) The number of times the sample location is cleaned. frequency of cleaning might be on a daily basis, weekly, monthly, quarterly or annually. (Units: year)</t>
-  </si>
-  <si>
-    <t>carbon dioxide</t>
+    <t>frequency_of_cleaning</t>
+  </si>
+  <si>
+    <t>(Optional) The number of times the sample location is cleaned. frequency of cleaning might be on a daily basis, weekly, monthly, quarterly or annually. (Units: minute)</t>
+  </si>
+  <si>
+    <t>carbon_dioxide</t>
   </si>
   <si>
     <t>(Mandatory) Carbon dioxide (gas) amount or concentration at the time of sampling (Units: µmol/L)</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>seasonal use</t>
+    <t>seasonal_use</t>
   </si>
   <si>
     <t>(Optional) The seasons the space is occupied (Units: year)</t>
@@ -3125,13 +3140,13 @@
     <t>(Optional) The season when sampling occurred. any of the four periods into which the year is divided by the equinoxes and solstices. this field accepts terms listed under season (http://purl.obolibrary.org/obo/ncit_c94729).</t>
   </si>
   <si>
-    <t>average temperature</t>
+    <t>average_temperature</t>
   </si>
   <si>
     <t>(Optional) The average of temperatures taken at the beginning of every hour over a 24 hour period on the sampling day</t>
   </si>
   <si>
-    <t>host specificity or range</t>
+    <t>host_specificity_or_range</t>
   </si>
   <si>
     <t>(Optional) The range and diversity of host species that an organism is capable of infecting, defined by ncbi taxonomy identifier.</t>
@@ -3143,121 +3158,121 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative control type</t>
+    <t>negative_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive control type</t>
+    <t>positive_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental factor</t>
+    <t>experimental_factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded traits</t>
+    <t>encoded_traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific genetic lineage</t>
+    <t>subspecific_genetic_lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic classification</t>
+    <t>taxonomic_classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation and growth condition</t>
+    <t>isolation_and_growth_condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation source</t>
+    <t>annotation_source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference for biomaterial</t>
+    <t>reference_for_biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample volume or weight for DNA extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
-  </si>
-  <si>
-    <t>nucleic acid extraction</t>
+    <t>sample_volume_or_weight_for_dna_extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
+  </si>
+  <si>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic acid amplification</t>
+    <t>nucleic_acid_amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library size</t>
+    <t>library_size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library reads sequenced</t>
+    <t>library_reads_sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library construction method</t>
+    <t>library_construction_method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library vector</t>
+    <t>library_vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library screening strategy</t>
+    <t>library_screening_strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr conditions</t>
+    <t>pcr_conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr primers</t>
+    <t>pcr_primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -3269,127 +3284,127 @@
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
   </si>
   <si>
-    <t>date last rain</t>
+    <t>date_last_rain</t>
   </si>
   <si>
     <t>(Optional) The date of the last time it rained</t>
   </si>
   <si>
-    <t>sampling day weather</t>
-  </si>
-  <si>
-    <t>(Optional) The weather on the sampling day (Units: g/m3)</t>
-  </si>
-  <si>
-    <t>amount of light</t>
+    <t>sampling_day_weather</t>
+  </si>
+  <si>
+    <t>(Optional) The weather on the sampling day (Units: %)</t>
+  </si>
+  <si>
+    <t>amount_of_light</t>
   </si>
   <si>
     <t>(Optional) The unit of illuminance and luminous emittance, measuring luminous flux per unit area (Units: W/m2)</t>
   </si>
   <si>
-    <t>train line</t>
+    <t>train_line</t>
   </si>
   <si>
     <t>(Optional) The subway line name (Units: °C)</t>
   </si>
   <si>
-    <t>outside relative humidity</t>
-  </si>
-  <si>
-    <t>(Optional) The recorded outside relative humidity value at the time of sampling (Units: g/m3)</t>
+    <t>outside_relative_humidity</t>
+  </si>
+  <si>
+    <t>(Optional) The recorded outside relative humidity value at the time of sampling (Units: %)</t>
   </si>
   <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
-  </si>
-  <si>
-    <t>door area or size</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+  </si>
+  <si>
+    <t>door_area_or_size</t>
   </si>
   <si>
     <t>(Optional) The size of the door</t>
   </si>
   <si>
-    <t>visual media</t>
+    <t>visual_media</t>
   </si>
   <si>
     <t>(Optional) The building visual media</t>
   </si>
   <si>
-    <t>built structure setting</t>
+    <t>built_structure_setting</t>
   </si>
   <si>
     <t>(Optional) The characterization of the location of the built structure as high or low human density</t>
   </si>
   <si>
-    <t>built structure type</t>
+    <t>built_structure_type</t>
   </si>
   <si>
     <t>(Optional) A physical structure that is a body or assemblage of bodies in space to form a system capable of supporting loads (Units: m)</t>
   </si>
   <si>
-    <t>exterior door count</t>
+    <t>exterior_door_count</t>
   </si>
   <si>
     <t>(Optional) The number of exterior doors in the built structure (Units: °C)</t>
   </si>
   <si>
-    <t>design, construction, and operation documents</t>
+    <t>design_construction_and_operation_documents</t>
   </si>
   <si>
     <t>(Optional) The building design, construction and operation documents (Units: year)</t>
   </si>
   <si>
-    <t>shading device condition</t>
+    <t>shading_device_condition</t>
   </si>
   <si>
     <t>(Optional) The physical condition of the shading device at the time of sampling (Units: year)</t>
   </si>
   <si>
-    <t>occupancy documentation</t>
-  </si>
-  <si>
-    <t>(Optional) The type of documentation of occupancy (Units: year)</t>
-  </si>
-  <si>
-    <t>floor count</t>
-  </si>
-  <si>
-    <t>(Optional) The number of floors in the building, including basements and mechanical penthouse (Units: year)</t>
-  </si>
-  <si>
-    <t>shading device material</t>
-  </si>
-  <si>
-    <t>(Optional) The material the shading device is composed of (Units: year)</t>
-  </si>
-  <si>
-    <t>built structure age</t>
-  </si>
-  <si>
-    <t>(Optional) The age of the built structure since construction (Units: year)</t>
-  </si>
-  <si>
-    <t>hallway/corridor count</t>
-  </si>
-  <si>
-    <t>(Optional) The total count of hallways and corridors in the built structure (Units: g/m3)</t>
-  </si>
-  <si>
-    <t>architectural structure</t>
+    <t>occupancy_documentation</t>
+  </si>
+  <si>
+    <t>(Optional) The type of documentation of occupancy (Units: minute)</t>
+  </si>
+  <si>
+    <t>floor_count</t>
+  </si>
+  <si>
+    <t>(Optional) The number of floors in the building, including basements and mechanical penthouse (Units: minute)</t>
+  </si>
+  <si>
+    <t>shading_device_material</t>
+  </si>
+  <si>
+    <t>(Optional) The material the shading device is composed of (Units: minute)</t>
+  </si>
+  <si>
+    <t>built_structure_age</t>
+  </si>
+  <si>
+    <t>(Optional) The age of the built structure since construction (Units: day)</t>
+  </si>
+  <si>
+    <t>hallwaycorridor_count</t>
+  </si>
+  <si>
+    <t>(Optional) The total count of hallways and corridors in the built structure (Units: %)</t>
+  </si>
+  <si>
+    <t>architectural_structure</t>
   </si>
   <si>
     <t>(Optional) An architectural structure is a human-made, free-standing, immobile outdoor construction (Units: m2)</t>
   </si>
   <si>
-    <t>shading device type</t>
+    <t>shading_device_type</t>
   </si>
   <si>
     <t>(Optional) The type of shading device (Units: m2)</t>
   </si>
   <si>
-    <t>shading device location</t>
+    <t>shading_device_location</t>
   </si>
   <si>
     <t>(Optional) The location of the shading device in relation to the built structure (Units: °C)</t>
@@ -3407,13 +3422,13 @@
     <t>(Optional) The street name and building number where the sampling occurred.</t>
   </si>
   <si>
-    <t>room architectural elements</t>
+    <t>room_architectural_elements</t>
   </si>
   <si>
     <t>(Optional) The unique details and component parts that, together, form the architecture of a distinguishable space within a built structure</t>
   </si>
   <si>
-    <t>aerospace structure</t>
+    <t>aerospace_structure</t>
   </si>
   <si>
     <t>(Optional) Aerospace structures typically consist of thin plates with stiffeners for the external surfaces, bulkheads and frames to support the shape and fasteners such as welds, rivets, screws and bolts to hold the components together</t>
@@ -5408,211 +5423,211 @@
         <v>689</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="FX1" s="1" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="FY1" s="1" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="FZ1" s="1" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="GA1" s="1" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="GS1" s="1" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="GU1" s="1" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="GV1" s="1" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="GX1" s="1" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="GZ1" s="1" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="HA1" s="1" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="HD1" s="1" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="HE1" s="1" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="HF1" s="1" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="HH1" s="1" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="HI1" s="1" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="HJ1" s="1" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="2" spans="1:218" ht="150" customHeight="1">
@@ -6064,211 +6079,211 @@
         <v>690</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="EX2" s="2" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="EY2" s="2" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="EZ2" s="2" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="FA2" s="2" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="FB2" s="2" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="FC2" s="2" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="FD2" s="2" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="FE2" s="2" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="FF2" s="2" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="FG2" s="2" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="FH2" s="2" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="FI2" s="2" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="FK2" s="2" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="FL2" s="2" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="FM2" s="2" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="FN2" s="2" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="FO2" s="2" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="FP2" s="2" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="FQ2" s="2" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="FR2" s="2" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="FS2" s="2" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="FT2" s="2" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="FU2" s="2" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="FV2" s="2" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="FW2" s="2" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="FX2" s="2" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="FY2" s="2" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="FZ2" s="2" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="GA2" s="2" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="GB2" s="2" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="GC2" s="2" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="GD2" s="2" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="GE2" s="2" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="GF2" s="2" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="GG2" s="2" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="GH2" s="2" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="GI2" s="2" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="GJ2" s="2" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="GK2" s="2" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="GL2" s="2" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="GM2" s="2" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="GN2" s="2" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="GO2" s="2" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="GP2" s="2" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="GQ2" s="2" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="GR2" s="2" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="GS2" s="2" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="GT2" s="2" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="GU2" s="2" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="GV2" s="2" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="GW2" s="2" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="GX2" s="2" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="GY2" s="2" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="GZ2" s="2" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="HA2" s="2" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="HB2" s="2" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="HC2" s="2" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="HD2" s="2" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="HE2" s="2" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="HF2" s="2" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="HG2" s="2" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="HH2" s="2" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="HI2" s="2" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="HJ2" s="2" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
     </row>
   </sheetData>
@@ -6334,7 +6349,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1:FI289"/>
+  <dimension ref="F1:FI294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6393,7 +6408,7 @@
         <v>691</v>
       </c>
       <c r="FI1" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="2" spans="6:165">
@@ -6449,7 +6464,7 @@
         <v>692</v>
       </c>
       <c r="FI2" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="3" spans="6:165">
@@ -6502,7 +6517,7 @@
         <v>693</v>
       </c>
       <c r="FI3" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="4" spans="6:165">
@@ -6543,7 +6558,7 @@
         <v>694</v>
       </c>
       <c r="FI4" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="5" spans="6:165">
@@ -6581,7 +6596,7 @@
         <v>695</v>
       </c>
       <c r="FI5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="6" spans="6:165">
@@ -8194,6 +8209,31 @@
     <row r="289" spans="150:150">
       <c r="ET289" t="s">
         <v>979</v>
+      </c>
+    </row>
+    <row r="290" spans="150:150">
+      <c r="ET290" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="291" spans="150:150">
+      <c r="ET291" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="292" spans="150:150">
+      <c r="ET292" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="293" spans="150:150">
+      <c r="ET293" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="294" spans="150:150">
+      <c r="ET294" t="s">
+        <v>984</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -22,7 +22,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="filtertype">'cv_sample'!$AQ$1:$AQ$7</definedName>
     <definedName name="frequencyofcleaning">'cv_sample'!$FI$1:$FI$5</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$ET$1:$ET$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$ET$1:$ET$289</definedName>
     <definedName name="heatingandcoolingsystemtype">'cv_sample'!$AR$1:$AR$5</definedName>
     <definedName name="indoorspace">'cv_sample'!$AP$1:$AP$8</definedName>
     <definedName name="indoorsurface">'cv_sample'!$AO$1:$AO$8</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1123">
   <si>
     <t>alias</t>
   </si>
@@ -860,7 +860,7 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>number_of_inoculated_individuals</t>
+    <t>number of inoculated individuals</t>
   </si>
   <si>
     <t>(Optional) Number of host individuals inoculated for the experiment.</t>
@@ -956,7 +956,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic_level</t>
+    <t>trophic level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -977,13 +977,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed_biotic_relationship</t>
+    <t>observed biotic relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known_pathogenicity</t>
+    <t>known pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -1010,7 +1010,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship_to_oxygen</t>
+    <t>relationship to oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1022,25 +1022,25 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample_collection_device</t>
+    <t>sample collection device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>frequency_of_cooking</t>
+    <t>frequency of cooking</t>
   </si>
   <si>
     <t>(Optional) The number of times a meal is cooked per week</t>
@@ -1052,37 +1052,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number_of_replicons</t>
+    <t>number of replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal_elements</t>
+    <t>extrachromosomal elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated_size</t>
+    <t>estimated size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target_gene</t>
+    <t>target gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target_subfragment</t>
+    <t>target subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex_identifiers</t>
+    <t>multiplex identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1097,31 +1097,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence_quality_check</t>
+    <t>sequence quality check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera_check_software</t>
+    <t>chimera check software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant_electronic_resources</t>
+    <t>relevant electronic resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant_standard_operating_procedures</t>
+    <t>relevant standard operating procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1133,37 +1133,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1175,25 +1175,25 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>sampling_time_outside</t>
+    <t>sampling time outside</t>
   </si>
   <si>
     <t>(Optional) The recent and long term history of outside sampling</t>
   </si>
   <si>
-    <t>temperature_outside_house</t>
+    <t>temperature outside house</t>
   </si>
   <si>
     <t>(Optional) The recorded temperature value at sampling time outside (Units: °C)</t>
   </si>
   <si>
-    <t>train_station_collection_location</t>
+    <t>train station collection location</t>
   </si>
   <si>
     <t>(Optional) The train station collection location</t>
   </si>
   <si>
-    <t>train_stop_collection_location</t>
+    <t>train stop collection location</t>
   </si>
   <si>
     <t>(Optional) The train stop collection location</t>
@@ -1244,7 +1244,7 @@
     <t>wood</t>
   </si>
   <si>
-    <t>surface_material</t>
+    <t>surface material</t>
   </si>
   <si>
     <t>(Optional) Surface materials at the point of sampling</t>
@@ -1274,7 +1274,7 @@
     <t>volatile organic compounds</t>
   </si>
   <si>
-    <t>surfaceair_contaminant</t>
+    <t>surface-air contaminant</t>
   </si>
   <si>
     <t>(Optional) Contaminant identified on surface</t>
@@ -1304,7 +1304,7 @@
     <t>window</t>
   </si>
   <si>
-    <t>indoor_surface</t>
+    <t>indoor surface</t>
   </si>
   <si>
     <t>(Optional) Type of indoor surface</t>
@@ -1334,7 +1334,7 @@
     <t>office</t>
   </si>
   <si>
-    <t>indoor_space</t>
+    <t>indoor space</t>
   </si>
   <si>
     <t>(Mandatory) A distinguishable space within a structure, the purpose for which discrete areas of a building is used</t>
@@ -1361,7 +1361,7 @@
     <t>ultraviolet air treatment</t>
   </si>
   <si>
-    <t>filter_type</t>
+    <t>filter type</t>
   </si>
   <si>
     <t>(Mandatory) A device which removes solid particulates or airborne molecular contaminants</t>
@@ -1382,7 +1382,7 @@
     <t>wood stove</t>
   </si>
   <si>
-    <t>heating_and_cooling_system_type</t>
+    <t>heating and cooling system type</t>
   </si>
   <si>
     <t>(Mandatory) Methods of conditioning or heating a room or building</t>
@@ -1397,7 +1397,7 @@
     <t>slab on grade</t>
   </si>
   <si>
-    <t>substructure_type</t>
+    <t>substructure type</t>
   </si>
   <si>
     <t>(Optional) The substructure or under building is that largely hidden section of the building which is built off the foundations to the ground floor level</t>
@@ -1412,7 +1412,7 @@
     <t>no light</t>
   </si>
   <si>
-    <t>light_type</t>
+    <t>light type</t>
   </si>
   <si>
     <t>(Mandatory) Application of light to achieve some practical or aesthetic effect. lighting includes the use of both artificial light sources such as lamps and light fixtures, as well as natural illumination by capturing daylight. can also include absence of light</t>
@@ -1430,7 +1430,7 @@
     <t>urban</t>
   </si>
   <si>
-    <t>building_setting</t>
+    <t>building setting</t>
   </si>
   <si>
     <t>(Mandatory) A location (geography) where a building is set</t>
@@ -1496,7 +1496,7 @@
     <t>wood framed</t>
   </si>
   <si>
-    <t>building_occupancy_type</t>
+    <t>building occupancy type</t>
   </si>
   <si>
     <t>(Mandatory) The primary function for which a building or discrete part of a building is intended to be used</t>
@@ -1508,25 +1508,25 @@
     <t>typically unoccupied</t>
   </si>
   <si>
-    <t>space_typical_state</t>
+    <t>space typical state</t>
   </si>
   <si>
     <t>(Mandatory) Customary or normal state of the space</t>
   </si>
   <si>
-    <t>typical_occupant_density</t>
+    <t>typical occupant density</t>
   </si>
   <si>
     <t>(Mandatory) Customary or normal density of occupants</t>
   </si>
   <si>
-    <t>occupancy_at_sampling</t>
+    <t>occupancy at sampling</t>
   </si>
   <si>
     <t>(Mandatory) Number of occupants present at time of sample within the given space</t>
   </si>
   <si>
-    <t>occupant_density_at_sampling</t>
+    <t>occupant density at sampling</t>
   </si>
   <si>
     <t>(Mandatory) Average number of occupants at time of sampling per square footage</t>
@@ -1541,37 +1541,37 @@
     <t>natural ventilation</t>
   </si>
   <si>
-    <t>ventilation_type</t>
+    <t>ventilation type</t>
   </si>
   <si>
     <t>(Mandatory) The intentional movement of air from outside a building to the inside through forced or natural movement of air</t>
   </si>
   <si>
-    <t>rooms_that_are_on_the_same_hallway</t>
+    <t>rooms that are on the same hallway</t>
   </si>
   <si>
     <t>(Optional) List of room(s) (room number, room name) located in the same hallway as sampling room</t>
   </si>
   <si>
-    <t>wall_surface_treatment</t>
+    <t>wall surface treatment</t>
   </si>
   <si>
     <t>(Optional) The surface treatment of interior wall</t>
   </si>
   <si>
-    <t>wall_area</t>
+    <t>wall area</t>
   </si>
   <si>
     <t>(Optional) The total area of the sampled room's walls</t>
   </si>
   <si>
-    <t>elevator_count</t>
+    <t>elevator count</t>
   </si>
   <si>
     <t>(Optional) The number of elevators within the built structure</t>
   </si>
   <si>
-    <t>floor_area</t>
+    <t>floor area</t>
   </si>
   <si>
     <t>(Optional) The area of the floor space within the room</t>
@@ -1583,481 +1583,481 @@
     <t>(Optional) The types of furniture present in the sampled room</t>
   </si>
   <si>
-    <t>water_feature_type</t>
+    <t>water feature type</t>
   </si>
   <si>
     <t>(Optional) The type of water feature present within the building being sampled</t>
   </si>
   <si>
-    <t>room_door_distance</t>
+    <t>room door distance</t>
   </si>
   <si>
     <t>(Optional) Distance between doors (meters) in the hallway between the sampling room and adjacent rooms</t>
   </si>
   <si>
-    <t>room_type</t>
+    <t>room type</t>
   </si>
   <si>
     <t>(Optional) The main purpose or activity of the sampling room. a room is any distinguishable space within a structure</t>
   </si>
   <si>
-    <t>window_location</t>
+    <t>window location</t>
   </si>
   <si>
     <t>(Optional) The relative location of the window within the room</t>
   </si>
   <si>
-    <t>ceiling_type</t>
+    <t>ceiling type</t>
   </si>
   <si>
     <t>(Optional) The type of ceiling according to the ceiling's appearance or construction</t>
   </si>
   <si>
-    <t>door_direction_of_opening</t>
+    <t>door direction of opening</t>
   </si>
   <si>
     <t>(Optional) The direction the door opens</t>
   </si>
   <si>
-    <t>exposed_pipes</t>
+    <t>exposed pipes</t>
   </si>
   <si>
     <t>(Optional) The number of exposed pipes in the room</t>
   </si>
   <si>
-    <t>wall_height</t>
+    <t>wall height</t>
   </si>
   <si>
     <t>(Optional) The average height of the walls in the sampled room</t>
   </si>
   <si>
-    <t>door_type_metal</t>
+    <t>door type, metal</t>
   </si>
   <si>
     <t>(Optional) The type of metal door</t>
   </si>
   <si>
-    <t>inside_lux_light</t>
+    <t>inside lux light</t>
   </si>
   <si>
     <t>(Optional) The recorded value at sampling time (power density) (Units: kg s−3)</t>
   </si>
   <si>
-    <t>exposed_ductwork</t>
+    <t>exposed ductwork</t>
   </si>
   <si>
     <t>(Optional) The amount of exposed ductwork in the room (Units: kg s−3)</t>
   </si>
   <si>
-    <t>door_material</t>
+    <t>door material</t>
   </si>
   <si>
     <t>(Optional) The material the door is composed of (Units: kg s−3)</t>
   </si>
   <si>
-    <t>adjacent_rooms</t>
+    <t>adjacent rooms</t>
   </si>
   <si>
     <t>(Optional) List of rooms (room number, room name) immediately adjacent to the sampling room</t>
   </si>
   <si>
-    <t>wall_thermal_mass</t>
+    <t>wall thermal mass</t>
   </si>
   <si>
     <t>(Optional) The ability of the wall to provide inertia against temperature fluctuations. generally this means concrete or concrete block that is either exposed or covered only with paint (Units: J/°C)</t>
   </si>
   <si>
-    <t>ceiling_signs_of_watermold</t>
+    <t>ceiling signs of water/mold</t>
   </si>
   <si>
     <t>(Optional) Signs of the presence of mold or mildew on the ceiling (Units: J/°C)</t>
   </si>
   <si>
-    <t>window_status</t>
+    <t>window status</t>
   </si>
   <si>
     <t>(Optional) Defines whether the windows were open or closed during environmental testing (Units: %)</t>
   </si>
   <si>
-    <t>door_location</t>
-  </si>
-  <si>
-    <t>(Optional) The relative location of the door in the room (Units: minute)</t>
-  </si>
-  <si>
-    <t>window_signs_of_watermold</t>
-  </si>
-  <si>
-    <t>(Optional) Signs of the presence of mold or mildew on the window. (Units: minute)</t>
-  </si>
-  <si>
-    <t>window_type</t>
+    <t>door location</t>
+  </si>
+  <si>
+    <t>(Optional) The relative location of the door in the room (Units: year)</t>
+  </si>
+  <si>
+    <t>window signs of water/mold</t>
+  </si>
+  <si>
+    <t>(Optional) Signs of the presence of mold or mildew on the window. (Units: year)</t>
+  </si>
+  <si>
+    <t>window type</t>
   </si>
   <si>
     <t>(Optional) The type of windows (Units: ppm)</t>
   </si>
   <si>
-    <t>window_material</t>
-  </si>
-  <si>
-    <t>(Optional) The type of material used to finish a window (Units: %)</t>
-  </si>
-  <si>
-    <t>window_horizontal_position</t>
+    <t>window material</t>
+  </si>
+  <si>
+    <t>(Optional) The type of material used to finish a window (Units: g/m3)</t>
+  </si>
+  <si>
+    <t>window horizontal position</t>
   </si>
   <si>
     <t>(Optional) The horizontal position of the window on the wall</t>
   </si>
   <si>
-    <t>room_condition</t>
-  </si>
-  <si>
-    <t>(Optional) The condition of the room at the time of sampling (Units: m)</t>
-  </si>
-  <si>
-    <t>window_areasize</t>
-  </si>
-  <si>
-    <t>(Optional) The window's length and width (Units: m)</t>
-  </si>
-  <si>
-    <t>sampling_floor</t>
+    <t>room condition</t>
+  </si>
+  <si>
+    <t>(Optional) The condition of the room at the time of sampling (Units: mm)</t>
+  </si>
+  <si>
+    <t>window area/size</t>
+  </si>
+  <si>
+    <t>(Optional) The window's length and width (Units: mm)</t>
+  </si>
+  <si>
+    <t>sampling floor</t>
   </si>
   <si>
     <t>(Optional) The floor of the building, where the sampling room is located (Units: °C)</t>
   </si>
   <si>
-    <t>room_count</t>
+    <t>room count</t>
   </si>
   <si>
     <t>(Optional) The total count of rooms in the built structure including all room types</t>
   </si>
   <si>
-    <t>average_daily_occupancy</t>
+    <t>average daily occupancy</t>
   </si>
   <si>
     <t>(Optional) Daily average occupancy of room. indicate the number of person(s) daily occupying the sampling room. (Units: °C)</t>
   </si>
   <si>
-    <t>floor_condition</t>
+    <t>floor condition</t>
   </si>
   <si>
     <t>(Optional) The physical condition of the floor at the time of sampling; photos or video preferred; use drawings to indicate location of damaged areas (Units: °C)</t>
   </si>
   <si>
-    <t>door_type_wood</t>
+    <t>door type, wood</t>
   </si>
   <si>
     <t>(Optional) The type of wood door (Units: °C)</t>
   </si>
   <si>
-    <t>door_condition</t>
+    <t>door condition</t>
   </si>
   <si>
     <t>(Optional) The physical condition of the door</t>
   </si>
   <si>
-    <t>door_movement</t>
+    <t>door movement</t>
   </si>
   <si>
     <t>(Optional) The type of movement of the door</t>
   </si>
   <si>
-    <t>interior_wall_condition</t>
+    <t>interior wall condition</t>
   </si>
   <si>
     <t>(Optional) The physical condition of the wall at the time of sampling; photos or video preferred; use drawings to indicate location of damaged areas</t>
   </si>
   <si>
-    <t>floor_signs_of_watermold</t>
+    <t>floor signs of water/mold</t>
   </si>
   <si>
     <t>(Optional) Signs of the presence of mold or mildew in a room</t>
   </si>
   <si>
-    <t>ceiling_structure</t>
+    <t>ceiling structure</t>
   </si>
   <si>
     <t>(Optional) The construction format of the ceiling (Units: m)</t>
   </si>
   <si>
-    <t>wall_texture</t>
+    <t>wall texture</t>
   </si>
   <si>
     <t>(Optional) The feel, appearance, or consistency of a wall surface (Units: m)</t>
   </si>
   <si>
-    <t>floor_thermal_mass</t>
+    <t>floor thermal mass</t>
   </si>
   <si>
     <t>(Optional) The ability of the floor to provide inertia against temperature fluctuations (Units: J/°C)</t>
   </si>
   <si>
-    <t>room_air_exchange_rate</t>
+    <t>room air exchange rate</t>
   </si>
   <si>
     <t>(Optional) The rate at which outside air replaces indoor air in a given space (Units: year)</t>
   </si>
   <si>
-    <t>bathroom_count</t>
+    <t>bathroom count</t>
   </si>
   <si>
     <t>(Optional) The number of bathrooms in the building (Units: year)</t>
   </si>
   <si>
-    <t>shading_device_signs_of_watermold</t>
+    <t>shading device signs of water/mold</t>
   </si>
   <si>
     <t>(Optional) Signs of the presence of mold or mildew on the shading device (Units: year)</t>
   </si>
   <si>
-    <t>window_covering</t>
+    <t>window covering</t>
   </si>
   <si>
     <t>(Optional) The type of window covering (Units: year)</t>
   </si>
   <si>
-    <t>ceiling_texture</t>
+    <t>ceiling texture</t>
   </si>
   <si>
     <t>(Optional) The feel, appearance, or consistency of a ceiling surface (Units: year)</t>
   </si>
   <si>
-    <t>maximum_occupancy</t>
+    <t>maximum occupancy</t>
   </si>
   <si>
     <t>(Optional) The maximum amount of people allowed in the indoor environment (Units: year)</t>
   </si>
   <si>
-    <t>gender_of_restroom</t>
+    <t>gender of restroom</t>
   </si>
   <si>
     <t>(Optional) The gender type of the restroom (Units: year)</t>
   </si>
   <si>
-    <t>ceiling_condition</t>
+    <t>ceiling condition</t>
   </si>
   <si>
     <t>(Optional) The physical condition of the ceiling at the time of sampling; photos or video preferred; use drawings to indicate location of damaged areas (Units: year)</t>
   </si>
   <si>
-    <t>floor_structure</t>
-  </si>
-  <si>
-    <t>(Optional) Refers to the structural elements and subfloor upon which the finish flooring is installed (Units: minute)</t>
-  </si>
-  <si>
-    <t>rooms_that_share_a_wall_with_sampling_room</t>
-  </si>
-  <si>
-    <t>(Optional) List of room(s) (room number, room name) sharing a wall with the sampling room (Units: minute)</t>
-  </si>
-  <si>
-    <t>wall_finish_material</t>
-  </si>
-  <si>
-    <t>(Optional) The material utilized to finish the outer most layer of the wall (Units: minute)</t>
-  </si>
-  <si>
-    <t>room_occupancy</t>
-  </si>
-  <si>
-    <t>(Optional) Count of room occupancy at time of sampling (Units: minute)</t>
-  </si>
-  <si>
-    <t>room_location_in_building</t>
-  </si>
-  <si>
-    <t>(Optional) The position of the room within the building (Units: minute)</t>
-  </si>
-  <si>
-    <t>floor_finish_material</t>
-  </si>
-  <si>
-    <t>(Optional) The floor covering type; the finished surface that is walked on (Units: minute)</t>
-  </si>
-  <si>
-    <t>room_window_count</t>
-  </si>
-  <si>
-    <t>(Optional) Number of windows in the room (Units: minute)</t>
-  </si>
-  <si>
-    <t>sampling_room_id_or_name</t>
-  </si>
-  <si>
-    <t>(Optional) Explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other). (Units: day)</t>
-  </si>
-  <si>
-    <t>height_carpet_fiber_mat</t>
-  </si>
-  <si>
-    <t>(Optional) The average carpet fiber height in the indoor environment (Units: cm)</t>
-  </si>
-  <si>
-    <t>ceiling_area</t>
+    <t>floor structure</t>
+  </si>
+  <si>
+    <t>(Optional) Refers to the structural elements and subfloor upon which the finish flooring is installed (Units: year)</t>
+  </si>
+  <si>
+    <t>rooms that share a wall with sampling room</t>
+  </si>
+  <si>
+    <t>(Optional) List of room(s) (room number, room name) sharing a wall with the sampling room (Units: year)</t>
+  </si>
+  <si>
+    <t>wall finish material</t>
+  </si>
+  <si>
+    <t>(Optional) The material utilized to finish the outer most layer of the wall (Units: year)</t>
+  </si>
+  <si>
+    <t>room occupancy</t>
+  </si>
+  <si>
+    <t>(Optional) Count of room occupancy at time of sampling (Units: year)</t>
+  </si>
+  <si>
+    <t>room location in building</t>
+  </si>
+  <si>
+    <t>(Optional) The position of the room within the building (Units: year)</t>
+  </si>
+  <si>
+    <t>floor finish material</t>
+  </si>
+  <si>
+    <t>(Optional) The floor covering type; the finished surface that is walked on (Units: year)</t>
+  </si>
+  <si>
+    <t>room window count</t>
+  </si>
+  <si>
+    <t>(Optional) Number of windows in the room (Units: year)</t>
+  </si>
+  <si>
+    <t>sampling room id or name</t>
+  </si>
+  <si>
+    <t>(Optional) Explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other). (Units: year)</t>
+  </si>
+  <si>
+    <t>height carpet fiber mat</t>
+  </si>
+  <si>
+    <t>(Optional) The average carpet fiber height in the indoor environment (Units: mm)</t>
+  </si>
+  <si>
+    <t>ceiling area</t>
   </si>
   <si>
     <t>(Optional) The area of the ceiling space within the room (Units: m2)</t>
   </si>
   <si>
-    <t>heating_system_delivery_method</t>
+    <t>heating system delivery method</t>
   </si>
   <si>
     <t>(Optional) The method by which the heat is delivered through the system (Units: m2)</t>
   </si>
   <si>
-    <t>room_sampling_position</t>
+    <t>room sampling position</t>
   </si>
   <si>
     <t>(Optional) The horizontal sampling position in the room relative to architectural elements (Units: m2)</t>
   </si>
   <si>
-    <t>room_moisture_damage_or_mold_history</t>
+    <t>room moisture damage or mold history</t>
   </si>
   <si>
     <t>(Optional) The history of moisture damage or mold in the past 12 months. number of events of moisture damage or mold observed (Units: °C)</t>
   </si>
   <si>
-    <t>door_signs_of_watermold</t>
+    <t>door signs of water/mold</t>
   </si>
   <si>
     <t>(Optional) Signs of the presence of mold or mildew on a door (Units: minute)</t>
   </si>
   <si>
-    <t>room_net_area</t>
+    <t>room net area</t>
   </si>
   <si>
     <t>(Optional) The net floor area of sampling room. net area excludes wall thicknesses (Units: m2)</t>
   </si>
   <si>
-    <t>ceiling_thermal_mass</t>
+    <t>ceiling thermal mass</t>
   </si>
   <si>
     <t>(Optional) The ability of the ceiling to provide inertia against temperature fluctuations. generally this means concrete that is exposed. a metal deck that supports a concrete slab will act thermally as long as it is exposed to room air flow (Units: J/°C)</t>
   </si>
   <si>
-    <t>rooms_that_share_a_door_with_sampling_room</t>
-  </si>
-  <si>
-    <t>(Optional) List of room(s) (room number, room name) sharing a door with the sampling room (Units: day)</t>
-  </si>
-  <si>
-    <t>orientations_of_exterior_window</t>
-  </si>
-  <si>
-    <t>(Optional) The compass direction the exterior window of the room is facing (Units: day)</t>
-  </si>
-  <si>
-    <t>wall_location</t>
+    <t>rooms that share a door with sampling room</t>
+  </si>
+  <si>
+    <t>(Optional) List of room(s) (room number, room name) sharing a door with the sampling room (Units: year)</t>
+  </si>
+  <si>
+    <t>orientations of exterior window</t>
+  </si>
+  <si>
+    <t>(Optional) The compass direction the exterior window of the room is facing (Units: year)</t>
+  </si>
+  <si>
+    <t>wall location</t>
   </si>
   <si>
     <t>(Optional) The relative location of the wall within the room (Units: °C)</t>
   </si>
   <si>
-    <t>room_volume</t>
+    <t>room volume</t>
   </si>
   <si>
     <t>(Optional) Volume of sampling room (Units: m2)</t>
   </si>
   <si>
-    <t>door_type_composite</t>
+    <t>door type, composite</t>
   </si>
   <si>
     <t>(Optional) The composite type of the door (Units: m2)</t>
   </si>
   <si>
-    <t>bedroom_count</t>
+    <t>bedroom count</t>
   </si>
   <si>
     <t>(Optional) The number of bedrooms in the building (Units: m2)</t>
   </si>
   <si>
-    <t>wall_construction_type</t>
+    <t>wall construction type</t>
   </si>
   <si>
     <t>(Optional) The building class of the wall defined by the composition of the building elements and fire-resistance rating. (Units: m2)</t>
   </si>
   <si>
-    <t>wall_signs_of_watermold</t>
+    <t>wall signs of water/mold</t>
   </si>
   <si>
     <t>(Optional) Signs of the presence of mold or mildew on a wall (Units: m2)</t>
   </si>
   <si>
-    <t>window_condition</t>
+    <t>window condition</t>
   </si>
   <si>
     <t>(Optional) The physical condition of the window at the time of sampling (Units: m2)</t>
   </si>
   <si>
-    <t>escalator_count</t>
+    <t>escalator count</t>
   </si>
   <si>
     <t>(Optional) The number of escalators within the built structure (Units: m2)</t>
   </si>
   <si>
-    <t>cooling_system_identifier</t>
+    <t>cooling system identifier</t>
   </si>
   <si>
     <t>(Optional) The cooling system identifier (Units: °C)</t>
   </si>
   <si>
-    <t>quadrant_position</t>
+    <t>quadrant position</t>
   </si>
   <si>
     <t>(Optional) The quadrant position of the sampling room within the building (Units: °C)</t>
   </si>
   <si>
-    <t>number_of_pets</t>
+    <t>number of pets</t>
   </si>
   <si>
     <t>(Optional) The number of pets residing in the sampled space (Units: °C)</t>
   </si>
   <si>
-    <t>window_vertical_position</t>
+    <t>window vertical position</t>
   </si>
   <si>
     <t>(Optional) The vertical position of the window on the wall (Units: °C)</t>
   </si>
   <si>
-    <t>fireplace_type</t>
+    <t>fireplace type</t>
   </si>
   <si>
     <t>(Optional) A firebox with chimney (Units: °C)</t>
   </si>
   <si>
-    <t>heating_delivery_locations</t>
+    <t>heating delivery locations</t>
   </si>
   <si>
     <t>(Optional) The location of heat delivery within the room (Units: °C)</t>
   </si>
   <si>
-    <t>ceiling_finish_material</t>
+    <t>ceiling finish material</t>
   </si>
   <si>
     <t>(Optional) The type of material used to finish a ceiling (Units: °C)</t>
   </si>
   <si>
-    <t>door_type</t>
+    <t>door type</t>
   </si>
   <si>
     <t>(Optional) The type of door material (Units: °C)</t>
   </si>
   <si>
-    <t>number_of_houseplants</t>
+    <t>number of houseplants</t>
   </si>
   <si>
     <t>(Optional) The number of plant(s) in the sampling space (Units: °C)</t>
   </si>
   <si>
-    <t>floor_age</t>
+    <t>floor age</t>
   </si>
   <si>
     <t>(Optional) The time period since instalment of the carpet or flooring (Units: year)</t>
   </si>
   <si>
-    <t>rooms_connected_by_a_doorway</t>
+    <t>rooms connected by a doorway</t>
   </si>
   <si>
     <t>(Optional) List of rooms connected to the sampling room by a doorway (Units: year)</t>
@@ -2069,49 +2069,49 @@
     <t>(Optional) The building specifications. if design is chosen, indicate phase: conceptual, schematic, design development, construction documents</t>
   </si>
   <si>
-    <t>specific_humidity</t>
+    <t>specific humidity</t>
   </si>
   <si>
     <t>(Optional) The mass of water vapour in a unit mass of moist air, usually expressed as grams of vapour per kilogram of air, or, in air conditioning, as grains per pound. (Units: g/m3)</t>
   </si>
   <si>
-    <t>window_open_frequency</t>
+    <t>window open frequency</t>
   </si>
   <si>
     <t>(Optional) The number of times windows are opened per week (Units: m)</t>
   </si>
   <si>
-    <t>room_dimensions</t>
+    <t>room dimensions</t>
   </si>
   <si>
     <t>(Optional) The length, width and height of sampling room</t>
   </si>
   <si>
-    <t>water_feature_size</t>
-  </si>
-  <si>
-    <t>(Optional) The size of the water feature (Units: ha)</t>
-  </si>
-  <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
-  </si>
-  <si>
-    <t>sample_size_sorting_method</t>
+    <t>water feature size</t>
+  </si>
+  <si>
+    <t>(Optional) The size of the water feature (Units: m2)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>sample size sorting method</t>
   </si>
   <si>
     <t>(Optional) Method by which samples are sorted</t>
   </si>
   <si>
-    <t>organism_count</t>
+    <t>organism count</t>
   </si>
   <si>
     <t>(Mandatory) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>mechanical_structure</t>
+    <t>mechanical structure</t>
   </si>
   <si>
     <t>(Optional) Mechanical structure: a moving structure</t>
@@ -2336,6 +2336,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -2354,9 +2357,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -2558,9 +2558,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -2570,6 +2567,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -2609,7 +2609,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -2678,9 +2678,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -2756,9 +2753,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -2780,9 +2774,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -2828,9 +2819,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2843,9 +2831,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2855,6 +2840,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2879,9 +2867,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2942,12 +2927,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -3005,67 +2990,67 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host_disease_status</t>
+    <t>host disease status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>relative_air_humidity</t>
+    <t>relative air humidity</t>
   </si>
   <si>
     <t>(Mandatory) Partial vapor and air pressure, density of the vapor and air, or by the actual mass of the vapor and air (Units: %)</t>
   </si>
   <si>
-    <t>absolute_air_humidity</t>
+    <t>absolute air humidity</t>
   </si>
   <si>
     <t>(Mandatory) Actual mass of water vapor - mh20 - present in the air water vapor mixture (Units: kg)</t>
   </si>
   <si>
-    <t>surface_humidity</t>
+    <t>surface humidity</t>
   </si>
   <si>
     <t>(Optional) Surface water activity as a function of air and material moisture (Units: %)</t>
   </si>
   <si>
-    <t>air_temperature</t>
+    <t>air temperature</t>
   </si>
   <si>
     <t>(Mandatory) Temperature of the air at time of sampling (Units: ºC)</t>
   </si>
   <si>
-    <t>surface_temperature</t>
+    <t>surface temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature of the surface at time of sampling (Units: ºC)</t>
   </si>
   <si>
-    <t>surface_moisture</t>
+    <t>surface moisture</t>
   </si>
   <si>
     <t>(Optional) Water held on the surface (Units: parts/million)</t>
   </si>
   <si>
-    <t>surface_moisture_ph</t>
+    <t>surface moisture pH</t>
   </si>
   <si>
     <t>(Optional) Ph measurement of surface</t>
   </si>
   <si>
-    <t>dew_point</t>
+    <t>dew point</t>
   </si>
   <si>
     <t>(Optional) The temperature to which a given parcel of humid air must be cooled, at constant barometric pressure, for water vapor to condense into water (Units: ºC)</t>
@@ -3077,19 +3062,19 @@
     <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
-    <t>last_time_sweptmoppedvacuumed</t>
+    <t>last time swept/mopped/vacuumed</t>
   </si>
   <si>
     <t>(Optional) The last time the floor was cleaned (swept, mopped, vacuumed)</t>
   </si>
   <si>
-    <t>number_of_residents</t>
+    <t>number of residents</t>
   </si>
   <si>
     <t>(Optional) The number of individuals currently occupying in the sampling location (Units: m)</t>
   </si>
   <si>
-    <t>average_dew_point</t>
+    <t>average dew point</t>
   </si>
   <si>
     <t>(Optional) The average of dew point measures taken at the beginning of every hour over a 24 hour period on the sampling day (Units: °C)</t>
@@ -3110,25 +3095,25 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>frequency_of_cleaning</t>
-  </si>
-  <si>
-    <t>(Optional) The number of times the sample location is cleaned. frequency of cleaning might be on a daily basis, weekly, monthly, quarterly or annually. (Units: minute)</t>
-  </si>
-  <si>
-    <t>carbon_dioxide</t>
+    <t>frequency of cleaning</t>
+  </si>
+  <si>
+    <t>(Optional) The number of times the sample location is cleaned. frequency of cleaning might be on a daily basis, weekly, monthly, quarterly or annually. (Units: year)</t>
+  </si>
+  <si>
+    <t>carbon dioxide</t>
   </si>
   <si>
     <t>(Mandatory) Carbon dioxide (gas) amount or concentration at the time of sampling (Units: µmol/L)</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>seasonal_use</t>
+    <t>seasonal use</t>
   </si>
   <si>
     <t>(Optional) The seasons the space is occupied (Units: year)</t>
@@ -3140,13 +3125,13 @@
     <t>(Optional) The season when sampling occurred. any of the four periods into which the year is divided by the equinoxes and solstices. this field accepts terms listed under season (http://purl.obolibrary.org/obo/ncit_c94729).</t>
   </si>
   <si>
-    <t>average_temperature</t>
+    <t>average temperature</t>
   </si>
   <si>
     <t>(Optional) The average of temperatures taken at the beginning of every hour over a 24 hour period on the sampling day</t>
   </si>
   <si>
-    <t>host_specificity_or_range</t>
+    <t>host specificity or range</t>
   </si>
   <si>
     <t>(Optional) The range and diversity of host species that an organism is capable of infecting, defined by ncbi taxonomy identifier.</t>
@@ -3158,121 +3143,121 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative_control_type</t>
+    <t>negative control type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive_control_type</t>
+    <t>positive control type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental_factor</t>
+    <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded_traits</t>
+    <t>encoded traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific_genetic_lineage</t>
+    <t>subspecific genetic lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic_classification</t>
+    <t>taxonomic classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation_and_growth_condition</t>
+    <t>isolation and growth condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation_source</t>
+    <t>annotation source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference_for_biomaterial</t>
+    <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample_volume_or_weight_for_dna_extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
-  </si>
-  <si>
-    <t>nucleic_acid_extraction</t>
+    <t>sample volume or weight for DNA extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+  </si>
+  <si>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic_acid_amplification</t>
+    <t>nucleic acid amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library_size</t>
+    <t>library size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library_reads_sequenced</t>
+    <t>library reads sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library_construction_method</t>
+    <t>library construction method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library_vector</t>
+    <t>library vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library_screening_strategy</t>
+    <t>library screening strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr_conditions</t>
+    <t>pcr conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr_primers</t>
+    <t>pcr primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -3284,127 +3269,127 @@
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
   </si>
   <si>
-    <t>date_last_rain</t>
+    <t>date last rain</t>
   </si>
   <si>
     <t>(Optional) The date of the last time it rained</t>
   </si>
   <si>
-    <t>sampling_day_weather</t>
-  </si>
-  <si>
-    <t>(Optional) The weather on the sampling day (Units: %)</t>
-  </si>
-  <si>
-    <t>amount_of_light</t>
+    <t>sampling day weather</t>
+  </si>
+  <si>
+    <t>(Optional) The weather on the sampling day (Units: g/m3)</t>
+  </si>
+  <si>
+    <t>amount of light</t>
   </si>
   <si>
     <t>(Optional) The unit of illuminance and luminous emittance, measuring luminous flux per unit area (Units: W/m2)</t>
   </si>
   <si>
-    <t>train_line</t>
+    <t>train line</t>
   </si>
   <si>
     <t>(Optional) The subway line name (Units: °C)</t>
   </si>
   <si>
-    <t>outside_relative_humidity</t>
-  </si>
-  <si>
-    <t>(Optional) The recorded outside relative humidity value at the time of sampling (Units: %)</t>
+    <t>outside relative humidity</t>
+  </si>
+  <si>
+    <t>(Optional) The recorded outside relative humidity value at the time of sampling (Units: g/m3)</t>
   </si>
   <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>door_area_or_size</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+  </si>
+  <si>
+    <t>door area or size</t>
   </si>
   <si>
     <t>(Optional) The size of the door</t>
   </si>
   <si>
-    <t>visual_media</t>
+    <t>visual media</t>
   </si>
   <si>
     <t>(Optional) The building visual media</t>
   </si>
   <si>
-    <t>built_structure_setting</t>
+    <t>built structure setting</t>
   </si>
   <si>
     <t>(Optional) The characterization of the location of the built structure as high or low human density</t>
   </si>
   <si>
-    <t>built_structure_type</t>
+    <t>built structure type</t>
   </si>
   <si>
     <t>(Optional) A physical structure that is a body or assemblage of bodies in space to form a system capable of supporting loads (Units: m)</t>
   </si>
   <si>
-    <t>exterior_door_count</t>
+    <t>exterior door count</t>
   </si>
   <si>
     <t>(Optional) The number of exterior doors in the built structure (Units: °C)</t>
   </si>
   <si>
-    <t>design_construction_and_operation_documents</t>
+    <t>design, construction, and operation documents</t>
   </si>
   <si>
     <t>(Optional) The building design, construction and operation documents (Units: year)</t>
   </si>
   <si>
-    <t>shading_device_condition</t>
+    <t>shading device condition</t>
   </si>
   <si>
     <t>(Optional) The physical condition of the shading device at the time of sampling (Units: year)</t>
   </si>
   <si>
-    <t>occupancy_documentation</t>
-  </si>
-  <si>
-    <t>(Optional) The type of documentation of occupancy (Units: minute)</t>
-  </si>
-  <si>
-    <t>floor_count</t>
-  </si>
-  <si>
-    <t>(Optional) The number of floors in the building, including basements and mechanical penthouse (Units: minute)</t>
-  </si>
-  <si>
-    <t>shading_device_material</t>
-  </si>
-  <si>
-    <t>(Optional) The material the shading device is composed of (Units: minute)</t>
-  </si>
-  <si>
-    <t>built_structure_age</t>
-  </si>
-  <si>
-    <t>(Optional) The age of the built structure since construction (Units: day)</t>
-  </si>
-  <si>
-    <t>hallwaycorridor_count</t>
-  </si>
-  <si>
-    <t>(Optional) The total count of hallways and corridors in the built structure (Units: %)</t>
-  </si>
-  <si>
-    <t>architectural_structure</t>
+    <t>occupancy documentation</t>
+  </si>
+  <si>
+    <t>(Optional) The type of documentation of occupancy (Units: year)</t>
+  </si>
+  <si>
+    <t>floor count</t>
+  </si>
+  <si>
+    <t>(Optional) The number of floors in the building, including basements and mechanical penthouse (Units: year)</t>
+  </si>
+  <si>
+    <t>shading device material</t>
+  </si>
+  <si>
+    <t>(Optional) The material the shading device is composed of (Units: year)</t>
+  </si>
+  <si>
+    <t>built structure age</t>
+  </si>
+  <si>
+    <t>(Optional) The age of the built structure since construction (Units: year)</t>
+  </si>
+  <si>
+    <t>hallway/corridor count</t>
+  </si>
+  <si>
+    <t>(Optional) The total count of hallways and corridors in the built structure (Units: g/m3)</t>
+  </si>
+  <si>
+    <t>architectural structure</t>
   </si>
   <si>
     <t>(Optional) An architectural structure is a human-made, free-standing, immobile outdoor construction (Units: m2)</t>
   </si>
   <si>
-    <t>shading_device_type</t>
+    <t>shading device type</t>
   </si>
   <si>
     <t>(Optional) The type of shading device (Units: m2)</t>
   </si>
   <si>
-    <t>shading_device_location</t>
+    <t>shading device location</t>
   </si>
   <si>
     <t>(Optional) The location of the shading device in relation to the built structure (Units: °C)</t>
@@ -3422,13 +3407,13 @@
     <t>(Optional) The street name and building number where the sampling occurred.</t>
   </si>
   <si>
-    <t>room_architectural_elements</t>
+    <t>room architectural elements</t>
   </si>
   <si>
     <t>(Optional) The unique details and component parts that, together, form the architecture of a distinguishable space within a built structure</t>
   </si>
   <si>
-    <t>aerospace_structure</t>
+    <t>aerospace structure</t>
   </si>
   <si>
     <t>(Optional) Aerospace structures typically consist of thin plates with stiffeners for the external surfaces, bulkheads and frames to support the shape and fasteners such as welds, rivets, screws and bolts to hold the components together</t>
@@ -5423,211 +5408,211 @@
         <v>689</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="FX1" s="1" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="FY1" s="1" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="FZ1" s="1" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="GA1" s="1" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="GS1" s="1" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="GU1" s="1" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="GV1" s="1" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="GX1" s="1" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="GZ1" s="1" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="HA1" s="1" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="HD1" s="1" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="HE1" s="1" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="HF1" s="1" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="HH1" s="1" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="HI1" s="1" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="HJ1" s="1" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="2" spans="1:218" ht="150" customHeight="1">
@@ -6079,211 +6064,211 @@
         <v>690</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="EX2" s="2" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="EY2" s="2" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="EZ2" s="2" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="FA2" s="2" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="FB2" s="2" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="FC2" s="2" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="FD2" s="2" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="FE2" s="2" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="FF2" s="2" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="FG2" s="2" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="FH2" s="2" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="FI2" s="2" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="FK2" s="2" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="FL2" s="2" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="FM2" s="2" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="FN2" s="2" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="FO2" s="2" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="FP2" s="2" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="FQ2" s="2" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="FR2" s="2" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="FS2" s="2" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="FT2" s="2" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="FU2" s="2" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="FV2" s="2" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="FW2" s="2" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="FX2" s="2" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="FY2" s="2" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="FZ2" s="2" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="GA2" s="2" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="GB2" s="2" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="GC2" s="2" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="GD2" s="2" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="GE2" s="2" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="GF2" s="2" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="GG2" s="2" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="GH2" s="2" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="GI2" s="2" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="GJ2" s="2" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="GK2" s="2" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="GL2" s="2" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="GM2" s="2" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="GN2" s="2" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="GO2" s="2" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="GP2" s="2" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="GQ2" s="2" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="GR2" s="2" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="GS2" s="2" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="GT2" s="2" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="GU2" s="2" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="GV2" s="2" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="GW2" s="2" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="GX2" s="2" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="GY2" s="2" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="GZ2" s="2" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="HA2" s="2" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="HB2" s="2" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="HC2" s="2" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="HD2" s="2" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="HE2" s="2" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="HF2" s="2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="HG2" s="2" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="HH2" s="2" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="HI2" s="2" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="HJ2" s="2" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -6349,7 +6334,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1:FI294"/>
+  <dimension ref="F1:FI289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6408,7 +6393,7 @@
         <v>691</v>
       </c>
       <c r="FI1" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="2" spans="6:165">
@@ -6464,7 +6449,7 @@
         <v>692</v>
       </c>
       <c r="FI2" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="3" spans="6:165">
@@ -6517,7 +6502,7 @@
         <v>693</v>
       </c>
       <c r="FI3" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="4" spans="6:165">
@@ -6558,7 +6543,7 @@
         <v>694</v>
       </c>
       <c r="FI4" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="5" spans="6:165">
@@ -6596,7 +6581,7 @@
         <v>695</v>
       </c>
       <c r="FI5" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="6" spans="6:165">
@@ -8209,31 +8194,6 @@
     <row r="289" spans="150:150">
       <c r="ET289" t="s">
         <v>979</v>
-      </c>
-    </row>
-    <row r="290" spans="150:150">
-      <c r="ET290" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="291" spans="150:150">
-      <c r="ET291" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="292" spans="150:150">
-      <c r="ET292" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="293" spans="150:150">
-      <c r="ET293" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="294" spans="150:150">
-      <c r="ET294" t="s">
-        <v>984</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -17,38 +17,38 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="buildingoccupancytype">'cv_sample'!$AV$1:$AV$21</definedName>
-    <definedName name="buildingsetting">'cv_sample'!$AU$1:$AU$4</definedName>
+    <definedName name="buildingoccupancytype">'cv_sample'!$AX$1:$AX$21</definedName>
+    <definedName name="buildingsetting">'cv_sample'!$AW$1:$AW$4</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="filtertype">'cv_sample'!$AQ$1:$AQ$7</definedName>
-    <definedName name="frequencyofcleaning">'cv_sample'!$FI$1:$FI$5</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$ET$1:$ET$289</definedName>
-    <definedName name="heatingandcoolingsystemtype">'cv_sample'!$AR$1:$AR$5</definedName>
-    <definedName name="indoorspace">'cv_sample'!$AP$1:$AP$8</definedName>
-    <definedName name="indoorsurface">'cv_sample'!$AO$1:$AO$8</definedName>
+    <definedName name="filtertype">'cv_sample'!$AS$1:$AS$7</definedName>
+    <definedName name="frequencyofcleaning">'cv_sample'!$FK$1:$FK$5</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$EV$1:$EV$289</definedName>
+    <definedName name="heatingandcoolingsystemtype">'cv_sample'!$AT$1:$AT$5</definedName>
+    <definedName name="indoorspace">'cv_sample'!$AR$1:$AR$8</definedName>
+    <definedName name="indoorsurface">'cv_sample'!$AQ$1:$AQ$8</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="lighttype">'cv_sample'!$AT$1:$AT$3</definedName>
-    <definedName name="observedbioticrelationship">'cv_sample'!$G$1:$G$5</definedName>
+    <definedName name="lighttype">'cv_sample'!$AV$1:$AV$3</definedName>
+    <definedName name="observedbioticrelationship">'cv_sample'!$I$1:$I$5</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$I$1:$I$7</definedName>
-    <definedName name="sequencequalitycheck">'cv_sample'!$V$1:$V$3</definedName>
-    <definedName name="spacetypicalstate">'cv_sample'!$AW$1:$AW$2</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$K$1:$K$7</definedName>
+    <definedName name="sequencequalitycheck">'cv_sample'!$X$1:$X$3</definedName>
+    <definedName name="spacetypicalstate">'cv_sample'!$AY$1:$AY$2</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="substructuretype">'cv_sample'!$AS$1:$AS$3</definedName>
-    <definedName name="surfaceaircontaminant">'cv_sample'!$AN$1:$AN$8</definedName>
-    <definedName name="surfacematerial">'cv_sample'!$AM$1:$AM$15</definedName>
-    <definedName name="trophiclevel">'cv_sample'!$F$1:$F$30</definedName>
-    <definedName name="ventilationtype">'cv_sample'!$BA$1:$BA$3</definedName>
+    <definedName name="substructuretype">'cv_sample'!$AU$1:$AU$3</definedName>
+    <definedName name="surfaceaircontaminant">'cv_sample'!$AP$1:$AP$8</definedName>
+    <definedName name="surfacematerial">'cv_sample'!$AO$1:$AO$15</definedName>
+    <definedName name="trophiclevel">'cv_sample'!$H$1:$H$30</definedName>
+    <definedName name="ventilationtype">'cv_sample'!$BC$1:$BC$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="1127">
   <si>
     <t>alias</t>
   </si>
@@ -852,6 +852,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -4950,7 +4962,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:HJ2"/>
+  <dimension ref="A1:HL2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4959,7 +4971,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:218">
+    <row r="1" spans="1:220">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4976,19 +4988,19 @@
         <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>324</v>
@@ -5024,10 +5036,10 @@
         <v>344</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>353</v>
@@ -5075,40 +5087,40 @@
         <v>381</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="AW1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>490</v>
@@ -5117,10 +5129,10 @@
         <v>492</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>501</v>
@@ -5408,10 +5420,10 @@
         <v>689</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>980</v>
+        <v>691</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>982</v>
+        <v>693</v>
       </c>
       <c r="EV1" s="1" t="s">
         <v>984</v>
@@ -5453,10 +5465,10 @@
         <v>1008</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="FK1" s="1" t="s">
         <v>1019</v>
@@ -5614,8 +5626,14 @@
       <c r="HJ1" s="1" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="2" spans="1:218" ht="150" customHeight="1">
+      <c r="HK1" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:220" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -5632,19 +5650,19 @@
         <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>325</v>
@@ -5680,10 +5698,10 @@
         <v>345</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>354</v>
@@ -5731,40 +5749,40 @@
         <v>382</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="AW2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AX2" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="AY2" s="2" t="s">
         <v>491</v>
@@ -5773,10 +5791,10 @@
         <v>493</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="BC2" s="2" t="s">
         <v>502</v>
@@ -6064,10 +6082,10 @@
         <v>690</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>981</v>
+        <v>692</v>
       </c>
       <c r="EU2" s="2" t="s">
-        <v>983</v>
+        <v>694</v>
       </c>
       <c r="EV2" s="2" t="s">
         <v>985</v>
@@ -6109,10 +6127,10 @@
         <v>1009</v>
       </c>
       <c r="FI2" s="2" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="FK2" s="2" t="s">
         <v>1020</v>
@@ -6270,61 +6288,67 @@
       <c r="HJ2" s="2" t="s">
         <v>1122</v>
       </c>
+      <c r="HK2" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="HL2" s="2" t="s">
+        <v>1126</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
       <formula1>trophiclevel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
       <formula1>observedbioticrelationship</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
       <formula1>relationshiptooxygen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3:AO101">
       <formula1>surfacematerial</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP3:AP101">
       <formula1>surfaceaircontaminant</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3:AO101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ101">
       <formula1>indoorsurface</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP3:AP101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AR101">
       <formula1>indoorspace</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
       <formula1>filtertype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AR101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT101">
       <formula1>heatingandcoolingsystemtype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU3:AU101">
       <formula1>substructuretype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV3:AV101">
       <formula1>lighttype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU3:AU101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW3:AW101">
       <formula1>buildingsetting</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV3:AV101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX3:AX101">
       <formula1>buildingoccupancytype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW3:AW101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY3:AY101">
       <formula1>spacetypicalstate</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA3:BA101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC3:BC101">
       <formula1>ventilationtype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="ET3:ET101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EV3:EV101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FI3:FI101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FK3:FK101">
       <formula1>frequencyofcleaning</formula1>
     </dataValidation>
   </dataValidations>
@@ -6334,1866 +6358,1866 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1:FI289"/>
+  <dimension ref="H1:FK289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="6:165">
-      <c r="F1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" t="s">
+    <row r="1" spans="8:167">
+      <c r="H1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K1" t="s">
+        <v>317</v>
+      </c>
+      <c r="X1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>450</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>455</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>488</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>498</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>695</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="2" spans="8:167">
+      <c r="H2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K2" t="s">
+        <v>318</v>
+      </c>
+      <c r="X2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>388</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>415</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>461</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>489</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>499</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>696</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="3" spans="8:167">
+      <c r="H3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K3" t="s">
+        <v>319</v>
+      </c>
+      <c r="X3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>389</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>406</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>416</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>426</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>436</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>445</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>462</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>468</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>500</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>697</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="4" spans="8:167">
+      <c r="H4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I4" t="s">
+        <v>311</v>
+      </c>
+      <c r="K4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>417</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>427</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>437</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>446</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>463</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>469</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>698</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5" spans="8:167">
+      <c r="H5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" t="s">
+        <v>312</v>
+      </c>
+      <c r="K5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>391</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>408</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>418</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>428</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>438</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>447</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>470</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>699</v>
+      </c>
+      <c r="FK5" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="6" spans="8:167">
+      <c r="H6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>392</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>471</v>
+      </c>
+      <c r="EV6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="8:167">
+      <c r="H7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K7" t="s">
+        <v>323</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>393</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>410</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>420</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>430</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>440</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>472</v>
+      </c>
+      <c r="EV7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="8" spans="8:167">
+      <c r="H8" t="s">
+        <v>283</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>394</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>411</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>421</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>431</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>473</v>
+      </c>
+      <c r="EV8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="9" spans="8:167">
+      <c r="H9" t="s">
+        <v>284</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>395</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>474</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" spans="8:167">
+      <c r="H10" t="s">
+        <v>285</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>396</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>475</v>
+      </c>
+      <c r="EV10" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11" spans="8:167">
+      <c r="H11" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>397</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>476</v>
+      </c>
+      <c r="EV11" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="12" spans="8:167">
+      <c r="H12" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>398</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>431</v>
+      </c>
+      <c r="EV12" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="13" spans="8:167">
+      <c r="H13" t="s">
+        <v>288</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>477</v>
+      </c>
+      <c r="EV13" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14" spans="8:167">
+      <c r="H14" t="s">
+        <v>289</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>400</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>478</v>
+      </c>
+      <c r="EV14" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="15" spans="8:167">
+      <c r="H15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>401</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>479</v>
+      </c>
+      <c r="EV15" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="16" spans="8:167">
+      <c r="H16" t="s">
+        <v>291</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>480</v>
+      </c>
+      <c r="EV16" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="17" spans="8:152">
+      <c r="H17" t="s">
+        <v>292</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>481</v>
+      </c>
+      <c r="EV17" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="18" spans="8:152">
+      <c r="H18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>482</v>
+      </c>
+      <c r="EV18" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="19" spans="8:152">
+      <c r="H19" t="s">
+        <v>294</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>483</v>
+      </c>
+      <c r="EV19" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="20" spans="8:152">
+      <c r="H20" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>484</v>
+      </c>
+      <c r="EV20" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="21" spans="8:152">
+      <c r="H21" t="s">
+        <v>296</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>485</v>
+      </c>
+      <c r="EV21" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="22" spans="8:152">
+      <c r="H22" t="s">
+        <v>297</v>
+      </c>
+      <c r="EV22" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="23" spans="8:152">
+      <c r="H23" t="s">
+        <v>298</v>
+      </c>
+      <c r="EV23" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="24" spans="8:152">
+      <c r="H24" t="s">
+        <v>299</v>
+      </c>
+      <c r="EV24" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="25" spans="8:152">
+      <c r="H25" t="s">
+        <v>300</v>
+      </c>
+      <c r="EV25" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="26" spans="8:152">
+      <c r="H26" t="s">
+        <v>301</v>
+      </c>
+      <c r="EV26" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="27" spans="8:152">
+      <c r="H27" t="s">
+        <v>302</v>
+      </c>
+      <c r="EV27" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="28" spans="8:152">
+      <c r="H28" t="s">
+        <v>303</v>
+      </c>
+      <c r="EV28" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="29" spans="8:152">
+      <c r="H29" t="s">
         <v>304</v>
       </c>
-      <c r="I1" t="s">
-        <v>313</v>
-      </c>
-      <c r="V1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>400</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>420</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>430</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>439</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>451</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>456</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>462</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>484</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>494</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>691</v>
-      </c>
-      <c r="FI1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="2" spans="6:165">
-      <c r="F2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="EV29" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="30" spans="8:152">
+      <c r="H30" t="s">
         <v>305</v>
       </c>
-      <c r="I2" t="s">
-        <v>314</v>
-      </c>
-      <c r="V2" t="s">
-        <v>347</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>384</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>401</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>411</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>421</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>440</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>447</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>452</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>457</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>463</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>485</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>495</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>692</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="3" spans="6:165">
-      <c r="F3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I3" t="s">
-        <v>315</v>
-      </c>
-      <c r="V3" t="s">
-        <v>348</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>385</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>402</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>412</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>422</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>432</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>441</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>448</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>453</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>458</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>464</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>496</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>693</v>
-      </c>
-      <c r="FI3" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="4" spans="6:165">
-      <c r="F4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G4" t="s">
-        <v>307</v>
-      </c>
-      <c r="I4" t="s">
-        <v>316</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>386</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>403</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>413</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>433</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>442</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>459</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>465</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>694</v>
-      </c>
-      <c r="FI4" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="5" spans="6:165">
-      <c r="F5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G5" t="s">
-        <v>308</v>
-      </c>
-      <c r="I5" t="s">
-        <v>317</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>387</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>404</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>414</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>434</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>443</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>466</v>
-      </c>
-      <c r="ET5" t="s">
-        <v>695</v>
-      </c>
-      <c r="FI5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="6" spans="6:165">
-      <c r="F6" t="s">
-        <v>277</v>
-      </c>
-      <c r="I6" t="s">
-        <v>318</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>388</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>405</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>435</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>467</v>
-      </c>
-      <c r="ET6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="7" spans="6:165">
-      <c r="F7" t="s">
-        <v>278</v>
-      </c>
-      <c r="I7" t="s">
-        <v>319</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>389</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>406</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>416</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>426</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>436</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>468</v>
-      </c>
-      <c r="ET7" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="8" spans="6:165">
-      <c r="F8" t="s">
-        <v>279</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>390</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>407</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>417</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>427</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>469</v>
-      </c>
-      <c r="ET8" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="9" spans="6:165">
-      <c r="F9" t="s">
-        <v>280</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>391</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>470</v>
-      </c>
-      <c r="ET9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="10" spans="6:165">
-      <c r="F10" t="s">
-        <v>281</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>392</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>471</v>
-      </c>
-      <c r="ET10" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="11" spans="6:165">
-      <c r="F11" t="s">
-        <v>282</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>393</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>472</v>
-      </c>
-      <c r="ET11" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="12" spans="6:165">
-      <c r="F12" t="s">
-        <v>283</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>394</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>427</v>
-      </c>
-      <c r="ET12" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="13" spans="6:165">
-      <c r="F13" t="s">
-        <v>284</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>395</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>473</v>
-      </c>
-      <c r="ET13" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="14" spans="6:165">
-      <c r="F14" t="s">
-        <v>285</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>396</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>474</v>
-      </c>
-      <c r="ET14" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="15" spans="6:165">
-      <c r="F15" t="s">
-        <v>286</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>397</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>475</v>
-      </c>
-      <c r="ET15" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="16" spans="6:165">
-      <c r="F16" t="s">
-        <v>287</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>476</v>
-      </c>
-      <c r="ET16" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="17" spans="6:150">
-      <c r="F17" t="s">
-        <v>288</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>477</v>
-      </c>
-      <c r="ET17" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="18" spans="6:150">
-      <c r="F18" t="s">
-        <v>289</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>478</v>
-      </c>
-      <c r="ET18" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="19" spans="6:150">
-      <c r="F19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>479</v>
-      </c>
-      <c r="ET19" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="20" spans="6:150">
-      <c r="F20" t="s">
-        <v>291</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>480</v>
-      </c>
-      <c r="ET20" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="21" spans="6:150">
-      <c r="F21" t="s">
-        <v>292</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>481</v>
-      </c>
-      <c r="ET21" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="22" spans="6:150">
-      <c r="F22" t="s">
-        <v>293</v>
-      </c>
-      <c r="ET22" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="23" spans="6:150">
-      <c r="F23" t="s">
-        <v>294</v>
-      </c>
-      <c r="ET23" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="24" spans="6:150">
-      <c r="F24" t="s">
-        <v>295</v>
-      </c>
-      <c r="ET24" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="25" spans="6:150">
-      <c r="F25" t="s">
-        <v>296</v>
-      </c>
-      <c r="ET25" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="26" spans="6:150">
-      <c r="F26" t="s">
-        <v>297</v>
-      </c>
-      <c r="ET26" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="27" spans="6:150">
-      <c r="F27" t="s">
-        <v>298</v>
-      </c>
-      <c r="ET27" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="28" spans="6:150">
-      <c r="F28" t="s">
-        <v>299</v>
-      </c>
-      <c r="ET28" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="29" spans="6:150">
-      <c r="F29" t="s">
-        <v>300</v>
-      </c>
-      <c r="ET29" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="30" spans="6:150">
-      <c r="F30" t="s">
-        <v>301</v>
-      </c>
-      <c r="ET30" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="31" spans="6:150">
-      <c r="ET31" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="32" spans="6:150">
-      <c r="ET32" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="33" spans="150:150">
-      <c r="ET33" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="34" spans="150:150">
-      <c r="ET34" t="s">
+      <c r="EV30" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="35" spans="150:150">
-      <c r="ET35" t="s">
+    <row r="31" spans="8:152">
+      <c r="EV31" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="36" spans="150:150">
-      <c r="ET36" t="s">
+    <row r="32" spans="8:152">
+      <c r="EV32" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="37" spans="150:150">
-      <c r="ET37" t="s">
+    <row r="33" spans="152:152">
+      <c r="EV33" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="38" spans="150:150">
-      <c r="ET38" t="s">
+    <row r="34" spans="152:152">
+      <c r="EV34" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="39" spans="150:150">
-      <c r="ET39" t="s">
+    <row r="35" spans="152:152">
+      <c r="EV35" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="40" spans="150:150">
-      <c r="ET40" t="s">
+    <row r="36" spans="152:152">
+      <c r="EV36" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="41" spans="150:150">
-      <c r="ET41" t="s">
+    <row r="37" spans="152:152">
+      <c r="EV37" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="42" spans="150:150">
-      <c r="ET42" t="s">
+    <row r="38" spans="152:152">
+      <c r="EV38" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="43" spans="150:150">
-      <c r="ET43" t="s">
+    <row r="39" spans="152:152">
+      <c r="EV39" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="44" spans="150:150">
-      <c r="ET44" t="s">
+    <row r="40" spans="152:152">
+      <c r="EV40" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="45" spans="150:150">
-      <c r="ET45" t="s">
+    <row r="41" spans="152:152">
+      <c r="EV41" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="46" spans="150:150">
-      <c r="ET46" t="s">
+    <row r="42" spans="152:152">
+      <c r="EV42" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="47" spans="150:150">
-      <c r="ET47" t="s">
+    <row r="43" spans="152:152">
+      <c r="EV43" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="48" spans="150:150">
-      <c r="ET48" t="s">
+    <row r="44" spans="152:152">
+      <c r="EV44" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="49" spans="150:150">
-      <c r="ET49" t="s">
+    <row r="45" spans="152:152">
+      <c r="EV45" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="50" spans="150:150">
-      <c r="ET50" t="s">
+    <row r="46" spans="152:152">
+      <c r="EV46" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="51" spans="150:150">
-      <c r="ET51" t="s">
+    <row r="47" spans="152:152">
+      <c r="EV47" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="52" spans="150:150">
-      <c r="ET52" t="s">
+    <row r="48" spans="152:152">
+      <c r="EV48" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="53" spans="150:150">
-      <c r="ET53" t="s">
+    <row r="49" spans="152:152">
+      <c r="EV49" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="54" spans="150:150">
-      <c r="ET54" t="s">
+    <row r="50" spans="152:152">
+      <c r="EV50" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="55" spans="150:150">
-      <c r="ET55" t="s">
+    <row r="51" spans="152:152">
+      <c r="EV51" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="56" spans="150:150">
-      <c r="ET56" t="s">
+    <row r="52" spans="152:152">
+      <c r="EV52" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="57" spans="150:150">
-      <c r="ET57" t="s">
+    <row r="53" spans="152:152">
+      <c r="EV53" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="58" spans="150:150">
-      <c r="ET58" t="s">
+    <row r="54" spans="152:152">
+      <c r="EV54" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="59" spans="150:150">
-      <c r="ET59" t="s">
+    <row r="55" spans="152:152">
+      <c r="EV55" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="60" spans="150:150">
-      <c r="ET60" t="s">
+    <row r="56" spans="152:152">
+      <c r="EV56" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="61" spans="150:150">
-      <c r="ET61" t="s">
+    <row r="57" spans="152:152">
+      <c r="EV57" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="62" spans="150:150">
-      <c r="ET62" t="s">
+    <row r="58" spans="152:152">
+      <c r="EV58" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="63" spans="150:150">
-      <c r="ET63" t="s">
+    <row r="59" spans="152:152">
+      <c r="EV59" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="64" spans="150:150">
-      <c r="ET64" t="s">
+    <row r="60" spans="152:152">
+      <c r="EV60" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="65" spans="150:150">
-      <c r="ET65" t="s">
+    <row r="61" spans="152:152">
+      <c r="EV61" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="66" spans="150:150">
-      <c r="ET66" t="s">
+    <row r="62" spans="152:152">
+      <c r="EV62" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="67" spans="150:150">
-      <c r="ET67" t="s">
+    <row r="63" spans="152:152">
+      <c r="EV63" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="68" spans="150:150">
-      <c r="ET68" t="s">
+    <row r="64" spans="152:152">
+      <c r="EV64" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="69" spans="150:150">
-      <c r="ET69" t="s">
+    <row r="65" spans="152:152">
+      <c r="EV65" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="70" spans="150:150">
-      <c r="ET70" t="s">
+    <row r="66" spans="152:152">
+      <c r="EV66" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="71" spans="150:150">
-      <c r="ET71" t="s">
+    <row r="67" spans="152:152">
+      <c r="EV67" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="72" spans="150:150">
-      <c r="ET72" t="s">
+    <row r="68" spans="152:152">
+      <c r="EV68" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="73" spans="150:150">
-      <c r="ET73" t="s">
+    <row r="69" spans="152:152">
+      <c r="EV69" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="74" spans="150:150">
-      <c r="ET74" t="s">
+    <row r="70" spans="152:152">
+      <c r="EV70" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="75" spans="150:150">
-      <c r="ET75" t="s">
+    <row r="71" spans="152:152">
+      <c r="EV71" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="76" spans="150:150">
-      <c r="ET76" t="s">
+    <row r="72" spans="152:152">
+      <c r="EV72" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="77" spans="150:150">
-      <c r="ET77" t="s">
+    <row r="73" spans="152:152">
+      <c r="EV73" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="78" spans="150:150">
-      <c r="ET78" t="s">
+    <row r="74" spans="152:152">
+      <c r="EV74" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="79" spans="150:150">
-      <c r="ET79" t="s">
+    <row r="75" spans="152:152">
+      <c r="EV75" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="80" spans="150:150">
-      <c r="ET80" t="s">
+    <row r="76" spans="152:152">
+      <c r="EV76" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="81" spans="150:150">
-      <c r="ET81" t="s">
+    <row r="77" spans="152:152">
+      <c r="EV77" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="82" spans="150:150">
-      <c r="ET82" t="s">
+    <row r="78" spans="152:152">
+      <c r="EV78" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="83" spans="150:150">
-      <c r="ET83" t="s">
+    <row r="79" spans="152:152">
+      <c r="EV79" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="84" spans="150:150">
-      <c r="ET84" t="s">
+    <row r="80" spans="152:152">
+      <c r="EV80" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="85" spans="150:150">
-      <c r="ET85" t="s">
+    <row r="81" spans="152:152">
+      <c r="EV81" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="86" spans="150:150">
-      <c r="ET86" t="s">
+    <row r="82" spans="152:152">
+      <c r="EV82" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="87" spans="150:150">
-      <c r="ET87" t="s">
+    <row r="83" spans="152:152">
+      <c r="EV83" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="88" spans="150:150">
-      <c r="ET88" t="s">
+    <row r="84" spans="152:152">
+      <c r="EV84" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="89" spans="150:150">
-      <c r="ET89" t="s">
+    <row r="85" spans="152:152">
+      <c r="EV85" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="90" spans="150:150">
-      <c r="ET90" t="s">
+    <row r="86" spans="152:152">
+      <c r="EV86" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="91" spans="150:150">
-      <c r="ET91" t="s">
+    <row r="87" spans="152:152">
+      <c r="EV87" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="92" spans="150:150">
-      <c r="ET92" t="s">
+    <row r="88" spans="152:152">
+      <c r="EV88" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="93" spans="150:150">
-      <c r="ET93" t="s">
+    <row r="89" spans="152:152">
+      <c r="EV89" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="94" spans="150:150">
-      <c r="ET94" t="s">
+    <row r="90" spans="152:152">
+      <c r="EV90" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="95" spans="150:150">
-      <c r="ET95" t="s">
+    <row r="91" spans="152:152">
+      <c r="EV91" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="96" spans="150:150">
-      <c r="ET96" t="s">
+    <row r="92" spans="152:152">
+      <c r="EV92" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="97" spans="150:150">
-      <c r="ET97" t="s">
+    <row r="93" spans="152:152">
+      <c r="EV93" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="98" spans="150:150">
-      <c r="ET98" t="s">
+    <row r="94" spans="152:152">
+      <c r="EV94" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="99" spans="150:150">
-      <c r="ET99" t="s">
+    <row r="95" spans="152:152">
+      <c r="EV95" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="100" spans="150:150">
-      <c r="ET100" t="s">
+    <row r="96" spans="152:152">
+      <c r="EV96" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="101" spans="150:150">
-      <c r="ET101" t="s">
+    <row r="97" spans="152:152">
+      <c r="EV97" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="102" spans="150:150">
-      <c r="ET102" t="s">
+    <row r="98" spans="152:152">
+      <c r="EV98" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="103" spans="150:150">
-      <c r="ET103" t="s">
+    <row r="99" spans="152:152">
+      <c r="EV99" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="104" spans="150:150">
-      <c r="ET104" t="s">
+    <row r="100" spans="152:152">
+      <c r="EV100" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="105" spans="150:150">
-      <c r="ET105" t="s">
+    <row r="101" spans="152:152">
+      <c r="EV101" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="106" spans="150:150">
-      <c r="ET106" t="s">
+    <row r="102" spans="152:152">
+      <c r="EV102" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="107" spans="150:150">
-      <c r="ET107" t="s">
+    <row r="103" spans="152:152">
+      <c r="EV103" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="108" spans="150:150">
-      <c r="ET108" t="s">
+    <row r="104" spans="152:152">
+      <c r="EV104" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="109" spans="150:150">
-      <c r="ET109" t="s">
+    <row r="105" spans="152:152">
+      <c r="EV105" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="110" spans="150:150">
-      <c r="ET110" t="s">
+    <row r="106" spans="152:152">
+      <c r="EV106" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="111" spans="150:150">
-      <c r="ET111" t="s">
+    <row r="107" spans="152:152">
+      <c r="EV107" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="112" spans="150:150">
-      <c r="ET112" t="s">
+    <row r="108" spans="152:152">
+      <c r="EV108" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="113" spans="150:150">
-      <c r="ET113" t="s">
+    <row r="109" spans="152:152">
+      <c r="EV109" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="114" spans="150:150">
-      <c r="ET114" t="s">
+    <row r="110" spans="152:152">
+      <c r="EV110" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="115" spans="150:150">
-      <c r="ET115" t="s">
+    <row r="111" spans="152:152">
+      <c r="EV111" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="116" spans="150:150">
-      <c r="ET116" t="s">
+    <row r="112" spans="152:152">
+      <c r="EV112" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="117" spans="150:150">
-      <c r="ET117" t="s">
+    <row r="113" spans="152:152">
+      <c r="EV113" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="118" spans="150:150">
-      <c r="ET118" t="s">
+    <row r="114" spans="152:152">
+      <c r="EV114" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="119" spans="150:150">
-      <c r="ET119" t="s">
+    <row r="115" spans="152:152">
+      <c r="EV115" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="120" spans="150:150">
-      <c r="ET120" t="s">
+    <row r="116" spans="152:152">
+      <c r="EV116" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="121" spans="150:150">
-      <c r="ET121" t="s">
+    <row r="117" spans="152:152">
+      <c r="EV117" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="122" spans="150:150">
-      <c r="ET122" t="s">
+    <row r="118" spans="152:152">
+      <c r="EV118" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="123" spans="150:150">
-      <c r="ET123" t="s">
+    <row r="119" spans="152:152">
+      <c r="EV119" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="124" spans="150:150">
-      <c r="ET124" t="s">
+    <row r="120" spans="152:152">
+      <c r="EV120" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="125" spans="150:150">
-      <c r="ET125" t="s">
+    <row r="121" spans="152:152">
+      <c r="EV121" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="126" spans="150:150">
-      <c r="ET126" t="s">
+    <row r="122" spans="152:152">
+      <c r="EV122" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="127" spans="150:150">
-      <c r="ET127" t="s">
+    <row r="123" spans="152:152">
+      <c r="EV123" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="128" spans="150:150">
-      <c r="ET128" t="s">
+    <row r="124" spans="152:152">
+      <c r="EV124" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="129" spans="150:150">
-      <c r="ET129" t="s">
+    <row r="125" spans="152:152">
+      <c r="EV125" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="130" spans="150:150">
-      <c r="ET130" t="s">
+    <row r="126" spans="152:152">
+      <c r="EV126" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="131" spans="150:150">
-      <c r="ET131" t="s">
+    <row r="127" spans="152:152">
+      <c r="EV127" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="132" spans="150:150">
-      <c r="ET132" t="s">
+    <row r="128" spans="152:152">
+      <c r="EV128" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="133" spans="150:150">
-      <c r="ET133" t="s">
+    <row r="129" spans="152:152">
+      <c r="EV129" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="134" spans="150:150">
-      <c r="ET134" t="s">
+    <row r="130" spans="152:152">
+      <c r="EV130" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="135" spans="150:150">
-      <c r="ET135" t="s">
+    <row r="131" spans="152:152">
+      <c r="EV131" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="136" spans="150:150">
-      <c r="ET136" t="s">
+    <row r="132" spans="152:152">
+      <c r="EV132" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="137" spans="150:150">
-      <c r="ET137" t="s">
+    <row r="133" spans="152:152">
+      <c r="EV133" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="138" spans="150:150">
-      <c r="ET138" t="s">
+    <row r="134" spans="152:152">
+      <c r="EV134" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="139" spans="150:150">
-      <c r="ET139" t="s">
+    <row r="135" spans="152:152">
+      <c r="EV135" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="140" spans="150:150">
-      <c r="ET140" t="s">
+    <row r="136" spans="152:152">
+      <c r="EV136" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="141" spans="150:150">
-      <c r="ET141" t="s">
+    <row r="137" spans="152:152">
+      <c r="EV137" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="142" spans="150:150">
-      <c r="ET142" t="s">
+    <row r="138" spans="152:152">
+      <c r="EV138" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="143" spans="150:150">
-      <c r="ET143" t="s">
+    <row r="139" spans="152:152">
+      <c r="EV139" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="144" spans="150:150">
-      <c r="ET144" t="s">
+    <row r="140" spans="152:152">
+      <c r="EV140" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="145" spans="150:150">
-      <c r="ET145" t="s">
+    <row r="141" spans="152:152">
+      <c r="EV141" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="146" spans="150:150">
-      <c r="ET146" t="s">
+    <row r="142" spans="152:152">
+      <c r="EV142" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="147" spans="150:150">
-      <c r="ET147" t="s">
+    <row r="143" spans="152:152">
+      <c r="EV143" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="148" spans="150:150">
-      <c r="ET148" t="s">
+    <row r="144" spans="152:152">
+      <c r="EV144" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="149" spans="150:150">
-      <c r="ET149" t="s">
+    <row r="145" spans="152:152">
+      <c r="EV145" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="150" spans="150:150">
-      <c r="ET150" t="s">
+    <row r="146" spans="152:152">
+      <c r="EV146" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="151" spans="150:150">
-      <c r="ET151" t="s">
+    <row r="147" spans="152:152">
+      <c r="EV147" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="152" spans="150:150">
-      <c r="ET152" t="s">
+    <row r="148" spans="152:152">
+      <c r="EV148" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="153" spans="150:150">
-      <c r="ET153" t="s">
+    <row r="149" spans="152:152">
+      <c r="EV149" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="154" spans="150:150">
-      <c r="ET154" t="s">
+    <row r="150" spans="152:152">
+      <c r="EV150" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="155" spans="150:150">
-      <c r="ET155" t="s">
+    <row r="151" spans="152:152">
+      <c r="EV151" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="156" spans="150:150">
-      <c r="ET156" t="s">
+    <row r="152" spans="152:152">
+      <c r="EV152" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="157" spans="150:150">
-      <c r="ET157" t="s">
+    <row r="153" spans="152:152">
+      <c r="EV153" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="158" spans="150:150">
-      <c r="ET158" t="s">
+    <row r="154" spans="152:152">
+      <c r="EV154" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="159" spans="150:150">
-      <c r="ET159" t="s">
+    <row r="155" spans="152:152">
+      <c r="EV155" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="160" spans="150:150">
-      <c r="ET160" t="s">
+    <row r="156" spans="152:152">
+      <c r="EV156" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="161" spans="150:150">
-      <c r="ET161" t="s">
+    <row r="157" spans="152:152">
+      <c r="EV157" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="162" spans="150:150">
-      <c r="ET162" t="s">
+    <row r="158" spans="152:152">
+      <c r="EV158" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="163" spans="150:150">
-      <c r="ET163" t="s">
+    <row r="159" spans="152:152">
+      <c r="EV159" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="164" spans="150:150">
-      <c r="ET164" t="s">
+    <row r="160" spans="152:152">
+      <c r="EV160" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="165" spans="150:150">
-      <c r="ET165" t="s">
+    <row r="161" spans="152:152">
+      <c r="EV161" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="166" spans="150:150">
-      <c r="ET166" t="s">
+    <row r="162" spans="152:152">
+      <c r="EV162" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="167" spans="150:150">
-      <c r="ET167" t="s">
+    <row r="163" spans="152:152">
+      <c r="EV163" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="168" spans="150:150">
-      <c r="ET168" t="s">
+    <row r="164" spans="152:152">
+      <c r="EV164" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="169" spans="150:150">
-      <c r="ET169" t="s">
+    <row r="165" spans="152:152">
+      <c r="EV165" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="170" spans="150:150">
-      <c r="ET170" t="s">
+    <row r="166" spans="152:152">
+      <c r="EV166" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="171" spans="150:150">
-      <c r="ET171" t="s">
+    <row r="167" spans="152:152">
+      <c r="EV167" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="172" spans="150:150">
-      <c r="ET172" t="s">
+    <row r="168" spans="152:152">
+      <c r="EV168" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="173" spans="150:150">
-      <c r="ET173" t="s">
+    <row r="169" spans="152:152">
+      <c r="EV169" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="174" spans="150:150">
-      <c r="ET174" t="s">
+    <row r="170" spans="152:152">
+      <c r="EV170" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="175" spans="150:150">
-      <c r="ET175" t="s">
+    <row r="171" spans="152:152">
+      <c r="EV171" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="176" spans="150:150">
-      <c r="ET176" t="s">
+    <row r="172" spans="152:152">
+      <c r="EV172" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="177" spans="150:150">
-      <c r="ET177" t="s">
+    <row r="173" spans="152:152">
+      <c r="EV173" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="178" spans="150:150">
-      <c r="ET178" t="s">
+    <row r="174" spans="152:152">
+      <c r="EV174" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="179" spans="150:150">
-      <c r="ET179" t="s">
+    <row r="175" spans="152:152">
+      <c r="EV175" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="180" spans="150:150">
-      <c r="ET180" t="s">
+    <row r="176" spans="152:152">
+      <c r="EV176" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="181" spans="150:150">
-      <c r="ET181" t="s">
+    <row r="177" spans="152:152">
+      <c r="EV177" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="182" spans="150:150">
-      <c r="ET182" t="s">
+    <row r="178" spans="152:152">
+      <c r="EV178" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="183" spans="150:150">
-      <c r="ET183" t="s">
+    <row r="179" spans="152:152">
+      <c r="EV179" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="184" spans="150:150">
-      <c r="ET184" t="s">
+    <row r="180" spans="152:152">
+      <c r="EV180" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="185" spans="150:150">
-      <c r="ET185" t="s">
+    <row r="181" spans="152:152">
+      <c r="EV181" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="186" spans="150:150">
-      <c r="ET186" t="s">
+    <row r="182" spans="152:152">
+      <c r="EV182" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="187" spans="150:150">
-      <c r="ET187" t="s">
+    <row r="183" spans="152:152">
+      <c r="EV183" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="188" spans="150:150">
-      <c r="ET188" t="s">
+    <row r="184" spans="152:152">
+      <c r="EV184" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="189" spans="150:150">
-      <c r="ET189" t="s">
+    <row r="185" spans="152:152">
+      <c r="EV185" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="190" spans="150:150">
-      <c r="ET190" t="s">
+    <row r="186" spans="152:152">
+      <c r="EV186" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="191" spans="150:150">
-      <c r="ET191" t="s">
+    <row r="187" spans="152:152">
+      <c r="EV187" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="192" spans="150:150">
-      <c r="ET192" t="s">
+    <row r="188" spans="152:152">
+      <c r="EV188" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="193" spans="150:150">
-      <c r="ET193" t="s">
+    <row r="189" spans="152:152">
+      <c r="EV189" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="194" spans="150:150">
-      <c r="ET194" t="s">
+    <row r="190" spans="152:152">
+      <c r="EV190" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="195" spans="150:150">
-      <c r="ET195" t="s">
+    <row r="191" spans="152:152">
+      <c r="EV191" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="196" spans="150:150">
-      <c r="ET196" t="s">
+    <row r="192" spans="152:152">
+      <c r="EV192" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="197" spans="150:150">
-      <c r="ET197" t="s">
+    <row r="193" spans="152:152">
+      <c r="EV193" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="198" spans="150:150">
-      <c r="ET198" t="s">
+    <row r="194" spans="152:152">
+      <c r="EV194" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="199" spans="150:150">
-      <c r="ET199" t="s">
+    <row r="195" spans="152:152">
+      <c r="EV195" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="200" spans="150:150">
-      <c r="ET200" t="s">
+    <row r="196" spans="152:152">
+      <c r="EV196" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="201" spans="150:150">
-      <c r="ET201" t="s">
+    <row r="197" spans="152:152">
+      <c r="EV197" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="202" spans="150:150">
-      <c r="ET202" t="s">
+    <row r="198" spans="152:152">
+      <c r="EV198" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="203" spans="150:150">
-      <c r="ET203" t="s">
+    <row r="199" spans="152:152">
+      <c r="EV199" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="204" spans="150:150">
-      <c r="ET204" t="s">
+    <row r="200" spans="152:152">
+      <c r="EV200" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="205" spans="150:150">
-      <c r="ET205" t="s">
+    <row r="201" spans="152:152">
+      <c r="EV201" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="206" spans="150:150">
-      <c r="ET206" t="s">
+    <row r="202" spans="152:152">
+      <c r="EV202" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="207" spans="150:150">
-      <c r="ET207" t="s">
+    <row r="203" spans="152:152">
+      <c r="EV203" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="208" spans="150:150">
-      <c r="ET208" t="s">
+    <row r="204" spans="152:152">
+      <c r="EV204" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="209" spans="150:150">
-      <c r="ET209" t="s">
+    <row r="205" spans="152:152">
+      <c r="EV205" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="210" spans="150:150">
-      <c r="ET210" t="s">
+    <row r="206" spans="152:152">
+      <c r="EV206" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="211" spans="150:150">
-      <c r="ET211" t="s">
+    <row r="207" spans="152:152">
+      <c r="EV207" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="212" spans="150:150">
-      <c r="ET212" t="s">
+    <row r="208" spans="152:152">
+      <c r="EV208" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="213" spans="150:150">
-      <c r="ET213" t="s">
+    <row r="209" spans="152:152">
+      <c r="EV209" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="214" spans="150:150">
-      <c r="ET214" t="s">
+    <row r="210" spans="152:152">
+      <c r="EV210" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="215" spans="150:150">
-      <c r="ET215" t="s">
+    <row r="211" spans="152:152">
+      <c r="EV211" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="216" spans="150:150">
-      <c r="ET216" t="s">
+    <row r="212" spans="152:152">
+      <c r="EV212" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="217" spans="150:150">
-      <c r="ET217" t="s">
+    <row r="213" spans="152:152">
+      <c r="EV213" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="218" spans="150:150">
-      <c r="ET218" t="s">
+    <row r="214" spans="152:152">
+      <c r="EV214" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="219" spans="150:150">
-      <c r="ET219" t="s">
+    <row r="215" spans="152:152">
+      <c r="EV215" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="220" spans="150:150">
-      <c r="ET220" t="s">
+    <row r="216" spans="152:152">
+      <c r="EV216" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="221" spans="150:150">
-      <c r="ET221" t="s">
+    <row r="217" spans="152:152">
+      <c r="EV217" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="222" spans="150:150">
-      <c r="ET222" t="s">
+    <row r="218" spans="152:152">
+      <c r="EV218" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="223" spans="150:150">
-      <c r="ET223" t="s">
+    <row r="219" spans="152:152">
+      <c r="EV219" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="224" spans="150:150">
-      <c r="ET224" t="s">
+    <row r="220" spans="152:152">
+      <c r="EV220" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="225" spans="150:150">
-      <c r="ET225" t="s">
+    <row r="221" spans="152:152">
+      <c r="EV221" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="226" spans="150:150">
-      <c r="ET226" t="s">
+    <row r="222" spans="152:152">
+      <c r="EV222" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="227" spans="150:150">
-      <c r="ET227" t="s">
+    <row r="223" spans="152:152">
+      <c r="EV223" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="228" spans="150:150">
-      <c r="ET228" t="s">
+    <row r="224" spans="152:152">
+      <c r="EV224" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="229" spans="150:150">
-      <c r="ET229" t="s">
+    <row r="225" spans="152:152">
+      <c r="EV225" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="230" spans="150:150">
-      <c r="ET230" t="s">
+    <row r="226" spans="152:152">
+      <c r="EV226" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="231" spans="150:150">
-      <c r="ET231" t="s">
+    <row r="227" spans="152:152">
+      <c r="EV227" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="232" spans="150:150">
-      <c r="ET232" t="s">
+    <row r="228" spans="152:152">
+      <c r="EV228" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="233" spans="150:150">
-      <c r="ET233" t="s">
+    <row r="229" spans="152:152">
+      <c r="EV229" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="234" spans="150:150">
-      <c r="ET234" t="s">
+    <row r="230" spans="152:152">
+      <c r="EV230" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="235" spans="150:150">
-      <c r="ET235" t="s">
+    <row r="231" spans="152:152">
+      <c r="EV231" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="236" spans="150:150">
-      <c r="ET236" t="s">
+    <row r="232" spans="152:152">
+      <c r="EV232" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="237" spans="150:150">
-      <c r="ET237" t="s">
+    <row r="233" spans="152:152">
+      <c r="EV233" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="238" spans="150:150">
-      <c r="ET238" t="s">
+    <row r="234" spans="152:152">
+      <c r="EV234" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="239" spans="150:150">
-      <c r="ET239" t="s">
+    <row r="235" spans="152:152">
+      <c r="EV235" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="240" spans="150:150">
-      <c r="ET240" t="s">
+    <row r="236" spans="152:152">
+      <c r="EV236" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="241" spans="150:150">
-      <c r="ET241" t="s">
+    <row r="237" spans="152:152">
+      <c r="EV237" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="242" spans="150:150">
-      <c r="ET242" t="s">
+    <row r="238" spans="152:152">
+      <c r="EV238" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="243" spans="150:150">
-      <c r="ET243" t="s">
+    <row r="239" spans="152:152">
+      <c r="EV239" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="244" spans="150:150">
-      <c r="ET244" t="s">
+    <row r="240" spans="152:152">
+      <c r="EV240" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="245" spans="150:150">
-      <c r="ET245" t="s">
+    <row r="241" spans="152:152">
+      <c r="EV241" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="246" spans="150:150">
-      <c r="ET246" t="s">
+    <row r="242" spans="152:152">
+      <c r="EV242" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="247" spans="150:150">
-      <c r="ET247" t="s">
+    <row r="243" spans="152:152">
+      <c r="EV243" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="248" spans="150:150">
-      <c r="ET248" t="s">
+    <row r="244" spans="152:152">
+      <c r="EV244" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="249" spans="150:150">
-      <c r="ET249" t="s">
+    <row r="245" spans="152:152">
+      <c r="EV245" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="250" spans="150:150">
-      <c r="ET250" t="s">
+    <row r="246" spans="152:152">
+      <c r="EV246" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="251" spans="150:150">
-      <c r="ET251" t="s">
+    <row r="247" spans="152:152">
+      <c r="EV247" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="252" spans="150:150">
-      <c r="ET252" t="s">
+    <row r="248" spans="152:152">
+      <c r="EV248" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="253" spans="150:150">
-      <c r="ET253" t="s">
+    <row r="249" spans="152:152">
+      <c r="EV249" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="254" spans="150:150">
-      <c r="ET254" t="s">
+    <row r="250" spans="152:152">
+      <c r="EV250" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="255" spans="150:150">
-      <c r="ET255" t="s">
+    <row r="251" spans="152:152">
+      <c r="EV251" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="256" spans="150:150">
-      <c r="ET256" t="s">
+    <row r="252" spans="152:152">
+      <c r="EV252" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="257" spans="150:150">
-      <c r="ET257" t="s">
+    <row r="253" spans="152:152">
+      <c r="EV253" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="258" spans="150:150">
-      <c r="ET258" t="s">
+    <row r="254" spans="152:152">
+      <c r="EV254" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="259" spans="150:150">
-      <c r="ET259" t="s">
+    <row r="255" spans="152:152">
+      <c r="EV255" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="260" spans="150:150">
-      <c r="ET260" t="s">
+    <row r="256" spans="152:152">
+      <c r="EV256" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="261" spans="150:150">
-      <c r="ET261" t="s">
+    <row r="257" spans="152:152">
+      <c r="EV257" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="262" spans="150:150">
-      <c r="ET262" t="s">
+    <row r="258" spans="152:152">
+      <c r="EV258" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="263" spans="150:150">
-      <c r="ET263" t="s">
+    <row r="259" spans="152:152">
+      <c r="EV259" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="264" spans="150:150">
-      <c r="ET264" t="s">
+    <row r="260" spans="152:152">
+      <c r="EV260" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="265" spans="150:150">
-      <c r="ET265" t="s">
+    <row r="261" spans="152:152">
+      <c r="EV261" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="266" spans="150:150">
-      <c r="ET266" t="s">
+    <row r="262" spans="152:152">
+      <c r="EV262" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="267" spans="150:150">
-      <c r="ET267" t="s">
+    <row r="263" spans="152:152">
+      <c r="EV263" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="268" spans="150:150">
-      <c r="ET268" t="s">
+    <row r="264" spans="152:152">
+      <c r="EV264" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="269" spans="150:150">
-      <c r="ET269" t="s">
+    <row r="265" spans="152:152">
+      <c r="EV265" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="270" spans="150:150">
-      <c r="ET270" t="s">
+    <row r="266" spans="152:152">
+      <c r="EV266" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="271" spans="150:150">
-      <c r="ET271" t="s">
+    <row r="267" spans="152:152">
+      <c r="EV267" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="272" spans="150:150">
-      <c r="ET272" t="s">
+    <row r="268" spans="152:152">
+      <c r="EV268" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="273" spans="150:150">
-      <c r="ET273" t="s">
+    <row r="269" spans="152:152">
+      <c r="EV269" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="274" spans="150:150">
-      <c r="ET274" t="s">
+    <row r="270" spans="152:152">
+      <c r="EV270" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="275" spans="150:150">
-      <c r="ET275" t="s">
+    <row r="271" spans="152:152">
+      <c r="EV271" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="276" spans="150:150">
-      <c r="ET276" t="s">
+    <row r="272" spans="152:152">
+      <c r="EV272" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="277" spans="150:150">
-      <c r="ET277" t="s">
+    <row r="273" spans="152:152">
+      <c r="EV273" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="278" spans="150:150">
-      <c r="ET278" t="s">
+    <row r="274" spans="152:152">
+      <c r="EV274" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="279" spans="150:150">
-      <c r="ET279" t="s">
+    <row r="275" spans="152:152">
+      <c r="EV275" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="280" spans="150:150">
-      <c r="ET280" t="s">
+    <row r="276" spans="152:152">
+      <c r="EV276" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="281" spans="150:150">
-      <c r="ET281" t="s">
+    <row r="277" spans="152:152">
+      <c r="EV277" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="282" spans="150:150">
-      <c r="ET282" t="s">
+    <row r="278" spans="152:152">
+      <c r="EV278" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="283" spans="150:150">
-      <c r="ET283" t="s">
+    <row r="279" spans="152:152">
+      <c r="EV279" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="284" spans="150:150">
-      <c r="ET284" t="s">
+    <row r="280" spans="152:152">
+      <c r="EV280" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="285" spans="150:150">
-      <c r="ET285" t="s">
+    <row r="281" spans="152:152">
+      <c r="EV281" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="286" spans="150:150">
-      <c r="ET286" t="s">
+    <row r="282" spans="152:152">
+      <c r="EV282" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="287" spans="150:150">
-      <c r="ET287" t="s">
+    <row r="283" spans="152:152">
+      <c r="EV283" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="288" spans="150:150">
-      <c r="ET288" t="s">
+    <row r="284" spans="152:152">
+      <c r="EV284" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="289" spans="150:150">
-      <c r="ET289" t="s">
+    <row r="285" spans="152:152">
+      <c r="EV285" t="s">
         <v>979</v>
+      </c>
+    </row>
+    <row r="286" spans="152:152">
+      <c r="EV286" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="287" spans="152:152">
+      <c r="EV287" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="288" spans="152:152">
+      <c r="EV288" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="289" spans="152:152">
+      <c r="EV289" t="s">
+        <v>983</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -22,7 +22,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="filtertype">'cv_sample'!$AS$1:$AS$7</definedName>
     <definedName name="frequencyofcleaning">'cv_sample'!$FK$1:$FK$5</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$EV$1:$EV$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$EV$1:$EV$294</definedName>
     <definedName name="heatingandcoolingsystemtype">'cv_sample'!$AT$1:$AT$5</definedName>
     <definedName name="indoorspace">'cv_sample'!$AR$1:$AR$8</definedName>
     <definedName name="indoorsurface">'cv_sample'!$AQ$1:$AQ$8</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="1132">
   <si>
     <t>alias</t>
   </si>
@@ -1652,19 +1652,19 @@
     <t>inside lux light</t>
   </si>
   <si>
-    <t>(Optional) The recorded value at sampling time (power density) (Units: kg s−3)</t>
+    <t>(Optional) The recorded value at sampling time (power density) (Units: W/m2, kg s−3)</t>
   </si>
   <si>
     <t>exposed ductwork</t>
   </si>
   <si>
-    <t>(Optional) The amount of exposed ductwork in the room (Units: kg s−3)</t>
+    <t>(Optional) The amount of exposed ductwork in the room (Units: W/m2, kg s−3)</t>
   </si>
   <si>
     <t>door material</t>
   </si>
   <si>
-    <t>(Optional) The material the door is composed of (Units: kg s−3)</t>
+    <t>(Optional) The material the door is composed of (Units: W/m2, kg s−3)</t>
   </si>
   <si>
     <t>adjacent rooms</t>
@@ -1676,13 +1676,13 @@
     <t>wall thermal mass</t>
   </si>
   <si>
-    <t>(Optional) The ability of the wall to provide inertia against temperature fluctuations. generally this means concrete or concrete block that is either exposed or covered only with paint (Units: J/°C)</t>
+    <t>(Optional) The ability of the wall to provide inertia against temperature fluctuations. generally this means concrete or concrete block that is either exposed or covered only with paint (Units: Cth, J/K, J/°C)</t>
   </si>
   <si>
     <t>ceiling signs of water/mold</t>
   </si>
   <si>
-    <t>(Optional) Signs of the presence of mold or mildew on the ceiling (Units: J/°C)</t>
+    <t>(Optional) Signs of the presence of mold or mildew on the ceiling (Units: Cth, J/K, J/°C)</t>
   </si>
   <si>
     <t>window status</t>
@@ -1694,25 +1694,25 @@
     <t>door location</t>
   </si>
   <si>
-    <t>(Optional) The relative location of the door in the room (Units: year)</t>
+    <t>(Optional) The relative location of the door in the room (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>window signs of water/mold</t>
   </si>
   <si>
-    <t>(Optional) Signs of the presence of mold or mildew on the window. (Units: year)</t>
+    <t>(Optional) Signs of the presence of mold or mildew on the window. (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>window type</t>
   </si>
   <si>
-    <t>(Optional) The type of windows (Units: ppm)</t>
+    <t>(Optional) The type of windows (Units: mg/L, ppm)</t>
   </si>
   <si>
     <t>window material</t>
   </si>
   <si>
-    <t>(Optional) The type of material used to finish a window (Units: g/m3)</t>
+    <t>(Optional) The type of material used to finish a window (Units: g/m3, %)</t>
   </si>
   <si>
     <t>window horizontal position</t>
@@ -1724,13 +1724,13 @@
     <t>room condition</t>
   </si>
   <si>
-    <t>(Optional) The condition of the room at the time of sampling (Units: mm)</t>
+    <t>(Optional) The condition of the room at the time of sampling (Units: mm, km, m)</t>
   </si>
   <si>
     <t>window area/size</t>
   </si>
   <si>
-    <t>(Optional) The window's length and width (Units: mm)</t>
+    <t>(Optional) The window's length and width (Units: mm, km, m)</t>
   </si>
   <si>
     <t>sampling floor</t>
@@ -1808,103 +1808,103 @@
     <t>room air exchange rate</t>
   </si>
   <si>
-    <t>(Optional) The rate at which outside air replaces indoor air in a given space (Units: year)</t>
+    <t>(Optional) The rate at which outside air replaces indoor air in a given space (Units: week, hour, month, year)</t>
   </si>
   <si>
     <t>bathroom count</t>
   </si>
   <si>
-    <t>(Optional) The number of bathrooms in the building (Units: year)</t>
+    <t>(Optional) The number of bathrooms in the building (Units: week, hour, month, year)</t>
   </si>
   <si>
     <t>shading device signs of water/mold</t>
   </si>
   <si>
-    <t>(Optional) Signs of the presence of mold or mildew on the shading device (Units: year)</t>
+    <t>(Optional) Signs of the presence of mold or mildew on the shading device (Units: week, hour, month, year)</t>
   </si>
   <si>
     <t>window covering</t>
   </si>
   <si>
-    <t>(Optional) The type of window covering (Units: year)</t>
+    <t>(Optional) The type of window covering (Units: week, hour, month, year)</t>
   </si>
   <si>
     <t>ceiling texture</t>
   </si>
   <si>
-    <t>(Optional) The feel, appearance, or consistency of a ceiling surface (Units: year)</t>
+    <t>(Optional) The feel, appearance, or consistency of a ceiling surface (Units: week, hour, month, year)</t>
   </si>
   <si>
     <t>maximum occupancy</t>
   </si>
   <si>
-    <t>(Optional) The maximum amount of people allowed in the indoor environment (Units: year)</t>
+    <t>(Optional) The maximum amount of people allowed in the indoor environment (Units: week, hour, month, year)</t>
   </si>
   <si>
     <t>gender of restroom</t>
   </si>
   <si>
-    <t>(Optional) The gender type of the restroom (Units: year)</t>
+    <t>(Optional) The gender type of the restroom (Units: week, hour, month, year)</t>
   </si>
   <si>
     <t>ceiling condition</t>
   </si>
   <si>
-    <t>(Optional) The physical condition of the ceiling at the time of sampling; photos or video preferred; use drawings to indicate location of damaged areas (Units: year)</t>
+    <t>(Optional) The physical condition of the ceiling at the time of sampling; photos or video preferred; use drawings to indicate location of damaged areas (Units: week, hour, month, year)</t>
   </si>
   <si>
     <t>floor structure</t>
   </si>
   <si>
-    <t>(Optional) Refers to the structural elements and subfloor upon which the finish flooring is installed (Units: year)</t>
+    <t>(Optional) Refers to the structural elements and subfloor upon which the finish flooring is installed (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>rooms that share a wall with sampling room</t>
   </si>
   <si>
-    <t>(Optional) List of room(s) (room number, room name) sharing a wall with the sampling room (Units: year)</t>
+    <t>(Optional) List of room(s) (room number, room name) sharing a wall with the sampling room (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>wall finish material</t>
   </si>
   <si>
-    <t>(Optional) The material utilized to finish the outer most layer of the wall (Units: year)</t>
+    <t>(Optional) The material utilized to finish the outer most layer of the wall (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>room occupancy</t>
   </si>
   <si>
-    <t>(Optional) Count of room occupancy at time of sampling (Units: year)</t>
+    <t>(Optional) Count of room occupancy at time of sampling (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>room location in building</t>
   </si>
   <si>
-    <t>(Optional) The position of the room within the building (Units: year)</t>
+    <t>(Optional) The position of the room within the building (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>floor finish material</t>
   </si>
   <si>
-    <t>(Optional) The floor covering type; the finished surface that is walked on (Units: year)</t>
+    <t>(Optional) The floor covering type; the finished surface that is walked on (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>room window count</t>
   </si>
   <si>
-    <t>(Optional) Number of windows in the room (Units: year)</t>
+    <t>(Optional) Number of windows in the room (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>sampling room id or name</t>
   </si>
   <si>
-    <t>(Optional) Explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other). (Units: year)</t>
+    <t>(Optional) Explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other). (Units: week, hour, month, year, day)</t>
   </si>
   <si>
     <t>height carpet fiber mat</t>
   </si>
   <si>
-    <t>(Optional) The average carpet fiber height in the indoor environment (Units: mm)</t>
+    <t>(Optional) The average carpet fiber height in the indoor environment (Units: mm, cm)</t>
   </si>
   <si>
     <t>ceiling area</t>
@@ -1934,7 +1934,7 @@
     <t>door signs of water/mold</t>
   </si>
   <si>
-    <t>(Optional) Signs of the presence of mold or mildew on a door (Units: minute)</t>
+    <t>(Optional) Signs of the presence of mold or mildew on a door (Units: %, minute)</t>
   </si>
   <si>
     <t>room net area</t>
@@ -1946,19 +1946,19 @@
     <t>ceiling thermal mass</t>
   </si>
   <si>
-    <t>(Optional) The ability of the ceiling to provide inertia against temperature fluctuations. generally this means concrete that is exposed. a metal deck that supports a concrete slab will act thermally as long as it is exposed to room air flow (Units: J/°C)</t>
+    <t>(Optional) The ability of the ceiling to provide inertia against temperature fluctuations. generally this means concrete that is exposed. a metal deck that supports a concrete slab will act thermally as long as it is exposed to room air flow (Units: Cth, J/K, J/°C)</t>
   </si>
   <si>
     <t>rooms that share a door with sampling room</t>
   </si>
   <si>
-    <t>(Optional) List of room(s) (room number, room name) sharing a door with the sampling room (Units: year)</t>
+    <t>(Optional) List of room(s) (room number, room name) sharing a door with the sampling room (Units: week, year, day)</t>
   </si>
   <si>
     <t>orientations of exterior window</t>
   </si>
   <si>
-    <t>(Optional) The compass direction the exterior window of the room is facing (Units: year)</t>
+    <t>(Optional) The compass direction the exterior window of the room is facing (Units: week, year, day)</t>
   </si>
   <si>
     <t>wall location</t>
@@ -2066,13 +2066,13 @@
     <t>floor age</t>
   </si>
   <si>
-    <t>(Optional) The time period since instalment of the carpet or flooring (Units: year)</t>
+    <t>(Optional) The time period since instalment of the carpet or flooring (Units: century, week, month, year)</t>
   </si>
   <si>
     <t>rooms connected by a doorway</t>
   </si>
   <si>
-    <t>(Optional) List of rooms connected to the sampling room by a doorway (Units: year)</t>
+    <t>(Optional) List of rooms connected to the sampling room by a doorway (Units: century, week, month, year)</t>
   </si>
   <si>
     <t>specifications</t>
@@ -2102,13 +2102,13 @@
     <t>water feature size</t>
   </si>
   <si>
-    <t>(Optional) The size of the water feature (Units: m2)</t>
+    <t>(Optional) The size of the water feature (Units: km2, m2, cm2, ha)</t>
   </si>
   <si>
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>sample size sorting method</t>
@@ -2132,7 +2132,7 @@
     <t>handidness</t>
   </si>
   <si>
-    <t>(Optional) The handidness of the individual sampled (Units: year)</t>
+    <t>(Optional) The handidness of the individual sampled (Units: week, hour, month, year)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -2348,9 +2348,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -2369,6 +2366,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -2570,6 +2570,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -2579,9 +2582,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -2621,7 +2621,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -2690,6 +2690,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -2765,6 +2768,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -2786,6 +2792,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -2831,6 +2840,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2843,6 +2855,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2852,9 +2867,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2879,6 +2891,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2939,12 +2954,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -3053,7 +3068,7 @@
     <t>surface moisture</t>
   </si>
   <si>
-    <t>(Optional) Water held on the surface (Units: parts/million)</t>
+    <t>(Optional) Water held on the surface (Units: g/m3, g/m2, parts/million)</t>
   </si>
   <si>
     <t>surface moisture pH</t>
@@ -3110,7 +3125,7 @@
     <t>frequency of cleaning</t>
   </si>
   <si>
-    <t>(Optional) The number of times the sample location is cleaned. frequency of cleaning might be on a daily basis, weekly, monthly, quarterly or annually. (Units: year)</t>
+    <t>(Optional) The number of times the sample location is cleaned. frequency of cleaning might be on a daily basis, weekly, monthly, quarterly or annually. (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>carbon dioxide</t>
@@ -3128,7 +3143,7 @@
     <t>seasonal use</t>
   </si>
   <si>
-    <t>(Optional) The seasons the space is occupied (Units: year)</t>
+    <t>(Optional) The seasons the space is occupied (Units: century, week, month, year)</t>
   </si>
   <si>
     <t>season</t>
@@ -3218,7 +3233,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: g, ng, mg, mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -3290,7 +3305,7 @@
     <t>sampling day weather</t>
   </si>
   <si>
-    <t>(Optional) The weather on the sampling day (Units: g/m3)</t>
+    <t>(Optional) The weather on the sampling day (Units: g/m3, %)</t>
   </si>
   <si>
     <t>amount of light</t>
@@ -3308,13 +3323,13 @@
     <t>outside relative humidity</t>
   </si>
   <si>
-    <t>(Optional) The recorded outside relative humidity value at the time of sampling (Units: g/m3)</t>
+    <t>(Optional) The recorded outside relative humidity value at the time of sampling (Units: g/m3, %)</t>
   </si>
   <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
   <si>
     <t>door area or size</t>
@@ -3350,43 +3365,43 @@
     <t>design, construction, and operation documents</t>
   </si>
   <si>
-    <t>(Optional) The building design, construction and operation documents (Units: year)</t>
+    <t>(Optional) The building design, construction and operation documents (Units: week, hour, month, year)</t>
   </si>
   <si>
     <t>shading device condition</t>
   </si>
   <si>
-    <t>(Optional) The physical condition of the shading device at the time of sampling (Units: year)</t>
+    <t>(Optional) The physical condition of the shading device at the time of sampling (Units: week, hour, month, year)</t>
   </si>
   <si>
     <t>occupancy documentation</t>
   </si>
   <si>
-    <t>(Optional) The type of documentation of occupancy (Units: year)</t>
+    <t>(Optional) The type of documentation of occupancy (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>floor count</t>
   </si>
   <si>
-    <t>(Optional) The number of floors in the building, including basements and mechanical penthouse (Units: year)</t>
+    <t>(Optional) The number of floors in the building, including basements and mechanical penthouse (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>shading device material</t>
   </si>
   <si>
-    <t>(Optional) The material the shading device is composed of (Units: year)</t>
+    <t>(Optional) The material the shading device is composed of (Units: week, hour, month, year, day, minute)</t>
   </si>
   <si>
     <t>built structure age</t>
   </si>
   <si>
-    <t>(Optional) The age of the built structure since construction (Units: year)</t>
+    <t>(Optional) The age of the built structure since construction (Units: week, hour, month, year, day)</t>
   </si>
   <si>
     <t>hallway/corridor count</t>
   </si>
   <si>
-    <t>(Optional) The total count of hallways and corridors in the built structure (Units: g/m3)</t>
+    <t>(Optional) The total count of hallways and corridors in the built structure (Units: g/m3, %)</t>
   </si>
   <si>
     <t>architectural structure</t>
@@ -3410,7 +3425,7 @@
     <t>drawings</t>
   </si>
   <si>
-    <t>(Optional) The buildings architectural drawings; if design is chosen, indicate phase-conceptual, schematic, design development, and construction documents (Units: year)</t>
+    <t>(Optional) The buildings architectural drawings; if design is chosen, indicate phase-conceptual, schematic, design development, and construction documents (Units: century, week, month, year)</t>
   </si>
   <si>
     <t>address</t>
@@ -5426,211 +5441,211 @@
         <v>693</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="FX1" s="1" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="FY1" s="1" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="FZ1" s="1" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="GA1" s="1" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="GS1" s="1" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="GU1" s="1" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="GV1" s="1" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="GX1" s="1" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="GZ1" s="1" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="HA1" s="1" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="HD1" s="1" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="HE1" s="1" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="HF1" s="1" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="HH1" s="1" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="HI1" s="1" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="HJ1" s="1" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="HK1" s="1" t="s">
-        <v>1123</v>
+        <v>1128</v>
       </c>
       <c r="HL1" s="1" t="s">
-        <v>1125</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:220" ht="150" customHeight="1">
@@ -6088,211 +6103,211 @@
         <v>694</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="EX2" s="2" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="EY2" s="2" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="EZ2" s="2" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="FA2" s="2" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="FB2" s="2" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="FC2" s="2" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="FD2" s="2" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="FE2" s="2" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="FF2" s="2" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="FG2" s="2" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="FH2" s="2" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="FI2" s="2" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="FK2" s="2" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="FL2" s="2" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="FM2" s="2" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="FN2" s="2" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="FO2" s="2" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="FP2" s="2" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="FQ2" s="2" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="FR2" s="2" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="FS2" s="2" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="FT2" s="2" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="FU2" s="2" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="FV2" s="2" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="FW2" s="2" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="FX2" s="2" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="FY2" s="2" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="FZ2" s="2" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="GA2" s="2" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="GB2" s="2" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="GC2" s="2" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="GD2" s="2" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="GE2" s="2" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="GF2" s="2" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="GG2" s="2" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="GH2" s="2" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="GI2" s="2" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="GJ2" s="2" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="GK2" s="2" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="GL2" s="2" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="GM2" s="2" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="GN2" s="2" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="GO2" s="2" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="GP2" s="2" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="GQ2" s="2" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="GR2" s="2" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="GS2" s="2" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="GT2" s="2" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="GU2" s="2" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="GV2" s="2" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="GW2" s="2" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="GX2" s="2" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="GY2" s="2" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="GZ2" s="2" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="HA2" s="2" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="HB2" s="2" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="HC2" s="2" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="HD2" s="2" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="HE2" s="2" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="HF2" s="2" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="HG2" s="2" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="HH2" s="2" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="HI2" s="2" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="HJ2" s="2" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="HK2" s="2" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="HL2" s="2" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
@@ -6358,7 +6373,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:FK289"/>
+  <dimension ref="H1:FK294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6417,7 +6432,7 @@
         <v>695</v>
       </c>
       <c r="FK1" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="2" spans="8:167">
@@ -6473,7 +6488,7 @@
         <v>696</v>
       </c>
       <c r="FK2" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3" spans="8:167">
@@ -6526,7 +6541,7 @@
         <v>697</v>
       </c>
       <c r="FK3" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="4" spans="8:167">
@@ -6567,7 +6582,7 @@
         <v>698</v>
       </c>
       <c r="FK4" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" spans="8:167">
@@ -6605,7 +6620,7 @@
         <v>699</v>
       </c>
       <c r="FK5" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="6" spans="8:167">
@@ -8218,6 +8233,31 @@
     <row r="289" spans="152:152">
       <c r="EV289" t="s">
         <v>983</v>
+      </c>
+    </row>
+    <row r="290" spans="152:152">
+      <c r="EV290" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="291" spans="152:152">
+      <c r="EV291" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="292" spans="152:152">
+      <c r="EV292" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="293" spans="152:152">
+      <c r="EV293" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="294" spans="152:152">
+      <c r="EV294" t="s">
+        <v>988</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000031/metadata_template_ERC000031.xlsx
+++ b/templates/ERC000031/metadata_template_ERC000031.xlsx
@@ -22,7 +22,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="filtertype">'cv_sample'!$AS$1:$AS$7</definedName>
     <definedName name="frequencyofcleaning">'cv_sample'!$FK$1:$FK$5</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$EV$1:$EV$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$EV$1:$EV$294</definedName>
     <definedName name="heatingandcoolingsystemtype">'cv_sample'!$AT$1:$AT$5</definedName>
     <definedName name="indoorspace">'cv_sample'!$AR$1:$AR$8</definedName>
     <definedName name="indoorsurface">'cv_sample'!$AQ$1:$AQ$8</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="1132">
   <si>
     <t>alias</t>
   </si>
@@ -1694,13 +1694,13 @@
     <t>door location</t>
   </si>
   <si>
-    <t>(Optional) The relative location of the door in the room (Units: year)</t>
+    <t>(Optional) The relative location of the door in the room (Units: minute)</t>
   </si>
   <si>
     <t>window signs of water/mold</t>
   </si>
   <si>
-    <t>(Optional) Signs of the presence of mold or mildew on the window. (Units: year)</t>
+    <t>(Optional) Signs of the presence of mold or mildew on the window. (Units: minute)</t>
   </si>
   <si>
     <t>window type</t>
@@ -1712,7 +1712,7 @@
     <t>window material</t>
   </si>
   <si>
-    <t>(Optional) The type of material used to finish a window (Units: g/m3)</t>
+    <t>(Optional) The type of material used to finish a window (Units: %)</t>
   </si>
   <si>
     <t>window horizontal position</t>
@@ -1724,13 +1724,13 @@
     <t>room condition</t>
   </si>
   <si>
-    <t>(Optional) The condition of the room at the time of sampling (Units: mm)</t>
+    <t>(Optional) The condition of the room at the time of sampling (Units: m)</t>
   </si>
   <si>
     <t>window area/size</t>
   </si>
   <si>
-    <t>(Optional) The window's length and width (Units: mm)</t>
+    <t>(Optional) The window's length and width (Units: m)</t>
   </si>
   <si>
     <t>sampling floor</t>
@@ -1856,55 +1856,55 @@
     <t>floor structure</t>
   </si>
   <si>
-    <t>(Optional) Refers to the structural elements and subfloor upon which the finish flooring is installed (Units: year)</t>
+    <t>(Optional) Refers to the structural elements and subfloor upon which the finish flooring is installed (Units: minute)</t>
   </si>
   <si>
     <t>rooms that share a wall with sampling room</t>
   </si>
   <si>
-    <t>(Optional) List of room(s) (room number, room name) sharing a wall with the sampling room (Units: year)</t>
+    <t>(Optional) List of room(s) (room number, room name) sharing a wall with the sampling room (Units: minute)</t>
   </si>
   <si>
     <t>wall finish material</t>
   </si>
   <si>
-    <t>(Optional) The material utilized to finish the outer most layer of the wall (Units: year)</t>
+    <t>(Optional) The material utilized to finish the outer most layer of the wall (Units: minute)</t>
   </si>
   <si>
     <t>room occupancy</t>
   </si>
   <si>
-    <t>(Optional) Count of room occupancy at time of sampling (Units: year)</t>
+    <t>(Optional) Count of room occupancy at time of sampling (Units: minute)</t>
   </si>
   <si>
     <t>room location in building</t>
   </si>
   <si>
-    <t>(Optional) The position of the room within the building (Units: year)</t>
+    <t>(Optional) The position of the room within the building (Units: minute)</t>
   </si>
   <si>
     <t>floor finish material</t>
   </si>
   <si>
-    <t>(Optional) The floor covering type; the finished surface that is walked on (Units: year)</t>
+    <t>(Optional) The floor covering type; the finished surface that is walked on (Units: minute)</t>
   </si>
   <si>
     <t>room window count</t>
   </si>
   <si>
-    <t>(Optional) Number of windows in the room (Units: year)</t>
+    <t>(Optional) Number of windows in the room (Units: minute)</t>
   </si>
   <si>
     <t>sampling room id or name</t>
   </si>
   <si>
-    <t>(Optional) Explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other). (Units: year)</t>
+    <t>(Optional) Explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other). (Units: day)</t>
   </si>
   <si>
     <t>height carpet fiber mat</t>
   </si>
   <si>
-    <t>(Optional) The average carpet fiber height in the indoor environment (Units: mm)</t>
+    <t>(Optional) The average carpet fiber height in the indoor environment (Units: cm)</t>
   </si>
   <si>
     <t>ceiling area</t>
@@ -1952,13 +1952,13 @@
     <t>rooms that share a door with sampling room</t>
   </si>
   <si>
-    <t>(Optional) List of room(s) (room number, room name) sharing a door with the sampling room (Units: year)</t>
+    <t>(Optional) List of room(s) (room number, room name) sharing a door with the sampling room (Units: day)</t>
   </si>
   <si>
     <t>orientations of exterior window</t>
   </si>
   <si>
-    <t>(Optional) The compass direction the exterior window of the room is facing (Units: year)</t>
+    <t>(Optional) The compass direction the exterior window of the room is facing (Units: day)</t>
   </si>
   <si>
     <t>wall location</t>
@@ -2102,13 +2102,13 @@
     <t>water feature size</t>
   </si>
   <si>
-    <t>(Optional) The size of the water feature (Units: m2)</t>
+    <t>(Optional) The size of the water feature (Units: ha)</t>
   </si>
   <si>
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>sample size sorting method</t>
@@ -2348,9 +2348,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -2369,6 +2366,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -2570,6 +2570,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -2579,9 +2582,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -2621,7 +2621,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -2690,6 +2690,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -2765,6 +2768,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -2786,6 +2792,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -2831,6 +2840,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -2843,6 +2855,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -2852,9 +2867,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2879,6 +2891,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2939,12 +2954,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -3110,7 +3125,7 @@
     <t>frequency of cleaning</t>
   </si>
   <si>
-    <t>(Optional) The number of times the sample location is cleaned. frequency of cleaning might be on a daily basis, weekly, monthly, quarterly or annually. (Units: year)</t>
+    <t>(Optional) The number of times the sample location is cleaned. frequency of cleaning might be on a daily basis, weekly, monthly, quarterly or annually. (Units: minute)</t>
   </si>
   <si>
     <t>carbon dioxide</t>
@@ -3218,7 +3233,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -3290,7 +3305,7 @@
     <t>sampling day weather</t>
   </si>
   <si>
-    <t>(Optional) The weather on the sampling day (Units: g/m3)</t>
+    <t>(Optional) The weather on the sampling day (Units: %)</t>
   </si>
   <si>
     <t>amount of light</t>
@@ -3308,13 +3323,13 @@
     <t>outside relative humidity</t>
   </si>
   <si>
-    <t>(Optional) The recorded outside relative humidity value at the time of sampling (Units: g/m3)</t>
+    <t>(Optional) The recorded outside relative humidity value at the time of sampling (Units: %)</t>
   </si>
   <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>door area or size</t>
@@ -3362,31 +3377,31 @@
     <t>occupancy documentation</t>
   </si>
   <si>
-    <t>(Optional) The type of documentation of occupancy (Units: year)</t>
+    <t>(Optional) The type of documentation of occupancy (Units: minute)</t>
   </si>
   <si>
     <t>floor count</t>
   </si>
   <si>
-    <t>(Optional) The number of floors in the building, including basements and mechanical penthouse (Units: year)</t>
+    <t>(Optional) The number of floors in the building, including basements and mechanical penthouse (Units: minute)</t>
   </si>
   <si>
     <t>shading device material</t>
   </si>
   <si>
-    <t>(Optional) The material the shading device is composed of (Units: year)</t>
+    <t>(Optional) The material the shading device is composed of (Units: minute)</t>
   </si>
   <si>
     <t>built structure age</t>
   </si>
   <si>
-    <t>(Optional) The age of the built structure since construction (Units: year)</t>
+    <t>(Optional) The age of the built structure since construction (Units: day)</t>
   </si>
   <si>
     <t>hallway/corridor count</t>
   </si>
   <si>
-    <t>(Optional) The total count of hallways and corridors in the built structure (Units: g/m3)</t>
+    <t>(Optional) The total count of hallways and corridors in the built structure (Units: %)</t>
   </si>
   <si>
     <t>architectural structure</t>
@@ -5426,211 +5441,211 @@
         <v>693</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="FX1" s="1" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="FY1" s="1" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="FZ1" s="1" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="GA1" s="1" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="GS1" s="1" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="GU1" s="1" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="GV1" s="1" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="GX1" s="1" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="GZ1" s="1" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="HA1" s="1" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="HD1" s="1" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="HE1" s="1" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="HF1" s="1" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="HH1" s="1" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="HI1" s="1" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="HJ1" s="1" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="HK1" s="1" t="s">
-        <v>1123</v>
+        <v>1128</v>
       </c>
       <c r="HL1" s="1" t="s">
-        <v>1125</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:220" ht="150" customHeight="1">
@@ -6088,211 +6103,211 @@
         <v>694</v>
       </c>
       <c r="EV2" s="2" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="EX2" s="2" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="EY2" s="2" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="EZ2" s="2" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="FA2" s="2" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="FB2" s="2" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="FC2" s="2" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="FD2" s="2" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="FE2" s="2" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="FF2" s="2" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="FG2" s="2" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="FH2" s="2" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="FI2" s="2" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="FK2" s="2" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="FL2" s="2" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="FM2" s="2" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="FN2" s="2" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="FO2" s="2" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="FP2" s="2" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="FQ2" s="2" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="FR2" s="2" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="FS2" s="2" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="FT2" s="2" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="FU2" s="2" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="FV2" s="2" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="FW2" s="2" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="FX2" s="2" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="FY2" s="2" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="FZ2" s="2" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="GA2" s="2" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="GB2" s="2" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="GC2" s="2" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="GD2" s="2" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="GE2" s="2" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="GF2" s="2" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="GG2" s="2" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="GH2" s="2" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="GI2" s="2" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="GJ2" s="2" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="GK2" s="2" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="GL2" s="2" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="GM2" s="2" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="GN2" s="2" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="GO2" s="2" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="GP2" s="2" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="GQ2" s="2" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="GR2" s="2" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="GS2" s="2" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="GT2" s="2" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="GU2" s="2" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="GV2" s="2" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="GW2" s="2" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="GX2" s="2" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="GY2" s="2" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="GZ2" s="2" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="HA2" s="2" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="HB2" s="2" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="HC2" s="2" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="HD2" s="2" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="HE2" s="2" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="HF2" s="2" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="HG2" s="2" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="HH2" s="2" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="HI2" s="2" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="HJ2" s="2" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="HK2" s="2" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="HL2" s="2" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
@@ -6358,7 +6373,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:FK289"/>
+  <dimension ref="H1:FK294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6417,7 +6432,7 @@
         <v>695</v>
       </c>
       <c r="FK1" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="2" spans="8:167">
@@ -6473,7 +6488,7 @@
         <v>696</v>
       </c>
       <c r="FK2" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3" spans="8:167">
@@ -6526,7 +6541,7 @@
         <v>697</v>
       </c>
       <c r="FK3" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="4" spans="8:167">
@@ -6567,7 +6582,7 @@
         <v>698</v>
       </c>
       <c r="FK4" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" spans="8:167">
@@ -6605,7 +6620,7 @@
         <v>699</v>
       </c>
       <c r="FK5" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="6" spans="8:167">
@@ -8218,6 +8233,31 @@
     <row r="289" spans="152:152">
       <c r="EV289" t="s">
         <v>983</v>
+      </c>
+    </row>
+    <row r="290" spans="152:152">
+      <c r="EV290" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="291" spans="152:152">
+      <c r="EV291" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="292" spans="152:152">
+      <c r="EV292" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="293" spans="152:152">
+      <c r="EV293" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="294" spans="152:152">
+      <c r="EV294" t="s">
+        <v>988</v>
       </c>
     </row>
   </sheetData>
